--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="208">
   <si>
     <t>Doi</t>
   </si>
@@ -687,6 +687,144 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,  Kelvin Yuen Kwong%Chan%NULL%1,  Eric Hing Leung%Lee%NULL%1,  Mei-Shu%Xu%NULL%0,  Campbell Kam Po%Ting%NULL%1,  Thomas M. K.%So%NULL%1,  Pak C.%Sham%NULL%1,  Gabriel M.%Leung%NULL%0,  Joseph S. M.%Peiris%NULL%1,  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,   Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,   Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,   Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,   Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,   Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,   Pei-Jan%Chen%g8640@ms13.hinet.net%1,   Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,   Ken Hong%Lim%khlim@seed.net.tw%1,   Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,   Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,   Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,   Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,   Nelson L S%Tang%NULL%1,   David S C%Hui%NULL%1,   Grace T Y%Chung%NULL%1,   Stephen S C%Chim%NULL%1,   K C Allen%Chan%NULL%1,   Ying-man%Sung%NULL%1,   Louis Y S%Chan%NULL%1,   Yu-kwan%Tong%NULL%1,   Wing-shan%Lee%NULL%1,   Paul K S%Chan%NULL%1,   Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,   Naoto%Keicho%NULL%3,   Tran%Quy%NULL%4,   Nguyen Chi%Phi%NULL%4,   Hoang Thuy%Long%NULL%4,   Le Dang%Ha%NULL%4,   Vo Van%Ban%NULL%4,   Jun%Ohashi%NULL%1,   Minako%Hijikata%NULL%4,   Ikumi%Matsushita%NULL%3,   Akihiko%Kawana%NULL%1,   Hideki%Yanai%NULL%3,   Teruo%Kirikae%NULL%3,   Tadatoshi%Kuratsuji%NULL%3,   Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,   Kin-Mang%Lau%NULL%1,   Libby%Li%NULL%1,   Suk-Hang%Cheng%NULL%1,   Wing Y.%Chan%NULL%1,   Pak K.%Hui%NULL%1,   Benny%Zee%NULL%1,   Chi-Bon%Leung%NULL%1,   Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,   Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,   David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,   Grace TY%Chung%gracechung@cuhk.edu.hk%1,   Alan KL%Wu%alanklwu@yahoo.com%1,   Stephen SC%Chim%sschim@cuhk.edu.hk%1,   Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,   Nelson%Lee%leelsn@yahoo.com%1,   KW%Choi%kwchoi12@netvigator.com%1,   YM%Sung%mandysung@cuhk.edu.hk%1,   Paul KS%Chan%paulkschan@cuhk.edu.hk%1,   YK%Tong%yktong@cuhk.edu.hk%1,   ST%Lai%laist@ha.org.hk%1,   WC%Yu%yuwc@ha.org.hk%1,   Owen%Tsang%tyotsang@hotmail.com%1,   YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,   Minako%Hijikata%NULL%0,   Satoru%Itoyama%NULL%2,   Tran%Quy%NULL%0,   Nguyen Chi%Phi%NULL%0,   Hoang Thuy%Long%NULL%0,   Le Dang%Ha%NULL%0,   Vo Van%Ban%NULL%0,   Ikumi%Matsushita%NULL%0,   Hideki%Yanai%NULL%0,   Fumiko%Kirikae%NULL%2,   Teruo%Kirikae%NULL%0,   Tadatoshi%Kuratsuji%NULL%0,   Takehiko%Sasazuki%NULL%0,   Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,   Kwok Hung%Chan%NULL%1,   Helen K. W.%Law%NULL%1,   Gloria H. W.%Tso%NULL%1,   Eric K. P.%Kong%NULL%1,   Wilfred H. S.%Wong%NULL%1,   Yuk Fai%To%NULL%1,   Raymond W. H.%Yung%NULL%1,   Eudora Y.%Chow%NULL%1,   Ka Leung%Au%NULL%2,   Eric Y. T.%Chan%NULL%2,   Wilina%Lim%NULL%3,   Jens C.%Jensenius%NULL%1,   Malcolm W.%Turner%NULL%1,   J. S. Malik%Peiris%NULL%1,   Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,   Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,   Minako%Hijikata%NULL%0,   Tran%Quy%NULL%0,   Nguyen Chi%Phi%NULL%0,   Hoang Thuy%Long%NULL%0,   Le Dang%Ha%NULL%0,   Vo Van%Ban%NULL%0,   Ikumi%Matsushita%NULL%0,   Hideki%Yanai%NULL%0,   Fumiko%Kirikae%NULL%0,   Teruo%Kirikae%NULL%0,   Tadatoshi%Kuratsuji%NULL%0,   Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,   J.%Tanner%NULL%1,   P. K. S.%Chan%NULL%1,   S.%Biffin%NULL%1,   W. B.%Dyer%NULL%1,   A. F.%Geczy%NULL%1,   J. W.%Tang%NULL%1,   D. S. C.%Hui%NULL%1,   J. J. Y.%Sung%NULL%0,   J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,   Gangqiao%Zhou%NULL%2,   Lianteng%Zhi%NULL%1,   Hao%Yang%NULL%1,   Yun%Zhai%NULL%2,   Xiaojia%Dong%NULL%1,   Xiumei%Zhang%NULL%0,   Xue%Gao%NULL%1,   Yunping%Zhu%NULL%1,   Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,   Kelvin Y K%Chan%NULL%1,   Yongxiong%Chen%NULL%1,   Leo L M%Poon%NULL%0,   Annie N Y%Cheung%NULL%1,   Bojian%Zheng%NULL%1,   Kwok-Hung%Chan%NULL%0,   William%Mak%NULL%1,   Hextan Y S%Ngan%NULL%1,   Xiaoning%Xu%NULL%1,   Gavin%Screaton%NULL%1,   Paul K H%Tam%NULL%1,   Jonathan M%Austyn%NULL%1,   Li-Chong%Chan%NULL%2,   Shea-Ping%Yip%NULL%2,   Malik%Peiris%NULL%0,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,   Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,   WK Eddie%Ip%WIP@partners.org%1,   Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,   Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,   Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,   Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,   Raymond WH%Yung%rwhyung@ha.org.hk%2,   Eudora Y%Chow%chowe@ha.org.hk%2,   KL%Au%klau@ha.org.hk%1,   Eric YT%Chan%eytchan@ha.org.hk%2,   Wilina%Lim%wllim@pacific.net.hk%0,   JS Malik%Peiris%malik@hkucc.hku.hk%2,   Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,   Dan%Feng%fddd@263.net%1,   Sake J%de Vlas%s.devlas@erasmusmc.nl%1,   Hongwei%Wang%whw7809@yahoo.com.cn%1,   Arnaud%Fontanet%fontanet@pasteur.fr%1,   Panhe%Zhang%juntianz@yahoo.com.cn%1,   Sabine%Plancoulaine%plancoulaine@necker.fr%1,   Fang%Tang%tf4065@sina.com%0,   Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,   Hong%Yang%anni_yang@yahoo.com%1,   Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,   Jan H%Richardus%j.richardus@erasmusmc.nl%1,   J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,   Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,   Jyh-Yuan%Yang%NULL%1,   Jih-Hui%Lin%NULL%1,   Cathy S. J.%Fann%NULL%1,   Valeriy%Osyetrov%NULL%1,   Chwan-Chuen%King%NULL%1,   Yi-Ming Arthur%Chen%NULL%1,   Hsiao-Ling%Chang%NULL%1,   Hung-Wei%Kuo%NULL%1,   Fong%Liao%NULL%1,   Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,   Johannes C. Y.%Ching%NULL%1,   M. S.%Xu%NULL%1,   Annie N. Y.%Cheung%NULL%1,   Shea-Ping%Yip%NULL%0,   Loretta Y. C.%Yam%NULL%1,   Sik-To%Lai%NULL%2,   Chung-Ming%Chu%NULL%2,   Andrew T. Y.%Wong%NULL%1,   You-Qiang%Song%NULL%1,   Fang-Ping%Huang%NULL%1,   Wei%Liu%NULL%0,   P. H.%Chung%NULL%1,   G. M.%Leung%NULL%1,   Eudora Y. D.%Chow%NULL%1,   Eric Y. T.%Chan%NULL%0,   Jane C. K.%Chan%NULL%1,   Hextan%Ngan%NULL%1,   Paul%Tam%NULL%1,   Li-Chong%Chan%NULL%0,   Pak%Sham%NULL%1,   Vera S. F.%Chan%NULL%1,   Malik%Peiris%NULL%0,   Steve C. L.%Lin%NULL%1,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,   Gangqiao%Zhou%zhougq@chgb.org.cn%0,   Wai Po%Chong%h9820905@graduate.hku.hk%1,   Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,   Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,   Hongxing%Zhang%zhanghx08@126.com%1,   Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,   Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,   Yun%Zhai%zhaiyun077@tom.com%0,   Raymond WH%Yung%rwhyung@ha.org.hk%0,   Eudora Y%Chow%chowe@ha.org.hk%0,   Ka Leung%Au%klau@ha.org.hk%0,   Eric YT%Chan%eytchan@ha.org.hk%0,   Wilina%Lim%wllim@pacific.net.hk%0,   JS Malik%Peiris%malik@hkucc.hku.hk%0,   Fuchu%He%hefc@nic.bmi.ac.cn%0,   Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,   Maoti%Wei%weimaoti@yahoo.com.cn%1,   Yi%Han%halanhan2001sh@163.com%1,   Keju%Zhang%sinong77@sina.com%1,   Li%He%wujinhl@163.com%0,   Zhen%Yang%yzdtchina@yahoo.com.cn%1,   Bing%Su%tjsubin553@sina.com%1,   Zhilun%Zhang%zzl718@sina.com.cn%1,   Yilan%Hu%yougu@yahoo.com.cn%1,   Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,   Satoru%Itoyama%NULL%0,   Koichi%Kashiwase%NULL%1,   Nguyen Chi%Phi%NULL%0,   Hoang Thuy%Long%NULL%0,   Le Dang%Ha%NULL%0,   Vo Van%Ban%NULL%0,   Bach Khanh%Hoa%NULL%1,   Nguyen Thi Le%Hang%NULL%1,   Minako%Hijikata%NULL%0,   Shinsaku%Sakurada%NULL%1,   Masahiro%Satake%NULL%1,   Katsushi%Tokunaga%NULL%1,   Takehiko%Sasazuki%NULL%0,   Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,   Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,   Yuling%Shi%sane222@163.com%1,   Ping%Li%liping@nic.bmi.ac.cn%1,   Chuanxuan%Liu%renew7306_cn@sina.com%1,   Qingjun%Ma%maqingjun@sina.com%1,   Ruifu%Yang%zhangf@big.ac.cn%1,   Xiaoyi%Wang%happybettylx@hotmail.com%1,   Lina%zhu%luckina@sina.com%1,   Xiao%Yang%gaowei@sina.com%1,   Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,   Mei-Shu%Xu%NULL%2,   Johannes Chi Yun%Ching%NULL%1,   Thomas Man Kit%So%NULL%1,   Sik-To%Lai%NULL%0,   Chung-Ming%Chu%NULL%0,   Loretta Y.C.%Yam%NULL%1,   Andrew T.Y.%Wong%NULL%1,   Pui Hong%Chung%NULL%1,   Vera Sau Fong%Chan%NULL%1,   Chen Lung Steve%Lin%NULL%1,   Pak Chung%Sham%NULL%1,   Gabriel M.%Leung%NULL%0,   Joseph S.M.%Peiris%NULL%1,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,   Kelvin Yuen Kwong%Chan%NULL%1,   Eric Hing Leung%Lee%NULL%1,   Mei-Shu%Xu%NULL%0,   Campbell Kam Po%Ting%NULL%1,   Thomas M. K.%So%NULL%1,   Pak C.%Sham%NULL%1,   Gabriel M.%Leung%NULL%0,   Joseph S. M.%Peiris%NULL%1,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,    Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,    Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,    Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,    Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,    Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,    Pei-Jan%Chen%g8640@ms13.hinet.net%1,    Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,    Ken Hong%Lim%khlim@seed.net.tw%1,    Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,    Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,    Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,    Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,    Nelson L S%Tang%NULL%1,    David S C%Hui%NULL%1,    Grace T Y%Chung%NULL%1,    Stephen S C%Chim%NULL%1,    K C Allen%Chan%NULL%1,    Ying-man%Sung%NULL%1,    Louis Y S%Chan%NULL%1,    Yu-kwan%Tong%NULL%1,    Wing-shan%Lee%NULL%1,    Paul K S%Chan%NULL%1,    Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,    Naoto%Keicho%NULL%3,    Tran%Quy%NULL%4,    Nguyen Chi%Phi%NULL%4,    Hoang Thuy%Long%NULL%4,    Le Dang%Ha%NULL%4,    Vo Van%Ban%NULL%4,    Jun%Ohashi%NULL%1,    Minako%Hijikata%NULL%4,    Ikumi%Matsushita%NULL%3,    Akihiko%Kawana%NULL%1,    Hideki%Yanai%NULL%3,    Teruo%Kirikae%NULL%3,    Tadatoshi%Kuratsuji%NULL%3,    Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,    Kin-Mang%Lau%NULL%1,    Libby%Li%NULL%1,    Suk-Hang%Cheng%NULL%1,    Wing Y.%Chan%NULL%1,    Pak K.%Hui%NULL%1,    Benny%Zee%NULL%1,    Chi-Bon%Leung%NULL%1,    Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,    Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,    David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,    Grace TY%Chung%gracechung@cuhk.edu.hk%1,    Alan KL%Wu%alanklwu@yahoo.com%1,    Stephen SC%Chim%sschim@cuhk.edu.hk%1,    Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,    Nelson%Lee%leelsn@yahoo.com%1,    KW%Choi%kwchoi12@netvigator.com%1,    YM%Sung%mandysung@cuhk.edu.hk%1,    Paul KS%Chan%paulkschan@cuhk.edu.hk%1,    YK%Tong%yktong@cuhk.edu.hk%1,    ST%Lai%laist@ha.org.hk%1,    WC%Yu%yuwc@ha.org.hk%1,    Owen%Tsang%tyotsang@hotmail.com%1,    YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,    Minako%Hijikata%NULL%0,    Satoru%Itoyama%NULL%2,    Tran%Quy%NULL%0,    Nguyen Chi%Phi%NULL%0,    Hoang Thuy%Long%NULL%0,    Le Dang%Ha%NULL%0,    Vo Van%Ban%NULL%0,    Ikumi%Matsushita%NULL%0,    Hideki%Yanai%NULL%0,    Fumiko%Kirikae%NULL%2,    Teruo%Kirikae%NULL%0,    Tadatoshi%Kuratsuji%NULL%0,    Takehiko%Sasazuki%NULL%0,    Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,    Kwok Hung%Chan%NULL%1,    Helen K. W.%Law%NULL%1,    Gloria H. W.%Tso%NULL%1,    Eric K. P.%Kong%NULL%1,    Wilfred H. S.%Wong%NULL%1,    Yuk Fai%To%NULL%1,    Raymond W. H.%Yung%NULL%1,    Eudora Y.%Chow%NULL%1,    Ka Leung%Au%NULL%2,    Eric Y. T.%Chan%NULL%2,    Wilina%Lim%NULL%3,    Jens C.%Jensenius%NULL%1,    Malcolm W.%Turner%NULL%1,    J. S. Malik%Peiris%NULL%1,    Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,    Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,    Minako%Hijikata%NULL%0,    Tran%Quy%NULL%0,    Nguyen Chi%Phi%NULL%0,    Hoang Thuy%Long%NULL%0,    Le Dang%Ha%NULL%0,    Vo Van%Ban%NULL%0,    Ikumi%Matsushita%NULL%0,    Hideki%Yanai%NULL%0,    Fumiko%Kirikae%NULL%0,    Teruo%Kirikae%NULL%0,    Tadatoshi%Kuratsuji%NULL%0,    Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,    J.%Tanner%NULL%1,    P. K. S.%Chan%NULL%1,    S.%Biffin%NULL%1,    W. B.%Dyer%NULL%1,    A. F.%Geczy%NULL%1,    J. W.%Tang%NULL%1,    D. S. C.%Hui%NULL%1,    J. J. Y.%Sung%NULL%1,    J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,    Gangqiao%Zhou%NULL%2,    Lianteng%Zhi%NULL%1,    Hao%Yang%NULL%1,    Yun%Zhai%NULL%2,    Xiaojia%Dong%NULL%1,    Xiumei%Zhang%NULL%0,    Xue%Gao%NULL%1,    Yunping%Zhu%NULL%1,    Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,    Kelvin Y K%Chan%NULL%1,    Yongxiong%Chen%NULL%1,    Leo L M%Poon%NULL%1,    Annie N Y%Cheung%NULL%1,    Bojian%Zheng%NULL%1,    Kwok-Hung%Chan%NULL%0,    William%Mak%NULL%1,    Hextan Y S%Ngan%NULL%1,    Xiaoning%Xu%NULL%1,    Gavin%Screaton%NULL%1,    Paul K H%Tam%NULL%1,    Jonathan M%Austyn%NULL%1,    Li-Chong%Chan%NULL%2,    Shea-Ping%Yip%NULL%2,    Malik%Peiris%NULL%2,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,    Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,    WK Eddie%Ip%WIP@partners.org%1,    Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,    Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,    Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,    Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,    Raymond WH%Yung%rwhyung@ha.org.hk%2,    Eudora Y%Chow%chowe@ha.org.hk%2,    KL%Au%klau@ha.org.hk%1,    Eric YT%Chan%eytchan@ha.org.hk%2,    Wilina%Lim%wllim@pacific.net.hk%0,    JS Malik%Peiris%malik@hkucc.hku.hk%2,    Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,    Dan%Feng%fddd@263.net%1,    Sake J%de Vlas%s.devlas@erasmusmc.nl%1,    Hongwei%Wang%whw7809@yahoo.com.cn%0,    Arnaud%Fontanet%fontanet@pasteur.fr%1,    Panhe%Zhang%juntianz@yahoo.com.cn%1,    Sabine%Plancoulaine%plancoulaine@necker.fr%1,    Fang%Tang%tf4065@sina.com%1,    Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,    Hong%Yang%anni_yang@yahoo.com%1,    Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,    Jan H%Richardus%j.richardus@erasmusmc.nl%1,    J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,    Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,    Jyh-Yuan%Yang%NULL%1,    Jih-Hui%Lin%NULL%1,    Cathy S. J.%Fann%NULL%1,    Valeriy%Osyetrov%NULL%1,    Chwan-Chuen%King%NULL%1,    Yi-Ming Arthur%Chen%NULL%1,    Hsiao-Ling%Chang%NULL%1,    Hung-Wei%Kuo%NULL%1,    Fong%Liao%NULL%1,    Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,    Johannes C. Y.%Ching%NULL%1,    M. S.%Xu%NULL%1,    Annie N. Y.%Cheung%NULL%1,    Shea-Ping%Yip%NULL%0,    Loretta Y. C.%Yam%NULL%1,    Sik-To%Lai%NULL%2,    Chung-Ming%Chu%NULL%2,    Andrew T. Y.%Wong%NULL%1,    You-Qiang%Song%NULL%1,    Fang-Ping%Huang%NULL%1,    Wei%Liu%NULL%0,    P. H.%Chung%NULL%1,    G. M.%Leung%NULL%1,    Eudora Y. D.%Chow%NULL%1,    Eric Y. T.%Chan%NULL%0,    Jane C. K.%Chan%NULL%1,    Hextan%Ngan%NULL%1,    Paul%Tam%NULL%1,    Li-Chong%Chan%NULL%0,    Pak%Sham%NULL%1,    Vera S. F.%Chan%NULL%1,    Malik%Peiris%NULL%0,    Steve C. L.%Lin%NULL%1,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,    Gangqiao%Zhou%zhougq@chgb.org.cn%0,    Wai Po%Chong%h9820905@graduate.hku.hk%1,    Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,    Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,    Hongxing%Zhang%zhanghx08@126.com%1,    Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,    Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,    Yun%Zhai%zhaiyun077@tom.com%0,    Raymond WH%Yung%rwhyung@ha.org.hk%0,    Eudora Y%Chow%chowe@ha.org.hk%0,    Ka Leung%Au%klau@ha.org.hk%0,    Eric YT%Chan%eytchan@ha.org.hk%0,    Wilina%Lim%wllim@pacific.net.hk%0,    JS Malik%Peiris%malik@hkucc.hku.hk%0,    Fuchu%He%hefc@nic.bmi.ac.cn%0,    Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,    Maoti%Wei%weimaoti@yahoo.com.cn%1,    Yi%Han%halanhan2001sh@163.com%1,    Keju%Zhang%sinong77@sina.com%1,    Li%He%wujinhl@163.com%1,    Zhen%Yang%yzdtchina@yahoo.com.cn%1,    Bing%Su%tjsubin553@sina.com%1,    Zhilun%Zhang%zzl718@sina.com.cn%1,    Yilan%Hu%yougu@yahoo.com.cn%1,    Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,    Satoru%Itoyama%NULL%0,    Koichi%Kashiwase%NULL%1,    Nguyen Chi%Phi%NULL%0,    Hoang Thuy%Long%NULL%0,    Le Dang%Ha%NULL%0,    Vo Van%Ban%NULL%0,    Bach Khanh%Hoa%NULL%1,    Nguyen Thi Le%Hang%NULL%1,    Minako%Hijikata%NULL%0,    Shinsaku%Sakurada%NULL%1,    Masahiro%Satake%NULL%1,    Katsushi%Tokunaga%NULL%1,    Takehiko%Sasazuki%NULL%0,    Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,    Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,    Yuling%Shi%sane222@163.com%1,    Ping%Li%liping@nic.bmi.ac.cn%0,    Chuanxuan%Liu%renew7306_cn@sina.com%1,    Qingjun%Ma%maqingjun@sina.com%1,    Ruifu%Yang%zhangf@big.ac.cn%1,    Xiaoyi%Wang%happybettylx@hotmail.com%1,    Lina%zhu%luckina@sina.com%1,    Xiao%Yang%gaowei@sina.com%1,    Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,    Mei-Shu%Xu%NULL%2,    Johannes Chi Yun%Ching%NULL%1,    Thomas Man Kit%So%NULL%1,    Sik-To%Lai%NULL%0,    Chung-Ming%Chu%NULL%0,    Loretta Y.C.%Yam%NULL%1,    Andrew T.Y.%Wong%NULL%1,    Pui Hong%Chung%NULL%1,    Vera Sau Fong%Chan%NULL%1,    Chen Lung Steve%Lin%NULL%1,    Pak Chung%Sham%NULL%1,    Gabriel M.%Leung%NULL%2,    Joseph S.M.%Peiris%NULL%1,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,    Kelvin Yuen Kwong%Chan%NULL%1,    Eric Hing Leung%Lee%NULL%1,    Mei-Shu%Xu%NULL%0,    Campbell Kam Po%Ting%NULL%1,    Thomas M. K.%So%NULL%1,    Pak C.%Sham%NULL%1,    Gabriel M.%Leung%NULL%0,    Joseph S. M.%Peiris%NULL%1,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1152,9 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
+      <c r="I1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1029,7 +1170,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1039,6 +1180,9 @@
       </c>
       <c r="H2" t="s">
         <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -1055,7 +1199,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1065,6 +1209,9 @@
       </c>
       <c r="H3" t="s">
         <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -1081,7 +1228,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1091,6 +1238,9 @@
       </c>
       <c r="H4" t="s">
         <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -1107,7 +1257,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1117,6 +1267,9 @@
       </c>
       <c r="H5" t="s">
         <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -1133,7 +1286,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -1143,6 +1296,9 @@
       </c>
       <c r="H6" t="s">
         <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1159,7 +1315,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>65</v>
@@ -1169,6 +1325,9 @@
       </c>
       <c r="H7" t="s">
         <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -1185,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1195,6 +1354,9 @@
       </c>
       <c r="H8" t="s">
         <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1373,7 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>74</v>
@@ -1221,6 +1383,9 @@
       </c>
       <c r="H9" t="s">
         <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10">
@@ -1237,7 +1402,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1247,6 +1412,9 @@
       </c>
       <c r="H10" t="s">
         <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11">
@@ -1263,7 +1431,7 @@
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>84</v>
@@ -1273,6 +1441,9 @@
       </c>
       <c r="H11" t="s">
         <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1289,7 +1460,7 @@
         <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
@@ -1299,6 +1470,9 @@
       </c>
       <c r="H12" t="s">
         <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1489,7 @@
         <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
         <v>94</v>
@@ -1325,6 +1499,9 @@
       </c>
       <c r="H13" t="s">
         <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1341,7 +1518,7 @@
         <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
         <v>99</v>
@@ -1351,6 +1528,9 @@
       </c>
       <c r="H14" t="s">
         <v>100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -1367,7 +1547,7 @@
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="F15" t="s">
         <v>104</v>
@@ -1377,6 +1557,9 @@
       </c>
       <c r="H15" t="s">
         <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -1404,6 +1587,9 @@
       <c r="H16" t="s">
         <v>47</v>
       </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1419,7 +1605,7 @@
         <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -1429,6 +1615,9 @@
       </c>
       <c r="H17" t="s">
         <v>110</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1445,7 +1634,7 @@
         <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -1455,6 +1644,9 @@
       </c>
       <c r="H18" t="s">
         <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -1482,6 +1674,9 @@
       <c r="H19" t="s">
         <v>47</v>
       </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1508,6 +1703,9 @@
       <c r="H20" t="s">
         <v>47</v>
       </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
@@ -1523,7 +1721,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -1533,6 +1731,9 @@
       </c>
       <c r="H21" t="s">
         <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -1549,7 +1750,7 @@
         <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
         <v>124</v>
@@ -1559,6 +1760,9 @@
       </c>
       <c r="H22" t="s">
         <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="23">
@@ -1575,7 +1779,7 @@
         <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
         <v>129</v>
@@ -1585,6 +1789,9 @@
       </c>
       <c r="H23" t="s">
         <v>130</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24">
@@ -1601,7 +1808,7 @@
         <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
         <v>134</v>
@@ -1611,6 +1818,9 @@
       </c>
       <c r="H24" t="s">
         <v>135</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -1627,7 +1837,7 @@
         <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F25" t="s">
         <v>139</v>
@@ -1637,6 +1847,9 @@
       </c>
       <c r="H25" t="s">
         <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376768CD-C364-46D3-9A67-A30786EBEC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="229">
   <si>
     <t>Doi</t>
   </si>
@@ -152,9 +159,6 @@
 </t>
   </si>
   <si>
-    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1, Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1, Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1, Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1, Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1, Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1, Pei-Jan%Chen%g8640@ms13.hinet.net%1, Ying-Wen%Su%yingwen_su@yahoo.com.tw%1, Ken Hong%Lim%khlim@seed.net.tw%1, Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1, Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1, Ruey-Shiung%Lin%rueyshiung@yahoo.com%1, Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
-  </si>
-  <si>
     <t>PMC212558</t>
   </si>
   <si>
@@ -169,9 +173,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Rossa W K%Chiu%NULL%1, Nelson L S%Tang%NULL%1, David S C%Hui%NULL%1, Grace T Y%Chung%NULL%1, Stephen S C%Chim%NULL%1, K C Allen%Chan%NULL%1, Ying-man%Sung%NULL%1, Louis Y S%Chan%NULL%1, Yu-kwan%Tong%NULL%1, Wing-shan%Lee%NULL%1, Paul K S%Chan%NULL%1, Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
   </si>
   <si>
     <t>PMC7108155</t>
@@ -190,9 +191,6 @@
  Despite the small sample size, the frequency of the D allele was significantly higher in the hypoxemic group than in the non-hypoxemic group (p = 0.013), whereas there was no significant difference between the SARS cases and controls, irrespective of a contact history.
  ACE1 might be one of the candidate genes that influence the progression of pneumonia in SARS.
 </t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%4, Naoto%Keicho%NULL%4, Tran%Quy%NULL%4, Nguyen Chi%Phi%NULL%4, Hoang Thuy%Long%NULL%4, Le Dang%Ha%NULL%4, Vo Van%Ban%NULL%4, Jun%Ohashi%NULL%1, Minako%Hijikata%NULL%4, Ikumi%Matsushita%NULL%3, Akihiko%Kawana%NULL%1, Hideki%Yanai%NULL%3, Teruo%Kirikae%NULL%3, Tadatoshi%Kuratsuji%NULL%3, Takehiko%Sasazuki%NULL%4]</t>
   </si>
   <si>
     <t>PMC7092806</t>
@@ -210,9 +208,6 @@
  Moreover, the frequency of B*0703 and B60 coinheritance (9.6%; 95% CI, 4.6%–19.0%) in our SARS group was significantly higher (P = 3×10−9) than that expected in the general population (0.4%).
  These genetic data will critically affect both the study of the pathogenesis of SARS and the design of vaccination programs.
 </t>
-  </si>
-  <si>
-    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1, Kin-Mang%Lau%NULL%1, Libby%Li%NULL%1, Suk-Hang%Cheng%NULL%1, Wing Y.%Chan%NULL%1, Pak K.%Hui%NULL%1, Benny%Zee%NULL%1, Chi-Bon%Leung%NULL%1, Joseph J. Y.%Sung%NULL%1]</t>
   </si>
   <si>
     <t>PMC7109646</t>
@@ -241,9 +236,6 @@
 </t>
   </si>
   <si>
-    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1, Nelson LS%Tang%nelsontang@cuhk.edu.hk%1, David SC%Hui%b200945@mailserv.cuhk.edu.hk%1, Grace TY%Chung%gracechung@cuhk.edu.hk%1, Alan KL%Wu%alanklwu@yahoo.com%1, Stephen SC%Chim%sschim@cuhk.edu.hk%1, Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1, Nelson%Lee%leelsn@yahoo.com%1, KW%Choi%kwchoi12@netvigator.com%1, YM%Sung%mandysung@cuhk.edu.hk%1, Paul KS%Chan%paulkschan@cuhk.edu.hk%1, YK%Tong%yktong@cuhk.edu.hk%1, ST%Lai%laist@ha.org.hk%1, WC%Yu%yuwc@ha.org.hk%1, Owen%Tsang%tyotsang@hotmail.com%1, YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
     <t>PMC1090578</t>
   </si>
   <si>
@@ -260,9 +252,6 @@
  The GG genotype and G-allele of G/T SNP at position −88 in the MxA gene promoter were found more frequently in hypoxemic group than in non-hypoxemic group of SARS (p = 0.0195).
  Our findings suggest that polymorphisms of two IFN-inducible genes OAS-1 and MxA might affect susceptibility to the disease and progression of SARS at each level.
 </t>
-  </si>
-  <si>
-    <t>[Emi%Hamano%NULL%1, Minako%Hijikata%NULL%0, Satoru%Itoyama%NULL%0, Tran%Quy%NULL%0, Nguyen Chi%Phi%NULL%0, Hoang Thuy%Long%NULL%0, Le Dang%Ha%NULL%0, Vo Van%Ban%NULL%0, Ikumi%Matsushita%NULL%0, Hideki%Yanai%NULL%0, Fumiko%Kirikae%NULL%2, Teruo%Kirikae%NULL%0, Tadatoshi%Kuratsuji%NULL%0, Takehiko%Sasazuki%NULL%0, Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
   </si>
   <si>
     <t>PMC7092916</t>
@@ -283,9 +272,6 @@
  These results suggest that MBL contributes to the first-line host defense against SARS-CoV and that MBL deficiency is a susceptibility factor for acquisition of SARS</t>
   </si>
   <si>
-    <t>[W. K. Eddie%Ip%NULL%1, Kwok Hung%Chan%NULL%1, Helen K. W.%Law%NULL%1, Gloria H. W.%Tso%NULL%1, Eric K. P.%Kong%NULL%1, Wilfred H. S.%Wong%NULL%1, Yuk Fai%To%NULL%1, Raymond W. H.%Yung%NULL%1, Eudora Y.%Chow%NULL%1, Ka Leung%Au%NULL%2, Eric Y. T.%Chan%NULL%2, Wilina%Lim%NULL%3, Jens C.%Jensenius%NULL%1, Malcolm W.%Turner%NULL%1, J. S. Malik%Peiris%NULL%1, Yu Lung%Lau%NULL%3]</t>
-  </si>
-  <si>
     <t>PMC7199483</t>
   </si>
   <si>
@@ -303,9 +289,6 @@
  Nevertheless, identification of new 5′‐untranslated exon and new SNPs is considered helpful in investigating regulation of ACE2 gene expression in the future.
  © 2005 Wiley‐Liss, Inc.
 </t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%0, Naoto%Keicho%nkeicho-tky@umin.ac.jp%0, Minako%Hijikata%NULL%0, Tran%Quy%NULL%0, Nguyen Chi%Phi%NULL%0, Hoang Thuy%Long%NULL%0, Le Dang%Ha%NULL%0, Vo Van%Ban%NULL%0, Ikumi%Matsushita%NULL%0, Hideki%Yanai%NULL%0, Fumiko%Kirikae%NULL%0, Teruo%Kirikae%NULL%0, Tadatoshi%Kuratsuji%NULL%0, Takehiko%Sasazuki%NULL%0]</t>
   </si>
   <si>
     <t>PMC7138097</t>
@@ -328,9 +311,6 @@
 </t>
   </si>
   <si>
-    <t>[F. F.%Yuan%NULL%1, J.%Tanner%NULL%1, P. K. S.%Chan%NULL%1, S.%Biffin%NULL%1, W. B.%Dyer%NULL%1, A. F.%Geczy%NULL%1, J. W.%Tang%NULL%1, D. S. C.%Hui%NULL%1, J. J. Y.%Sung%NULL%1, J. S.%Sullivan%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7190181</t>
   </si>
   <si>
@@ -345,9 +325,6 @@
  We assessed whether mannose-binding lectin (MBL) gene polymorphisms were associated with susceptibility to SARS-CoV infection or disease severity in an ethnically homogeneous population born in northern China</t>
   </si>
   <si>
-    <t>[Hongxing%Zhang%NULL%2, Gangqiao%Zhou%NULL%2, Lianteng%Zhi%NULL%1, Hao%Yang%NULL%1, Yun%Zhai%NULL%2, Xiaojia%Dong%NULL%1, Xiumei%Zhang%NULL%1, Xue%Gao%NULL%1, Yunping%Zhu%NULL%1, Fuchu%He%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7202438</t>
   </si>
   <si>
@@ -360,9 +337,6 @@
     <t xml:space="preserve">Supplementary information
 The online version of this article (doi:10.1038/ng1698) contains supplementary material, which is available to authorized users.
 </t>
-  </si>
-  <si>
-    <t>[Vera S F%Chan%NULL%1, Kelvin Y K%Chan%NULL%1, Yongxiong%Chen%NULL%1, Leo L M%Poon%NULL%1, Annie N Y%Cheung%NULL%1, Bojian%Zheng%NULL%1, Kwok-Hung%Chan%NULL%1, William%Mak%NULL%1, Hextan Y S%Ngan%NULL%1, Xiaoning%Xu%NULL%1, Gavin%Screaton%NULL%1, Paul K H%Tam%NULL%1, Jonathan M%Austyn%NULL%1, Li-Chong%Chan%NULL%2, Shea-Ping%Yip%NULL%2, Malik%Peiris%NULL%2, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4, Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
   </si>
   <si>
     <t>PMC7097088</t>
@@ -387,9 +361,6 @@
 Conclusion
 IFN-γ +874A allele was shown to be a risk factor in SARS susceptibility.
 </t>
-  </si>
-  <si>
-    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1, WK Eddie%Ip%WIP@partners.org%1, Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1, Man Wai%Ng%ivy_natsu@yahoo.com.hk%2, Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2, Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2, Raymond WH%Yung%rwhyung@ha.org.hk%2, Eudora Y%Chow%chowe@ha.org.hk%2, KL%Au%klau@ha.org.hk%1, Eric YT%Chan%eytchan@ha.org.hk%2, Wilina%Lim%wllim@pacific.net.hk%0, JS Malik%Peiris%malik@hkucc.hku.hk%2, Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
   </si>
   <si>
     <t>PMC1468415</t>
@@ -420,9 +391,6 @@
 </t>
   </si>
   <si>
-    <t>[Jing%He%jinghe2004@gmail.com%1, Dan%Feng%fddd@263.net%1, Sake J%de Vlas%s.devlas@erasmusmc.nl%1, Hongwei%Wang%whw7809@yahoo.com.cn%1, Arnaud%Fontanet%fontanet@pasteur.fr%1, Panhe%Zhang%juntianz@yahoo.com.cn%1, Sabine%Plancoulaine%plancoulaine@necker.fr%1, Fang%Tang%tf4065@sina.com%1, Lin%Zhan%zhanzhan_30@yahoo.com.cn%1, Hong%Yang%anni_yang@yahoo.com%1, Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1, Jan H%Richardus%j.richardus@erasmusmc.nl%1, J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1, Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
     <t>PMC1550407</t>
   </si>
   <si>
@@ -437,9 +405,6 @@
  A high initial or peak severe acute respiratory syndrome (SARS)—associated coronavirus (SARS-CoV) load in nasopharyngeal specimens was shown to be associated with a high mortality rate.
  Because all infected individuals were devoid of preeexisting protective immunity against SARS-CoV, the biological basis for the variable virus burdens in different patients remains elusive.
 </t>
-  </si>
-  <si>
-    <t>[Wei-Ju%Chen%NULL%1, Jyh-Yuan%Yang%NULL%1, Jih-Hui%Lin%NULL%1, Cathy S. J.%Fann%NULL%1, Valeriy%Osyetrov%NULL%1, Chwan-Chuen%King%NULL%1, Yi-Ming Arthur%Chen%NULL%1, Hsiao-Ling%Chang%NULL%1, Hung-Wei%Kuo%NULL%1, Fong%Liao%NULL%1, Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
   </si>
   <si>
     <t>PMC7107974</t>
@@ -460,9 +425,6 @@
 022; OR, 0.30 [95% CI, 0.10–0.89]) on admission.
  These findings support the role of ICAM3 in the immunopathogenesis of SARS.
 </t>
-  </si>
-  <si>
-    <t>[Kelvin Y. K.%Chan%NULL%1, Johannes C. Y.%Ching%NULL%1, M. S.%Xu%NULL%1, Annie N. Y.%Cheung%NULL%1, Shea-Ping%Yip%NULL%0, Loretta Y. C.%Yam%NULL%1, Sik-To%Lai%NULL%2, Chung-Ming%Chu%NULL%2, Andrew T. Y.%Wong%NULL%1, You-Qiang%Song%NULL%1, Fang-Ping%Huang%NULL%1, Wei%Liu%NULL%0, P. H.%Chung%NULL%1, G. M.%Leung%NULL%1, Eudora Y. D.%Chow%NULL%1, Eric Y. T.%Chan%NULL%0, Jane C. K.%Chan%NULL%1, Hextan%Ngan%NULL%1, Paul%Tam%NULL%1, Li-Chong%Chan%NULL%0, Pak%Sham%NULL%1, Vera S. F.%Chan%NULL%1, Malik%Peiris%NULL%0, Steve C. L.%Lin%NULL%1, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
   <si>
     <t>PMC7202406</t>
@@ -489,9 +451,6 @@
 Conclusion
 RANTES -28 G allele plays a role in the pathogenesis of SARS.
 </t>
-  </si>
-  <si>
-    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%0, Gangqiao%Zhou%zhougq@chgb.org.cn%0, Wai Po%Chong%h9820905@graduate.hku.hk%1, Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1, Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0, Hongxing%Zhang%zhanghx08@126.com%0, Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0, Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1, Yun%Zhai%zhaiyun077@tom.com%0, Raymond WH%Yung%rwhyung@ha.org.hk%0, Eudora Y%Chow%chowe@ha.org.hk%0, Ka Leung%Au%klau@ha.org.hk%0, Eric YT%Chan%eytchan@ha.org.hk%0, Wilina%Lim%wllim@pacific.net.hk%0, JS Malik%Peiris%malik@hkucc.hku.hk%0, Fuchu%He%hefc@nic.bmi.ac.cn%0, Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
   </si>
   <si>
     <t>PMC1899505</t>
@@ -521,9 +480,6 @@
 </t>
   </si>
   <si>
-    <t>[Shixin%Wang%Wshx-001@163.com%1, Maoti%Wei%weimaoti@yahoo.com.cn%1, Yi%Han%halanhan2001sh@163.com%1, Keju%Zhang%sinong77@sina.com%1, Li%He%wujinhl@163.com%1, Zhen%Yang%yzdtchina@yahoo.com.cn%1, Bing%Su%tjsubin553@sina.com%1, Zhilun%Zhang%zzl718@sina.com.cn%1, Yilan%Hu%yougu@yahoo.com.cn%1, Wuli%Hui%huiwuli@163.com%1]</t>
-  </si>
-  <si>
     <t>PMC2291466</t>
   </si>
   <si>
@@ -541,9 +497,6 @@
  HLA-DRB1*1202, the predominant allele in the Vietnamese population showed the strongest association with SARS in a dominant model (corrected p = 0.0065 and 0.0052, depending on the controls to be compared).
  Our results and accumulated data on HLA in the Asian populations would help in the understanding of associations with emerging infectious diseases.
 </t>
-  </si>
-  <si>
-    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%0, Satoru%Itoyama%NULL%0, Koichi%Kashiwase%NULL%1, Nguyen Chi%Phi%NULL%0, Hoang Thuy%Long%NULL%0, Le Dang%Ha%NULL%0, Vo Van%Ban%NULL%0, Bach Khanh%Hoa%NULL%1, Nguyen Thi Le%Hang%NULL%1, Minako%Hijikata%NULL%0, Shinsaku%Sakurada%NULL%1, Masahiro%Satake%NULL%1, Katsushi%Tokunaga%NULL%1, Takehiko%Sasazuki%NULL%0, Tran%Quy%NULL%0]</t>
   </si>
   <si>
     <t>PMC7132661</t>
@@ -572,9 +525,6 @@
 </t>
   </si>
   <si>
-    <t>[Yan%Wang%001wangyan@sina.com%1, Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1, Yuling%Shi%sane222@163.com%1, Ping%Li%liping@nic.bmi.ac.cn%1, Chuanxuan%Liu%renew7306_cn@sina.com%1, Qingjun%Ma%maqingjun@sina.com%1, Ruifu%Yang%zhangf@big.ac.cn%1, Xiaoyi%Wang%happybettylx@hotmail.com%1, Lina%zhu%luckina@sina.com%1, Xiao%Yang%gaowei@sina.com%1, Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
     <t>PMC2683852</t>
   </si>
   <si>
@@ -596,9 +546,6 @@
 </t>
   </si>
   <si>
-    <t>[Kelvin Yuen Kwong%Chan%NULL%2, Mei-Shu%Xu%NULL%2, Johannes Chi Yun%Ching%NULL%1, Thomas Man Kit%So%NULL%1, Sik-To%Lai%NULL%0, Chung-Ming%Chu%NULL%0, Loretta Y.C.%Yam%NULL%1, Andrew T.Y.%Wong%NULL%1, Pui Hong%Chung%NULL%1, Vera Sau Fong%Chan%NULL%1, Chen Lung Steve%Lin%NULL%1, Pak Chung%Sham%NULL%1, Gabriel M.%Leung%NULL%2, Joseph S.M.%Peiris%NULL%1, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
     <t>PMC7115401</t>
   </si>
   <si>
@@ -617,247 +564,373 @@
 </t>
   </si>
   <si>
-    <t>[Johannes Chi-Yun%Ching%NULL%1, Kelvin Yuen Kwong%Chan%NULL%0, Eric Hing Leung%Lee%NULL%1, Mei-Shu%Xu%NULL%0, Campbell Kam Po%Ting%NULL%1, Thomas M. K.%So%NULL%1, Pak C.%Sham%NULL%1, Gabriel M.%Leung%NULL%0, Joseph S. M.%Peiris%NULL%1, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
     <t>PMC7109798</t>
   </si>
   <si>
     <t>2010-01-06</t>
   </si>
   <si>
-    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,  Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,  Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,  Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,  Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,  Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,  Pei-Jan%Chen%g8640@ms13.hinet.net%1,  Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,  Ken Hong%Lim%khlim@seed.net.tw%1,  Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,  Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,  Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,  Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
-  </si>
-  <si>
-    <t>[Rossa W K%Chiu%NULL%1,  Nelson L S%Tang%NULL%1,  David S C%Hui%NULL%1,  Grace T Y%Chung%NULL%1,  Stephen S C%Chim%NULL%1,  K C Allen%Chan%NULL%1,  Ying-man%Sung%NULL%1,  Louis Y S%Chan%NULL%1,  Yu-kwan%Tong%NULL%1,  Wing-shan%Lee%NULL%1,  Paul K S%Chan%NULL%1,  Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%2,  Naoto%Keicho%NULL%3,  Tran%Quy%NULL%4,  Nguyen Chi%Phi%NULL%4,  Hoang Thuy%Long%NULL%4,  Le Dang%Ha%NULL%4,  Vo Van%Ban%NULL%4,  Jun%Ohashi%NULL%1,  Minako%Hijikata%NULL%4,  Ikumi%Matsushita%NULL%3,  Akihiko%Kawana%NULL%1,  Hideki%Yanai%NULL%3,  Teruo%Kirikae%NULL%3,  Tadatoshi%Kuratsuji%NULL%3,  Takehiko%Sasazuki%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,  Kin-Mang%Lau%NULL%1,  Libby%Li%NULL%1,  Suk-Hang%Cheng%NULL%1,  Wing Y.%Chan%NULL%1,  Pak K.%Hui%NULL%1,  Benny%Zee%NULL%1,  Chi-Bon%Leung%NULL%1,  Joseph J. Y.%Sung%NULL%1]</t>
-  </si>
-  <si>
-    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,  Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,  David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,  Grace TY%Chung%gracechung@cuhk.edu.hk%1,  Alan KL%Wu%alanklwu@yahoo.com%1,  Stephen SC%Chim%sschim@cuhk.edu.hk%1,  Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,  Nelson%Lee%leelsn@yahoo.com%1,  KW%Choi%kwchoi12@netvigator.com%1,  YM%Sung%mandysung@cuhk.edu.hk%1,  Paul KS%Chan%paulkschan@cuhk.edu.hk%1,  YK%Tong%yktong@cuhk.edu.hk%1,  ST%Lai%laist@ha.org.hk%1,  WC%Yu%yuwc@ha.org.hk%1,  Owen%Tsang%tyotsang@hotmail.com%1,  YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
-    <t>[Emi%Hamano%NULL%1,  Minako%Hijikata%NULL%0,  Satoru%Itoyama%NULL%2,  Tran%Quy%NULL%0,  Nguyen Chi%Phi%NULL%0,  Hoang Thuy%Long%NULL%0,  Le Dang%Ha%NULL%0,  Vo Van%Ban%NULL%0,  Ikumi%Matsushita%NULL%0,  Hideki%Yanai%NULL%0,  Fumiko%Kirikae%NULL%2,  Teruo%Kirikae%NULL%0,  Tadatoshi%Kuratsuji%NULL%0,  Takehiko%Sasazuki%NULL%0,  Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[W. K. Eddie%Ip%NULL%1,  Kwok Hung%Chan%NULL%1,  Helen K. W.%Law%NULL%1,  Gloria H. W.%Tso%NULL%1,  Eric K. P.%Kong%NULL%1,  Wilfred H. S.%Wong%NULL%1,  Yuk Fai%To%NULL%1,  Raymond W. H.%Yung%NULL%1,  Eudora Y.%Chow%NULL%1,  Ka Leung%Au%NULL%2,  Eric Y. T.%Chan%NULL%2,  Wilina%Lim%NULL%3,  Jens C.%Jensenius%NULL%1,  Malcolm W.%Turner%NULL%1,  J. S. Malik%Peiris%NULL%1,  Yu Lung%Lau%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%0,  Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,  Minako%Hijikata%NULL%0,  Tran%Quy%NULL%0,  Nguyen Chi%Phi%NULL%0,  Hoang Thuy%Long%NULL%0,  Le Dang%Ha%NULL%0,  Vo Van%Ban%NULL%0,  Ikumi%Matsushita%NULL%0,  Hideki%Yanai%NULL%0,  Fumiko%Kirikae%NULL%0,  Teruo%Kirikae%NULL%0,  Tadatoshi%Kuratsuji%NULL%0,  Takehiko%Sasazuki%NULL%0]</t>
-  </si>
-  <si>
-    <t>[F. F.%Yuan%NULL%1,  J.%Tanner%NULL%1,  P. K. S.%Chan%NULL%1,  S.%Biffin%NULL%1,  W. B.%Dyer%NULL%1,  A. F.%Geczy%NULL%1,  J. W.%Tang%NULL%1,  D. S. C.%Hui%NULL%1,  J. J. Y.%Sung%NULL%0,  J. S.%Sullivan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Hongxing%Zhang%NULL%1,  Gangqiao%Zhou%NULL%2,  Lianteng%Zhi%NULL%1,  Hao%Yang%NULL%1,  Yun%Zhai%NULL%2,  Xiaojia%Dong%NULL%1,  Xiumei%Zhang%NULL%0,  Xue%Gao%NULL%1,  Yunping%Zhu%NULL%1,  Fuchu%He%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Vera S F%Chan%NULL%1,  Kelvin Y K%Chan%NULL%1,  Yongxiong%Chen%NULL%1,  Leo L M%Poon%NULL%0,  Annie N Y%Cheung%NULL%1,  Bojian%Zheng%NULL%1,  Kwok-Hung%Chan%NULL%0,  William%Mak%NULL%1,  Hextan Y S%Ngan%NULL%1,  Xiaoning%Xu%NULL%1,  Gavin%Screaton%NULL%1,  Paul K H%Tam%NULL%1,  Jonathan M%Austyn%NULL%1,  Li-Chong%Chan%NULL%2,  Shea-Ping%Yip%NULL%2,  Malik%Peiris%NULL%0,  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,  Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
-  </si>
-  <si>
-    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,  WK Eddie%Ip%WIP@partners.org%1,  Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,  Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,  Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,  Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,  Raymond WH%Yung%rwhyung@ha.org.hk%2,  Eudora Y%Chow%chowe@ha.org.hk%2,  KL%Au%klau@ha.org.hk%1,  Eric YT%Chan%eytchan@ha.org.hk%2,  Wilina%Lim%wllim@pacific.net.hk%0,  JS Malik%Peiris%malik@hkucc.hku.hk%2,  Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Jing%He%jinghe2004@gmail.com%1,  Dan%Feng%fddd@263.net%1,  Sake J%de Vlas%s.devlas@erasmusmc.nl%1,  Hongwei%Wang%whw7809@yahoo.com.cn%0,  Arnaud%Fontanet%fontanet@pasteur.fr%1,  Panhe%Zhang%juntianz@yahoo.com.cn%1,  Sabine%Plancoulaine%plancoulaine@necker.fr%1,  Fang%Tang%tf4065@sina.com%0,  Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,  Hong%Yang%anni_yang@yahoo.com%1,  Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,  Jan H%Richardus%j.richardus@erasmusmc.nl%1,  J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,  Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wei-Ju%Chen%NULL%1,  Jyh-Yuan%Yang%NULL%1,  Jih-Hui%Lin%NULL%1,  Cathy S. J.%Fann%NULL%1,  Valeriy%Osyetrov%NULL%1,  Chwan-Chuen%King%NULL%1,  Yi-Ming Arthur%Chen%NULL%1,  Hsiao-Ling%Chang%NULL%1,  Hung-Wei%Kuo%NULL%1,  Fong%Liao%NULL%1,  Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
-  </si>
-  <si>
-    <t>[Kelvin Y. K.%Chan%NULL%1,  Johannes C. Y.%Ching%NULL%1,  M. S.%Xu%NULL%1,  Annie N. Y.%Cheung%NULL%1,  Shea-Ping%Yip%NULL%0,  Loretta Y. C.%Yam%NULL%1,  Sik-To%Lai%NULL%2,  Chung-Ming%Chu%NULL%2,  Andrew T. Y.%Wong%NULL%1,  You-Qiang%Song%NULL%1,  Fang-Ping%Huang%NULL%1,  Wei%Liu%NULL%0,  P. H.%Chung%NULL%1,  G. M.%Leung%NULL%1,  Eudora Y. D.%Chow%NULL%1,  Eric Y. T.%Chan%NULL%0,  Jane C. K.%Chan%NULL%1,  Hextan%Ngan%NULL%1,  Paul%Tam%NULL%1,  Li-Chong%Chan%NULL%0,  Pak%Sham%NULL%1,  Vera S. F.%Chan%NULL%1,  Malik%Peiris%NULL%0,  Steve C. L.%Lin%NULL%1,  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,  Gangqiao%Zhou%zhougq@chgb.org.cn%0,  Wai Po%Chong%h9820905@graduate.hku.hk%1,  Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,  Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,  Hongxing%Zhang%zhanghx08@126.com%1,  Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,  Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,  Yun%Zhai%zhaiyun077@tom.com%0,  Raymond WH%Yung%rwhyung@ha.org.hk%0,  Eudora Y%Chow%chowe@ha.org.hk%0,  Ka Leung%Au%klau@ha.org.hk%0,  Eric YT%Chan%eytchan@ha.org.hk%0,  Wilina%Lim%wllim@pacific.net.hk%0,  JS Malik%Peiris%malik@hkucc.hku.hk%0,  Fuchu%He%hefc@nic.bmi.ac.cn%0,  Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Shixin%Wang%Wshx-001@163.com%1,  Maoti%Wei%weimaoti@yahoo.com.cn%1,  Yi%Han%halanhan2001sh@163.com%1,  Keju%Zhang%sinong77@sina.com%1,  Li%He%wujinhl@163.com%0,  Zhen%Yang%yzdtchina@yahoo.com.cn%2,  Bing%Su%tjsubin553@sina.com%1,  Zhilun%Zhang%zzl718@sina.com.cn%1,  Yilan%Hu%yougu@yahoo.com.cn%1,  Wuli%Hui%huiwuli@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,  Satoru%Itoyama%NULL%0,  Koichi%Kashiwase%NULL%1,  Nguyen Chi%Phi%NULL%0,  Hoang Thuy%Long%NULL%0,  Le Dang%Ha%NULL%0,  Vo Van%Ban%NULL%0,  Bach Khanh%Hoa%NULL%1,  Nguyen Thi Le%Hang%NULL%1,  Minako%Hijikata%NULL%0,  Shinsaku%Sakurada%NULL%1,  Masahiro%Satake%NULL%1,  Katsushi%Tokunaga%NULL%1,  Takehiko%Sasazuki%NULL%0,  Tran%Quy%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yan%Wang%001wangyan@sina.com%1,  Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,  Yuling%Shi%sane222@163.com%1,  Ping%Li%liping@nic.bmi.ac.cn%1,  Chuanxuan%Liu%renew7306_cn@sina.com%1,  Qingjun%Ma%maqingjun@sina.com%1,  Ruifu%Yang%zhangf@big.ac.cn%1,  Xiaoyi%Wang%happybettylx@hotmail.com%1,  Lina%zhu%luckina@sina.com%1,  Xiao%Yang%gaowei@sina.com%1,  Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Kelvin Yuen Kwong%Chan%NULL%1,  Mei-Shu%Xu%NULL%2,  Johannes Chi Yun%Ching%NULL%1,  Thomas Man Kit%So%NULL%1,  Sik-To%Lai%NULL%0,  Chung-Ming%Chu%NULL%0,  Loretta Y.C.%Yam%NULL%1,  Andrew T.Y.%Wong%NULL%1,  Pui Hong%Chung%NULL%1,  Vera Sau Fong%Chan%NULL%1,  Chen Lung Steve%Lin%NULL%1,  Pak Chung%Sham%NULL%1,  Gabriel M.%Leung%NULL%0,  Joseph S.M.%Peiris%NULL%1,  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Johannes Chi-Yun%Ching%NULL%1,  Kelvin Yuen Kwong%Chan%NULL%1,  Eric Hing Leung%Lee%NULL%1,  Mei-Shu%Xu%NULL%0,  Campbell Kam Po%Ting%NULL%1,  Thomas M. K.%So%NULL%1,  Pak C.%Sham%NULL%1,  Gabriel M.%Leung%NULL%0,  Joseph S. M.%Peiris%NULL%1,  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,   Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,   Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,   Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,   Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,   Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,   Pei-Jan%Chen%g8640@ms13.hinet.net%1,   Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,   Ken Hong%Lim%khlim@seed.net.tw%1,   Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,   Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,   Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,   Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Rossa W K%Chiu%NULL%1,   Nelson L S%Tang%NULL%1,   David S C%Hui%NULL%1,   Grace T Y%Chung%NULL%1,   Stephen S C%Chim%NULL%1,   K C Allen%Chan%NULL%1,   Ying-man%Sung%NULL%1,   Louis Y S%Chan%NULL%1,   Yu-kwan%Tong%NULL%1,   Wing-shan%Lee%NULL%1,   Paul K S%Chan%NULL%1,   Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Satoru%Itoyama%NULL%2,   Naoto%Keicho%NULL%3,   Tran%Quy%NULL%4,   Nguyen Chi%Phi%NULL%4,   Hoang Thuy%Long%NULL%4,   Le Dang%Ha%NULL%4,   Vo Van%Ban%NULL%4,   Jun%Ohashi%NULL%1,   Minako%Hijikata%NULL%4,   Ikumi%Matsushita%NULL%3,   Akihiko%Kawana%NULL%1,   Hideki%Yanai%NULL%3,   Teruo%Kirikae%NULL%3,   Tadatoshi%Kuratsuji%NULL%3,   Takehiko%Sasazuki%NULL%4]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,   Kin-Mang%Lau%NULL%1,   Libby%Li%NULL%1,   Suk-Hang%Cheng%NULL%1,   Wing Y.%Chan%NULL%1,   Pak K.%Hui%NULL%1,   Benny%Zee%NULL%1,   Chi-Bon%Leung%NULL%1,   Joseph J. Y.%Sung%NULL%1]</t>
-  </si>
-  <si>
-    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,   Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,   David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,   Grace TY%Chung%gracechung@cuhk.edu.hk%1,   Alan KL%Wu%alanklwu@yahoo.com%1,   Stephen SC%Chim%sschim@cuhk.edu.hk%1,   Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,   Nelson%Lee%leelsn@yahoo.com%1,   KW%Choi%kwchoi12@netvigator.com%1,   YM%Sung%mandysung@cuhk.edu.hk%1,   Paul KS%Chan%paulkschan@cuhk.edu.hk%1,   YK%Tong%yktong@cuhk.edu.hk%1,   ST%Lai%laist@ha.org.hk%1,   WC%Yu%yuwc@ha.org.hk%1,   Owen%Tsang%tyotsang@hotmail.com%1,   YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
-    <t>[Emi%Hamano%NULL%1,   Minako%Hijikata%NULL%0,   Satoru%Itoyama%NULL%2,   Tran%Quy%NULL%0,   Nguyen Chi%Phi%NULL%0,   Hoang Thuy%Long%NULL%0,   Le Dang%Ha%NULL%0,   Vo Van%Ban%NULL%0,   Ikumi%Matsushita%NULL%0,   Hideki%Yanai%NULL%0,   Fumiko%Kirikae%NULL%2,   Teruo%Kirikae%NULL%0,   Tadatoshi%Kuratsuji%NULL%0,   Takehiko%Sasazuki%NULL%0,   Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[W. K. Eddie%Ip%NULL%1,   Kwok Hung%Chan%NULL%1,   Helen K. W.%Law%NULL%1,   Gloria H. W.%Tso%NULL%1,   Eric K. P.%Kong%NULL%1,   Wilfred H. S.%Wong%NULL%1,   Yuk Fai%To%NULL%1,   Raymond W. H.%Yung%NULL%1,   Eudora Y.%Chow%NULL%1,   Ka Leung%Au%NULL%2,   Eric Y. T.%Chan%NULL%2,   Wilina%Lim%NULL%3,   Jens C.%Jensenius%NULL%1,   Malcolm W.%Turner%NULL%1,   J. S. Malik%Peiris%NULL%1,   Yu Lung%Lau%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%0,   Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,   Minako%Hijikata%NULL%0,   Tran%Quy%NULL%0,   Nguyen Chi%Phi%NULL%0,   Hoang Thuy%Long%NULL%0,   Le Dang%Ha%NULL%0,   Vo Van%Ban%NULL%0,   Ikumi%Matsushita%NULL%0,   Hideki%Yanai%NULL%0,   Fumiko%Kirikae%NULL%0,   Teruo%Kirikae%NULL%0,   Tadatoshi%Kuratsuji%NULL%0,   Takehiko%Sasazuki%NULL%0]</t>
-  </si>
-  <si>
-    <t>[F. F.%Yuan%NULL%1,   J.%Tanner%NULL%1,   P. K. S.%Chan%NULL%1,   S.%Biffin%NULL%1,   W. B.%Dyer%NULL%1,   A. F.%Geczy%NULL%1,   J. W.%Tang%NULL%1,   D. S. C.%Hui%NULL%1,   J. J. Y.%Sung%NULL%0,   J. S.%Sullivan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Hongxing%Zhang%NULL%1,   Gangqiao%Zhou%NULL%2,   Lianteng%Zhi%NULL%1,   Hao%Yang%NULL%1,   Yun%Zhai%NULL%2,   Xiaojia%Dong%NULL%1,   Xiumei%Zhang%NULL%0,   Xue%Gao%NULL%1,   Yunping%Zhu%NULL%1,   Fuchu%He%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Vera S F%Chan%NULL%1,   Kelvin Y K%Chan%NULL%1,   Yongxiong%Chen%NULL%1,   Leo L M%Poon%NULL%0,   Annie N Y%Cheung%NULL%1,   Bojian%Zheng%NULL%1,   Kwok-Hung%Chan%NULL%0,   William%Mak%NULL%1,   Hextan Y S%Ngan%NULL%1,   Xiaoning%Xu%NULL%1,   Gavin%Screaton%NULL%1,   Paul K H%Tam%NULL%1,   Jonathan M%Austyn%NULL%1,   Li-Chong%Chan%NULL%2,   Shea-Ping%Yip%NULL%2,   Malik%Peiris%NULL%0,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,   Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
-  </si>
-  <si>
-    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,   WK Eddie%Ip%WIP@partners.org%1,   Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,   Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,   Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,   Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,   Raymond WH%Yung%rwhyung@ha.org.hk%2,   Eudora Y%Chow%chowe@ha.org.hk%2,   KL%Au%klau@ha.org.hk%1,   Eric YT%Chan%eytchan@ha.org.hk%2,   Wilina%Lim%wllim@pacific.net.hk%0,   JS Malik%Peiris%malik@hkucc.hku.hk%2,   Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Jing%He%jinghe2004@gmail.com%1,   Dan%Feng%fddd@263.net%1,   Sake J%de Vlas%s.devlas@erasmusmc.nl%1,   Hongwei%Wang%whw7809@yahoo.com.cn%1,   Arnaud%Fontanet%fontanet@pasteur.fr%1,   Panhe%Zhang%juntianz@yahoo.com.cn%1,   Sabine%Plancoulaine%plancoulaine@necker.fr%1,   Fang%Tang%tf4065@sina.com%0,   Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,   Hong%Yang%anni_yang@yahoo.com%1,   Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,   Jan H%Richardus%j.richardus@erasmusmc.nl%1,   J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,   Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wei-Ju%Chen%NULL%1,   Jyh-Yuan%Yang%NULL%1,   Jih-Hui%Lin%NULL%1,   Cathy S. J.%Fann%NULL%1,   Valeriy%Osyetrov%NULL%1,   Chwan-Chuen%King%NULL%1,   Yi-Ming Arthur%Chen%NULL%1,   Hsiao-Ling%Chang%NULL%1,   Hung-Wei%Kuo%NULL%1,   Fong%Liao%NULL%1,   Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
-  </si>
-  <si>
-    <t>[Kelvin Y. K.%Chan%NULL%1,   Johannes C. Y.%Ching%NULL%1,   M. S.%Xu%NULL%1,   Annie N. Y.%Cheung%NULL%1,   Shea-Ping%Yip%NULL%0,   Loretta Y. C.%Yam%NULL%1,   Sik-To%Lai%NULL%2,   Chung-Ming%Chu%NULL%2,   Andrew T. Y.%Wong%NULL%1,   You-Qiang%Song%NULL%1,   Fang-Ping%Huang%NULL%1,   Wei%Liu%NULL%0,   P. H.%Chung%NULL%1,   G. M.%Leung%NULL%1,   Eudora Y. D.%Chow%NULL%1,   Eric Y. T.%Chan%NULL%0,   Jane C. K.%Chan%NULL%1,   Hextan%Ngan%NULL%1,   Paul%Tam%NULL%1,   Li-Chong%Chan%NULL%0,   Pak%Sham%NULL%1,   Vera S. F.%Chan%NULL%1,   Malik%Peiris%NULL%0,   Steve C. L.%Lin%NULL%1,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,   Gangqiao%Zhou%zhougq@chgb.org.cn%0,   Wai Po%Chong%h9820905@graduate.hku.hk%1,   Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,   Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,   Hongxing%Zhang%zhanghx08@126.com%1,   Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,   Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,   Yun%Zhai%zhaiyun077@tom.com%0,   Raymond WH%Yung%rwhyung@ha.org.hk%0,   Eudora Y%Chow%chowe@ha.org.hk%0,   Ka Leung%Au%klau@ha.org.hk%0,   Eric YT%Chan%eytchan@ha.org.hk%0,   Wilina%Lim%wllim@pacific.net.hk%0,   JS Malik%Peiris%malik@hkucc.hku.hk%0,   Fuchu%He%hefc@nic.bmi.ac.cn%0,   Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Shixin%Wang%Wshx-001@163.com%1,   Maoti%Wei%weimaoti@yahoo.com.cn%1,   Yi%Han%halanhan2001sh@163.com%1,   Keju%Zhang%sinong77@sina.com%1,   Li%He%wujinhl@163.com%0,   Zhen%Yang%yzdtchina@yahoo.com.cn%1,   Bing%Su%tjsubin553@sina.com%1,   Zhilun%Zhang%zzl718@sina.com.cn%1,   Yilan%Hu%yougu@yahoo.com.cn%1,   Wuli%Hui%huiwuli@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,   Satoru%Itoyama%NULL%0,   Koichi%Kashiwase%NULL%1,   Nguyen Chi%Phi%NULL%0,   Hoang Thuy%Long%NULL%0,   Le Dang%Ha%NULL%0,   Vo Van%Ban%NULL%0,   Bach Khanh%Hoa%NULL%1,   Nguyen Thi Le%Hang%NULL%1,   Minako%Hijikata%NULL%0,   Shinsaku%Sakurada%NULL%1,   Masahiro%Satake%NULL%1,   Katsushi%Tokunaga%NULL%1,   Takehiko%Sasazuki%NULL%0,   Tran%Quy%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yan%Wang%001wangyan@sina.com%1,   Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,   Yuling%Shi%sane222@163.com%1,   Ping%Li%liping@nic.bmi.ac.cn%1,   Chuanxuan%Liu%renew7306_cn@sina.com%1,   Qingjun%Ma%maqingjun@sina.com%1,   Ruifu%Yang%zhangf@big.ac.cn%1,   Xiaoyi%Wang%happybettylx@hotmail.com%1,   Lina%zhu%luckina@sina.com%1,   Xiao%Yang%gaowei@sina.com%1,   Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Kelvin Yuen Kwong%Chan%NULL%1,   Mei-Shu%Xu%NULL%2,   Johannes Chi Yun%Ching%NULL%1,   Thomas Man Kit%So%NULL%1,   Sik-To%Lai%NULL%0,   Chung-Ming%Chu%NULL%0,   Loretta Y.C.%Yam%NULL%1,   Andrew T.Y.%Wong%NULL%1,   Pui Hong%Chung%NULL%1,   Vera Sau Fong%Chan%NULL%1,   Chen Lung Steve%Lin%NULL%1,   Pak Chung%Sham%NULL%1,   Gabriel M.%Leung%NULL%0,   Joseph S.M.%Peiris%NULL%1,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Johannes Chi-Yun%Ching%NULL%1,   Kelvin Yuen Kwong%Chan%NULL%1,   Eric Hing Leung%Lee%NULL%1,   Mei-Shu%Xu%NULL%0,   Campbell Kam Po%Ting%NULL%1,   Thomas M. K.%So%NULL%1,   Pak C.%Sham%NULL%1,   Gabriel M.%Leung%NULL%0,   Joseph S. M.%Peiris%NULL%1,   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,    Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,    Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,    Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,    Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,    Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,    Pei-Jan%Chen%g8640@ms13.hinet.net%1,    Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,    Ken Hong%Lim%khlim@seed.net.tw%1,    Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,    Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,    Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,    Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
-  </si>
-  <si>
-    <t>[Rossa W K%Chiu%NULL%1,    Nelson L S%Tang%NULL%1,    David S C%Hui%NULL%1,    Grace T Y%Chung%NULL%1,    Stephen S C%Chim%NULL%1,    K C Allen%Chan%NULL%1,    Ying-man%Sung%NULL%1,    Louis Y S%Chan%NULL%1,    Yu-kwan%Tong%NULL%1,    Wing-shan%Lee%NULL%1,    Paul K S%Chan%NULL%1,    Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%2,    Naoto%Keicho%NULL%3,    Tran%Quy%NULL%4,    Nguyen Chi%Phi%NULL%4,    Hoang Thuy%Long%NULL%4,    Le Dang%Ha%NULL%4,    Vo Van%Ban%NULL%4,    Jun%Ohashi%NULL%1,    Minako%Hijikata%NULL%4,    Ikumi%Matsushita%NULL%3,    Akihiko%Kawana%NULL%1,    Hideki%Yanai%NULL%3,    Teruo%Kirikae%NULL%3,    Tadatoshi%Kuratsuji%NULL%3,    Takehiko%Sasazuki%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,    Kin-Mang%Lau%NULL%1,    Libby%Li%NULL%1,    Suk-Hang%Cheng%NULL%1,    Wing Y.%Chan%NULL%1,    Pak K.%Hui%NULL%1,    Benny%Zee%NULL%1,    Chi-Bon%Leung%NULL%1,    Joseph J. Y.%Sung%NULL%1]</t>
-  </si>
-  <si>
-    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,    Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,    David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,    Grace TY%Chung%gracechung@cuhk.edu.hk%1,    Alan KL%Wu%alanklwu@yahoo.com%1,    Stephen SC%Chim%sschim@cuhk.edu.hk%1,    Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,    Nelson%Lee%leelsn@yahoo.com%1,    KW%Choi%kwchoi12@netvigator.com%1,    YM%Sung%mandysung@cuhk.edu.hk%1,    Paul KS%Chan%paulkschan@cuhk.edu.hk%1,    YK%Tong%yktong@cuhk.edu.hk%1,    ST%Lai%laist@ha.org.hk%1,    WC%Yu%yuwc@ha.org.hk%1,    Owen%Tsang%tyotsang@hotmail.com%1,    YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
-  </si>
-  <si>
-    <t>[Emi%Hamano%NULL%1,    Minako%Hijikata%NULL%0,    Satoru%Itoyama%NULL%2,    Tran%Quy%NULL%0,    Nguyen Chi%Phi%NULL%0,    Hoang Thuy%Long%NULL%0,    Le Dang%Ha%NULL%0,    Vo Van%Ban%NULL%0,    Ikumi%Matsushita%NULL%0,    Hideki%Yanai%NULL%0,    Fumiko%Kirikae%NULL%2,    Teruo%Kirikae%NULL%0,    Tadatoshi%Kuratsuji%NULL%0,    Takehiko%Sasazuki%NULL%0,    Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
-  </si>
-  <si>
-    <t>[W. K. Eddie%Ip%NULL%1,    Kwok Hung%Chan%NULL%1,    Helen K. W.%Law%NULL%1,    Gloria H. W.%Tso%NULL%1,    Eric K. P.%Kong%NULL%1,    Wilfred H. S.%Wong%NULL%1,    Yuk Fai%To%NULL%1,    Raymond W. H.%Yung%NULL%1,    Eudora Y.%Chow%NULL%1,    Ka Leung%Au%NULL%2,    Eric Y. T.%Chan%NULL%2,    Wilina%Lim%NULL%3,    Jens C.%Jensenius%NULL%1,    Malcolm W.%Turner%NULL%1,    J. S. Malik%Peiris%NULL%1,    Yu Lung%Lau%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Satoru%Itoyama%NULL%0,    Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,    Minako%Hijikata%NULL%0,    Tran%Quy%NULL%0,    Nguyen Chi%Phi%NULL%0,    Hoang Thuy%Long%NULL%0,    Le Dang%Ha%NULL%0,    Vo Van%Ban%NULL%0,    Ikumi%Matsushita%NULL%0,    Hideki%Yanai%NULL%0,    Fumiko%Kirikae%NULL%0,    Teruo%Kirikae%NULL%0,    Tadatoshi%Kuratsuji%NULL%0,    Takehiko%Sasazuki%NULL%0]</t>
-  </si>
-  <si>
-    <t>[F. F.%Yuan%NULL%1,    J.%Tanner%NULL%1,    P. K. S.%Chan%NULL%1,    S.%Biffin%NULL%1,    W. B.%Dyer%NULL%1,    A. F.%Geczy%NULL%1,    J. W.%Tang%NULL%1,    D. S. C.%Hui%NULL%1,    J. J. Y.%Sung%NULL%1,    J. S.%Sullivan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Hongxing%Zhang%NULL%1,    Gangqiao%Zhou%NULL%2,    Lianteng%Zhi%NULL%1,    Hao%Yang%NULL%1,    Yun%Zhai%NULL%2,    Xiaojia%Dong%NULL%1,    Xiumei%Zhang%NULL%0,    Xue%Gao%NULL%1,    Yunping%Zhu%NULL%1,    Fuchu%He%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Vera S F%Chan%NULL%1,    Kelvin Y K%Chan%NULL%1,    Yongxiong%Chen%NULL%1,    Leo L M%Poon%NULL%1,    Annie N Y%Cheung%NULL%1,    Bojian%Zheng%NULL%1,    Kwok-Hung%Chan%NULL%0,    William%Mak%NULL%1,    Hextan Y S%Ngan%NULL%1,    Xiaoning%Xu%NULL%1,    Gavin%Screaton%NULL%1,    Paul K H%Tam%NULL%1,    Jonathan M%Austyn%NULL%1,    Li-Chong%Chan%NULL%2,    Shea-Ping%Yip%NULL%2,    Malik%Peiris%NULL%2,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,    Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
-  </si>
-  <si>
-    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,    WK Eddie%Ip%WIP@partners.org%1,    Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,    Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,    Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,    Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,    Raymond WH%Yung%rwhyung@ha.org.hk%2,    Eudora Y%Chow%chowe@ha.org.hk%2,    KL%Au%klau@ha.org.hk%1,    Eric YT%Chan%eytchan@ha.org.hk%2,    Wilina%Lim%wllim@pacific.net.hk%0,    JS Malik%Peiris%malik@hkucc.hku.hk%2,    Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Jing%He%jinghe2004@gmail.com%1,    Dan%Feng%fddd@263.net%1,    Sake J%de Vlas%s.devlas@erasmusmc.nl%1,    Hongwei%Wang%whw7809@yahoo.com.cn%0,    Arnaud%Fontanet%fontanet@pasteur.fr%1,    Panhe%Zhang%juntianz@yahoo.com.cn%1,    Sabine%Plancoulaine%plancoulaine@necker.fr%1,    Fang%Tang%tf4065@sina.com%1,    Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,    Hong%Yang%anni_yang@yahoo.com%1,    Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,    Jan H%Richardus%j.richardus@erasmusmc.nl%1,    J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,    Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Wei-Ju%Chen%NULL%1,    Jyh-Yuan%Yang%NULL%1,    Jih-Hui%Lin%NULL%1,    Cathy S. J.%Fann%NULL%1,    Valeriy%Osyetrov%NULL%1,    Chwan-Chuen%King%NULL%1,    Yi-Ming Arthur%Chen%NULL%1,    Hsiao-Ling%Chang%NULL%1,    Hung-Wei%Kuo%NULL%1,    Fong%Liao%NULL%1,    Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
-  </si>
-  <si>
-    <t>[Kelvin Y. K.%Chan%NULL%1,    Johannes C. Y.%Ching%NULL%1,    M. S.%Xu%NULL%1,    Annie N. Y.%Cheung%NULL%1,    Shea-Ping%Yip%NULL%0,    Loretta Y. C.%Yam%NULL%1,    Sik-To%Lai%NULL%2,    Chung-Ming%Chu%NULL%2,    Andrew T. Y.%Wong%NULL%1,    You-Qiang%Song%NULL%1,    Fang-Ping%Huang%NULL%1,    Wei%Liu%NULL%0,    P. H.%Chung%NULL%1,    G. M.%Leung%NULL%1,    Eudora Y. D.%Chow%NULL%1,    Eric Y. T.%Chan%NULL%0,    Jane C. K.%Chan%NULL%1,    Hextan%Ngan%NULL%1,    Paul%Tam%NULL%1,    Li-Chong%Chan%NULL%0,    Pak%Sham%NULL%1,    Vera S. F.%Chan%NULL%1,    Malik%Peiris%NULL%0,    Steve C. L.%Lin%NULL%1,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,    Gangqiao%Zhou%zhougq@chgb.org.cn%0,    Wai Po%Chong%h9820905@graduate.hku.hk%1,    Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,    Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,    Hongxing%Zhang%zhanghx08@126.com%1,    Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,    Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,    Yun%Zhai%zhaiyun077@tom.com%0,    Raymond WH%Yung%rwhyung@ha.org.hk%0,    Eudora Y%Chow%chowe@ha.org.hk%0,    Ka Leung%Au%klau@ha.org.hk%0,    Eric YT%Chan%eytchan@ha.org.hk%0,    Wilina%Lim%wllim@pacific.net.hk%0,    JS Malik%Peiris%malik@hkucc.hku.hk%0,    Fuchu%He%hefc@nic.bmi.ac.cn%0,    Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Shixin%Wang%Wshx-001@163.com%1,    Maoti%Wei%weimaoti@yahoo.com.cn%1,    Yi%Han%halanhan2001sh@163.com%1,    Keju%Zhang%sinong77@sina.com%1,    Li%He%wujinhl@163.com%1,    Zhen%Yang%yzdtchina@yahoo.com.cn%1,    Bing%Su%tjsubin553@sina.com%1,    Zhilun%Zhang%zzl718@sina.com.cn%1,    Yilan%Hu%yougu@yahoo.com.cn%1,    Wuli%Hui%huiwuli@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,    Satoru%Itoyama%NULL%0,    Koichi%Kashiwase%NULL%1,    Nguyen Chi%Phi%NULL%0,    Hoang Thuy%Long%NULL%0,    Le Dang%Ha%NULL%0,    Vo Van%Ban%NULL%0,    Bach Khanh%Hoa%NULL%1,    Nguyen Thi Le%Hang%NULL%1,    Minako%Hijikata%NULL%0,    Shinsaku%Sakurada%NULL%1,    Masahiro%Satake%NULL%1,    Katsushi%Tokunaga%NULL%1,    Takehiko%Sasazuki%NULL%0,    Tran%Quy%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yan%Wang%001wangyan@sina.com%1,    Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,    Yuling%Shi%sane222@163.com%1,    Ping%Li%liping@nic.bmi.ac.cn%0,    Chuanxuan%Liu%renew7306_cn@sina.com%1,    Qingjun%Ma%maqingjun@sina.com%1,    Ruifu%Yang%zhangf@big.ac.cn%1,    Xiaoyi%Wang%happybettylx@hotmail.com%1,    Lina%zhu%luckina@sina.com%1,    Xiao%Yang%gaowei@sina.com%1,    Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Kelvin Yuen Kwong%Chan%NULL%1,    Mei-Shu%Xu%NULL%2,    Johannes Chi Yun%Ching%NULL%1,    Thomas Man Kit%So%NULL%1,    Sik-To%Lai%NULL%0,    Chung-Ming%Chu%NULL%0,    Loretta Y.C.%Yam%NULL%1,    Andrew T.Y.%Wong%NULL%1,    Pui Hong%Chung%NULL%1,    Vera Sau Fong%Chan%NULL%1,    Chen Lung Steve%Lin%NULL%1,    Pak Chung%Sham%NULL%1,    Gabriel M.%Leung%NULL%2,    Joseph S.M.%Peiris%NULL%1,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
-  </si>
-  <si>
-    <t>[Johannes Chi-Yun%Ching%NULL%1,    Kelvin Yuen Kwong%Chan%NULL%1,    Eric Hing Leung%Lee%NULL%1,    Mei-Shu%Xu%NULL%0,    Campbell Kam Po%Ting%NULL%1,    Thomas M. K.%So%NULL%1,    Pak C.%Sham%NULL%1,    Gabriel M.%Leung%NULL%0,    Joseph S. M.%Peiris%NULL%1,    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,     Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,     Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,     Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,     Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,     Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,     Pei-Jan%Chen%g8640@ms13.hinet.net%1,     Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,     Ken Hong%Lim%khlim@seed.net.tw%1,     Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,     Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,     Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,     Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,     Nelson L S%Tang%NULL%1,     David S C%Hui%NULL%1,     Grace T Y%Chung%NULL%1,     Stephen S C%Chim%NULL%1,     K C Allen%Chan%NULL%1,     Ying-man%Sung%NULL%1,     Louis Y S%Chan%NULL%1,     Yu-kwan%Tong%NULL%1,     Wing-shan%Lee%NULL%1,     Paul K S%Chan%NULL%1,     Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,     Naoto%Keicho%NULL%3,     Tran%Quy%NULL%4,     Nguyen Chi%Phi%NULL%4,     Hoang Thuy%Long%NULL%4,     Le Dang%Ha%NULL%4,     Vo Van%Ban%NULL%4,     Jun%Ohashi%NULL%1,     Minako%Hijikata%NULL%4,     Ikumi%Matsushita%NULL%3,     Akihiko%Kawana%NULL%1,     Hideki%Yanai%NULL%3,     Teruo%Kirikae%NULL%3,     Tadatoshi%Kuratsuji%NULL%3,     Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,     Kin-Mang%Lau%NULL%1,     Libby%Li%NULL%1,     Suk-Hang%Cheng%NULL%1,     Wing Y.%Chan%NULL%1,     Pak K.%Hui%NULL%1,     Benny%Zee%NULL%1,     Chi-Bon%Leung%NULL%1,     Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,     Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,     David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,     Grace TY%Chung%gracechung@cuhk.edu.hk%1,     Alan KL%Wu%alanklwu@yahoo.com%1,     Stephen SC%Chim%sschim@cuhk.edu.hk%1,     Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,     Nelson%Lee%leelsn@yahoo.com%1,     KW%Choi%kwchoi12@netvigator.com%1,     YM%Sung%mandysung@cuhk.edu.hk%1,     Paul KS%Chan%paulkschan@cuhk.edu.hk%1,     YK%Tong%yktong@cuhk.edu.hk%1,     ST%Lai%laist@ha.org.hk%1,     WC%Yu%yuwc@ha.org.hk%1,     Owen%Tsang%tyotsang@hotmail.com%1,     YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,     Minako%Hijikata%NULL%0,     Satoru%Itoyama%NULL%2,     Tran%Quy%NULL%0,     Nguyen Chi%Phi%NULL%0,     Hoang Thuy%Long%NULL%0,     Le Dang%Ha%NULL%0,     Vo Van%Ban%NULL%0,     Ikumi%Matsushita%NULL%0,     Hideki%Yanai%NULL%0,     Fumiko%Kirikae%NULL%2,     Teruo%Kirikae%NULL%0,     Tadatoshi%Kuratsuji%NULL%0,     Takehiko%Sasazuki%NULL%0,     Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,     Kwok Hung%Chan%NULL%1,     Helen K. W.%Law%NULL%1,     Gloria H. W.%Tso%NULL%1,     Eric K. P.%Kong%NULL%1,     Wilfred H. S.%Wong%NULL%1,     Yuk Fai%To%NULL%1,     Raymond W. H.%Yung%NULL%1,     Eudora Y.%Chow%NULL%1,     Ka Leung%Au%NULL%2,     Eric Y. T.%Chan%NULL%2,     Wilina%Lim%NULL%3,     Jens C.%Jensenius%NULL%1,     Malcolm W.%Turner%NULL%1,     J. S. Malik%Peiris%NULL%1,     Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,     Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,     Minako%Hijikata%NULL%0,     Tran%Quy%NULL%0,     Nguyen Chi%Phi%NULL%0,     Hoang Thuy%Long%NULL%0,     Le Dang%Ha%NULL%0,     Vo Van%Ban%NULL%0,     Ikumi%Matsushita%NULL%0,     Hideki%Yanai%NULL%0,     Fumiko%Kirikae%NULL%0,     Teruo%Kirikae%NULL%0,     Tadatoshi%Kuratsuji%NULL%0,     Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,     J.%Tanner%NULL%1,     P. K. S.%Chan%NULL%1,     S.%Biffin%NULL%1,     W. B.%Dyer%NULL%1,     A. F.%Geczy%NULL%1,     J. W.%Tang%NULL%1,     D. S. C.%Hui%NULL%1,     J. J. Y.%Sung%NULL%1,     J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,     Gangqiao%Zhou%NULL%2,     Lianteng%Zhi%NULL%1,     Hao%Yang%NULL%1,     Yun%Zhai%NULL%2,     Xiaojia%Dong%NULL%1,     Xiumei%Zhang%NULL%2,     Xue%Gao%NULL%1,     Yunping%Zhu%NULL%1,     Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,     Kelvin Y K%Chan%NULL%1,     Yongxiong%Chen%NULL%1,     Leo L M%Poon%NULL%1,     Annie N Y%Cheung%NULL%1,     Bojian%Zheng%NULL%1,     Kwok-Hung%Chan%NULL%0,     William%Mak%NULL%1,     Hextan Y S%Ngan%NULL%1,     Xiaoning%Xu%NULL%1,     Gavin%Screaton%NULL%1,     Paul K H%Tam%NULL%1,     Jonathan M%Austyn%NULL%1,     Li-Chong%Chan%NULL%2,     Shea-Ping%Yip%NULL%2,     Malik%Peiris%NULL%2,     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,     Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,     WK Eddie%Ip%WIP@partners.org%1,     Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,     Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,     Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,     Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,     Raymond WH%Yung%rwhyung@ha.org.hk%2,     Eudora Y%Chow%chowe@ha.org.hk%2,     KL%Au%klau@ha.org.hk%1,     Eric YT%Chan%eytchan@ha.org.hk%2,     Wilina%Lim%wllim@pacific.net.hk%0,     JS Malik%Peiris%malik@hkucc.hku.hk%2,     Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,     Dan%Feng%fddd@263.net%1,     Sake J%de Vlas%s.devlas@erasmusmc.nl%1,     Hongwei%Wang%whw7809@yahoo.com.cn%1,     Arnaud%Fontanet%fontanet@pasteur.fr%1,     Panhe%Zhang%juntianz@yahoo.com.cn%1,     Sabine%Plancoulaine%plancoulaine@necker.fr%1,     Fang%Tang%tf4065@sina.com%1,     Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,     Hong%Yang%anni_yang@yahoo.com%1,     Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,     Jan H%Richardus%j.richardus@erasmusmc.nl%1,     J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,     Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,     Jyh-Yuan%Yang%NULL%1,     Jih-Hui%Lin%NULL%1,     Cathy S. J.%Fann%NULL%1,     Valeriy%Osyetrov%NULL%1,     Chwan-Chuen%King%NULL%1,     Yi-Ming Arthur%Chen%NULL%1,     Hsiao-Ling%Chang%NULL%1,     Hung-Wei%Kuo%NULL%1,     Fong%Liao%NULL%1,     Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,     Johannes C. Y.%Ching%NULL%1,     M. S.%Xu%NULL%1,     Annie N. Y.%Cheung%NULL%1,     Shea-Ping%Yip%NULL%0,     Loretta Y. C.%Yam%NULL%1,     Sik-To%Lai%NULL%2,     Chung-Ming%Chu%NULL%2,     Andrew T. Y.%Wong%NULL%1,     You-Qiang%Song%NULL%1,     Fang-Ping%Huang%NULL%1,     Wei%Liu%NULL%0,     P. H.%Chung%NULL%1,     G. M.%Leung%NULL%1,     Eudora Y. D.%Chow%NULL%1,     Eric Y. T.%Chan%NULL%0,     Jane C. K.%Chan%NULL%1,     Hextan%Ngan%NULL%1,     Paul%Tam%NULL%1,     Li-Chong%Chan%NULL%0,     Pak%Sham%NULL%1,     Vera S. F.%Chan%NULL%1,     Malik%Peiris%NULL%0,     Steve C. L.%Lin%NULL%1,     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,     Gangqiao%Zhou%zhougq@chgb.org.cn%0,     Wai Po%Chong%h9820905@graduate.hku.hk%1,     Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,     Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,     Hongxing%Zhang%zhanghx08@126.com%1,     Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,     Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,     Yun%Zhai%zhaiyun077@tom.com%0,     Raymond WH%Yung%rwhyung@ha.org.hk%0,     Eudora Y%Chow%chowe@ha.org.hk%0,     Ka Leung%Au%klau@ha.org.hk%0,     Eric YT%Chan%eytchan@ha.org.hk%0,     Wilina%Lim%wllim@pacific.net.hk%0,     JS Malik%Peiris%malik@hkucc.hku.hk%0,     Fuchu%He%hefc@nic.bmi.ac.cn%0,     Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,     Maoti%Wei%weimaoti@yahoo.com.cn%1,     Yi%Han%halanhan2001sh@163.com%1,     Keju%Zhang%sinong77@sina.com%1,     Li%He%wujinhl@163.com%1,     Zhen%Yang%yzdtchina@yahoo.com.cn%1,     Bing%Su%tjsubin553@sina.com%1,     Zhilun%Zhang%zzl718@sina.com.cn%1,     Yilan%Hu%yougu@yahoo.com.cn%1,     Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,     Satoru%Itoyama%NULL%0,     Koichi%Kashiwase%NULL%1,     Nguyen Chi%Phi%NULL%0,     Hoang Thuy%Long%NULL%0,     Le Dang%Ha%NULL%0,     Vo Van%Ban%NULL%0,     Bach Khanh%Hoa%NULL%1,     Nguyen Thi Le%Hang%NULL%1,     Minako%Hijikata%NULL%0,     Shinsaku%Sakurada%NULL%1,     Masahiro%Satake%NULL%1,     Katsushi%Tokunaga%NULL%1,     Takehiko%Sasazuki%NULL%0,     Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,     Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,     Yuling%Shi%sane222@163.com%1,     Ping%Li%liping@nic.bmi.ac.cn%1,     Chuanxuan%Liu%renew7306_cn@sina.com%1,     Qingjun%Ma%maqingjun@sina.com%1,     Ruifu%Yang%zhangf@big.ac.cn%1,     Xiaoyi%Wang%happybettylx@hotmail.com%1,     Lina%zhu%luckina@sina.com%1,     Xiao%Yang%gaowei@sina.com%1,     Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,     Mei-Shu%Xu%NULL%2,     Johannes Chi Yun%Ching%NULL%1,     Thomas Man Kit%So%NULL%1,     Sik-To%Lai%NULL%0,     Chung-Ming%Chu%NULL%0,     Loretta Y.C.%Yam%NULL%1,     Andrew T.Y.%Wong%NULL%1,     Pui Hong%Chung%NULL%1,     Vera Sau Fong%Chan%NULL%1,     Chen Lung Steve%Lin%NULL%1,     Pak Chung%Sham%NULL%1,     Gabriel M.%Leung%NULL%0,     Joseph S.M.%Peiris%NULL%1,     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,     Kelvin Yuen Kwong%Chan%NULL%1,     Eric Hing Leung%Lee%NULL%1,     Mei-Shu%Xu%NULL%0,     Campbell Kam Po%Ting%NULL%1,     Thomas M. K.%So%NULL%1,     Pak C.%Sham%NULL%1,     Gabriel M.%Leung%NULL%0,     Joseph S. M.%Peiris%NULL%1,     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,      Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,      Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,      Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,      Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,      Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,      Pei-Jan%Chen%g8640@ms13.hinet.net%1,      Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,      Ken Hong%Lim%khlim@seed.net.tw%1,      Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,      Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,      Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,      Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,      Nelson L S%Tang%NULL%1,      David S C%Hui%NULL%1,      Grace T Y%Chung%NULL%1,      Stephen S C%Chim%NULL%1,      K C Allen%Chan%NULL%1,      Ying-man%Sung%NULL%1,      Louis Y S%Chan%NULL%1,      Yu-kwan%Tong%NULL%1,      Wing-shan%Lee%NULL%1,      Paul K S%Chan%NULL%1,      Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,      Naoto%Keicho%NULL%3,      Tran%Quy%NULL%4,      Nguyen Chi%Phi%NULL%4,      Hoang Thuy%Long%NULL%4,      Le Dang%Ha%NULL%4,      Vo Van%Ban%NULL%4,      Jun%Ohashi%NULL%1,      Minako%Hijikata%NULL%4,      Ikumi%Matsushita%NULL%3,      Akihiko%Kawana%NULL%1,      Hideki%Yanai%NULL%3,      Teruo%Kirikae%NULL%3,      Tadatoshi%Kuratsuji%NULL%3,      Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,      Kin-Mang%Lau%NULL%1,      Libby%Li%NULL%1,      Suk-Hang%Cheng%NULL%1,      Wing Y.%Chan%NULL%1,      Pak K.%Hui%NULL%1,      Benny%Zee%NULL%1,      Chi-Bon%Leung%NULL%1,      Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,      Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,      David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,      Grace TY%Chung%gracechung@cuhk.edu.hk%1,      Alan KL%Wu%alanklwu@yahoo.com%1,      Stephen SC%Chim%sschim@cuhk.edu.hk%1,      Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,      Nelson%Lee%leelsn@yahoo.com%1,      KW%Choi%kwchoi12@netvigator.com%1,      YM%Sung%mandysung@cuhk.edu.hk%1,      Paul KS%Chan%paulkschan@cuhk.edu.hk%1,      YK%Tong%yktong@cuhk.edu.hk%1,      ST%Lai%laist@ha.org.hk%1,      WC%Yu%yuwc@ha.org.hk%1,      Owen%Tsang%tyotsang@hotmail.com%1,      YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,      Minako%Hijikata%NULL%0,      Satoru%Itoyama%NULL%2,      Tran%Quy%NULL%0,      Nguyen Chi%Phi%NULL%0,      Hoang Thuy%Long%NULL%0,      Le Dang%Ha%NULL%0,      Vo Van%Ban%NULL%0,      Ikumi%Matsushita%NULL%0,      Hideki%Yanai%NULL%0,      Fumiko%Kirikae%NULL%2,      Teruo%Kirikae%NULL%0,      Tadatoshi%Kuratsuji%NULL%0,      Takehiko%Sasazuki%NULL%0,      Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,      Kwok Hung%Chan%NULL%1,      Helen K. W.%Law%NULL%1,      Gloria H. W.%Tso%NULL%1,      Eric K. P.%Kong%NULL%1,      Wilfred H. S.%Wong%NULL%1,      Yuk Fai%To%NULL%1,      Raymond W. H.%Yung%NULL%1,      Eudora Y.%Chow%NULL%1,      Ka Leung%Au%NULL%2,      Eric Y. T.%Chan%NULL%2,      Wilina%Lim%NULL%3,      Jens C.%Jensenius%NULL%1,      Malcolm W.%Turner%NULL%1,      J. S. Malik%Peiris%NULL%1,      Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,      Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,      Minako%Hijikata%NULL%0,      Tran%Quy%NULL%0,      Nguyen Chi%Phi%NULL%0,      Hoang Thuy%Long%NULL%0,      Le Dang%Ha%NULL%0,      Vo Van%Ban%NULL%0,      Ikumi%Matsushita%NULL%0,      Hideki%Yanai%NULL%0,      Fumiko%Kirikae%NULL%0,      Teruo%Kirikae%NULL%0,      Tadatoshi%Kuratsuji%NULL%0,      Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,      J.%Tanner%NULL%1,      P. K. S.%Chan%NULL%1,      S.%Biffin%NULL%1,      W. B.%Dyer%NULL%1,      A. F.%Geczy%NULL%1,      J. W.%Tang%NULL%1,      D. S. C.%Hui%NULL%1,      J. J. Y.%Sung%NULL%1,      J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,      Gangqiao%Zhou%NULL%2,      Lianteng%Zhi%NULL%1,      Hao%Yang%NULL%1,      Yun%Zhai%NULL%2,      Xiaojia%Dong%NULL%1,      Xiumei%Zhang%NULL%1,      Xue%Gao%NULL%1,      Yunping%Zhu%NULL%1,      Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,      Kelvin Y K%Chan%NULL%1,      Yongxiong%Chen%NULL%1,      Leo L M%Poon%NULL%2,      Annie N Y%Cheung%NULL%1,      Bojian%Zheng%NULL%1,      Kwok-Hung%Chan%NULL%0,      William%Mak%NULL%1,      Hextan Y S%Ngan%NULL%1,      Xiaoning%Xu%NULL%1,      Gavin%Screaton%NULL%1,      Paul K H%Tam%NULL%1,      Jonathan M%Austyn%NULL%1,      Li-Chong%Chan%NULL%2,      Shea-Ping%Yip%NULL%2,      Malik%Peiris%NULL%3,      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,      Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,      WK Eddie%Ip%WIP@partners.org%1,      Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,      Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,      Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,      Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,      Raymond WH%Yung%rwhyung@ha.org.hk%2,      Eudora Y%Chow%chowe@ha.org.hk%2,      KL%Au%klau@ha.org.hk%1,      Eric YT%Chan%eytchan@ha.org.hk%2,      Wilina%Lim%wllim@pacific.net.hk%0,      JS Malik%Peiris%malik@hkucc.hku.hk%2,      Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,      Dan%Feng%fddd@263.net%1,      Sake J%de Vlas%s.devlas@erasmusmc.nl%1,      Hongwei%Wang%whw7809@yahoo.com.cn%1,      Arnaud%Fontanet%fontanet@pasteur.fr%1,      Panhe%Zhang%juntianz@yahoo.com.cn%1,      Sabine%Plancoulaine%plancoulaine@necker.fr%1,      Fang%Tang%tf4065@sina.com%1,      Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,      Hong%Yang%anni_yang@yahoo.com%1,      Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,      Jan H%Richardus%j.richardus@erasmusmc.nl%1,      J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,      Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,      Jyh-Yuan%Yang%NULL%1,      Jih-Hui%Lin%NULL%1,      Cathy S. J.%Fann%NULL%1,      Valeriy%Osyetrov%NULL%1,      Chwan-Chuen%King%NULL%1,      Yi-Ming Arthur%Chen%NULL%1,      Hsiao-Ling%Chang%NULL%1,      Hung-Wei%Kuo%NULL%1,      Fong%Liao%NULL%1,      Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,      Johannes C. Y.%Ching%NULL%1,      M. S.%Xu%NULL%1,      Annie N. Y.%Cheung%NULL%1,      Shea-Ping%Yip%NULL%0,      Loretta Y. C.%Yam%NULL%1,      Sik-To%Lai%NULL%2,      Chung-Ming%Chu%NULL%2,      Andrew T. Y.%Wong%NULL%1,      You-Qiang%Song%NULL%1,      Fang-Ping%Huang%NULL%1,      Wei%Liu%NULL%0,      P. H.%Chung%NULL%1,      G. M.%Leung%NULL%1,      Eudora Y. D.%Chow%NULL%1,      Eric Y. T.%Chan%NULL%0,      Jane C. K.%Chan%NULL%1,      Hextan%Ngan%NULL%1,      Paul%Tam%NULL%1,      Li-Chong%Chan%NULL%0,      Pak%Sham%NULL%1,      Vera S. F.%Chan%NULL%1,      Malik%Peiris%NULL%0,      Steve C. L.%Lin%NULL%1,      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,      Gangqiao%Zhou%zhougq@chgb.org.cn%0,      Wai Po%Chong%h9820905@graduate.hku.hk%1,      Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,      Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,      Hongxing%Zhang%zhanghx08@126.com%1,      Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,      Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,      Yun%Zhai%zhaiyun077@tom.com%0,      Raymond WH%Yung%rwhyung@ha.org.hk%0,      Eudora Y%Chow%chowe@ha.org.hk%0,      Ka Leung%Au%klau@ha.org.hk%0,      Eric YT%Chan%eytchan@ha.org.hk%0,      Wilina%Lim%wllim@pacific.net.hk%0,      JS Malik%Peiris%malik@hkucc.hku.hk%0,      Fuchu%He%hefc@nic.bmi.ac.cn%0,      Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,      Maoti%Wei%weimaoti@yahoo.com.cn%1,      Yi%Han%halanhan2001sh@163.com%1,      Keju%Zhang%sinong77@sina.com%1,      Li%He%wujinhl@163.com%2,      Zhen%Yang%yzdtchina@yahoo.com.cn%2,      Bing%Su%tjsubin553@sina.com%1,      Zhilun%Zhang%zzl718@sina.com.cn%1,      Yilan%Hu%yougu@yahoo.com.cn%1,      Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,      Satoru%Itoyama%NULL%0,      Koichi%Kashiwase%NULL%1,      Nguyen Chi%Phi%NULL%0,      Hoang Thuy%Long%NULL%0,      Le Dang%Ha%NULL%0,      Vo Van%Ban%NULL%0,      Bach Khanh%Hoa%NULL%1,      Nguyen Thi Le%Hang%NULL%1,      Minako%Hijikata%NULL%0,      Shinsaku%Sakurada%NULL%1,      Masahiro%Satake%NULL%1,      Katsushi%Tokunaga%NULL%1,      Takehiko%Sasazuki%NULL%0,      Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,      Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,      Yuling%Shi%sane222@163.com%1,      Ping%Li%liping@nic.bmi.ac.cn%1,      Chuanxuan%Liu%renew7306_cn@sina.com%1,      Qingjun%Ma%maqingjun@sina.com%1,      Ruifu%Yang%zhangf@big.ac.cn%1,      Xiaoyi%Wang%happybettylx@hotmail.com%1,      Lina%zhu%luckina@sina.com%1,      Xiao%Yang%gaowei@sina.com%1,      Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,      Mei-Shu%Xu%NULL%2,      Johannes Chi Yun%Ching%NULL%1,      Thomas Man Kit%So%NULL%1,      Sik-To%Lai%NULL%0,      Chung-Ming%Chu%NULL%0,      Loretta Y.C.%Yam%NULL%1,      Andrew T.Y.%Wong%NULL%1,      Pui Hong%Chung%NULL%1,      Vera Sau Fong%Chan%NULL%1,      Chen Lung Steve%Lin%NULL%1,      Pak Chung%Sham%NULL%1,      Gabriel M.%Leung%NULL%0,      Joseph S.M.%Peiris%NULL%1,      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,      Kelvin Yuen Kwong%Chan%NULL%1,      Eric Hing Leung%Lee%NULL%1,      Mei-Shu%Xu%NULL%0,      Campbell Kam Po%Ting%NULL%1,      Thomas M. K.%So%NULL%1,      Pak C.%Sham%NULL%1,      Gabriel M.%Leung%NULL%0,      Joseph S. M.%Peiris%NULL%1,      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,       Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,       Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,       Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,       Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,       Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,       Pei-Jan%Chen%g8640@ms13.hinet.net%1,       Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,       Ken Hong%Lim%khlim@seed.net.tw%1,       Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,       Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,       Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,       Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,       Nelson L S%Tang%NULL%1,       David S C%Hui%NULL%1,       Grace T Y%Chung%NULL%1,       Stephen S C%Chim%NULL%1,       K C Allen%Chan%NULL%1,       Ying-man%Sung%NULL%1,       Louis Y S%Chan%NULL%1,       Yu-kwan%Tong%NULL%1,       Wing-shan%Lee%NULL%1,       Paul K S%Chan%NULL%1,       Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,       Naoto%Keicho%NULL%3,       Tran%Quy%NULL%4,       Nguyen Chi%Phi%NULL%4,       Hoang Thuy%Long%NULL%4,       Le Dang%Ha%NULL%4,       Vo Van%Ban%NULL%4,       Jun%Ohashi%NULL%1,       Minako%Hijikata%NULL%4,       Ikumi%Matsushita%NULL%3,       Akihiko%Kawana%NULL%1,       Hideki%Yanai%NULL%3,       Teruo%Kirikae%NULL%3,       Tadatoshi%Kuratsuji%NULL%3,       Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,       Kin-Mang%Lau%NULL%1,       Libby%Li%NULL%1,       Suk-Hang%Cheng%NULL%1,       Wing Y.%Chan%NULL%1,       Pak K.%Hui%NULL%1,       Benny%Zee%NULL%1,       Chi-Bon%Leung%NULL%1,       Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,       Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,       David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,       Grace TY%Chung%gracechung@cuhk.edu.hk%1,       Alan KL%Wu%alanklwu@yahoo.com%1,       Stephen SC%Chim%sschim@cuhk.edu.hk%1,       Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,       Nelson%Lee%leelsn@yahoo.com%1,       KW%Choi%kwchoi12@netvigator.com%1,       YM%Sung%mandysung@cuhk.edu.hk%1,       Paul KS%Chan%paulkschan@cuhk.edu.hk%1,       YK%Tong%yktong@cuhk.edu.hk%1,       ST%Lai%laist@ha.org.hk%1,       WC%Yu%yuwc@ha.org.hk%1,       Owen%Tsang%tyotsang@hotmail.com%1,       YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,       Minako%Hijikata%NULL%0,       Satoru%Itoyama%NULL%2,       Tran%Quy%NULL%0,       Nguyen Chi%Phi%NULL%0,       Hoang Thuy%Long%NULL%0,       Le Dang%Ha%NULL%0,       Vo Van%Ban%NULL%0,       Ikumi%Matsushita%NULL%0,       Hideki%Yanai%NULL%0,       Fumiko%Kirikae%NULL%2,       Teruo%Kirikae%NULL%0,       Tadatoshi%Kuratsuji%NULL%0,       Takehiko%Sasazuki%NULL%0,       Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,       Kwok Hung%Chan%NULL%1,       Helen K. W.%Law%NULL%1,       Gloria H. W.%Tso%NULL%1,       Eric K. P.%Kong%NULL%1,       Wilfred H. S.%Wong%NULL%1,       Yuk Fai%To%NULL%1,       Raymond W. H.%Yung%NULL%1,       Eudora Y.%Chow%NULL%1,       Ka Leung%Au%NULL%2,       Eric Y. T.%Chan%NULL%2,       Wilina%Lim%NULL%3,       Jens C.%Jensenius%NULL%1,       Malcolm W.%Turner%NULL%1,       J. S. Malik%Peiris%NULL%1,       Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,       Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,       Minako%Hijikata%NULL%0,       Tran%Quy%NULL%0,       Nguyen Chi%Phi%NULL%0,       Hoang Thuy%Long%NULL%0,       Le Dang%Ha%NULL%0,       Vo Van%Ban%NULL%0,       Ikumi%Matsushita%NULL%0,       Hideki%Yanai%NULL%0,       Fumiko%Kirikae%NULL%0,       Teruo%Kirikae%NULL%0,       Tadatoshi%Kuratsuji%NULL%0,       Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,       J.%Tanner%NULL%1,       P. K. S.%Chan%NULL%1,       S.%Biffin%NULL%1,       W. B.%Dyer%NULL%1,       A. F.%Geczy%NULL%1,       J. W.%Tang%NULL%1,       D. S. C.%Hui%NULL%1,       J. J. Y.%Sung%NULL%1,       J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,       Gangqiao%Zhou%NULL%2,       Lianteng%Zhi%NULL%1,       Hao%Yang%NULL%1,       Yun%Zhai%NULL%2,       Xiaojia%Dong%NULL%1,       Xiumei%Zhang%NULL%1,       Xue%Gao%NULL%1,       Yunping%Zhu%NULL%1,       Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,       Kelvin Y K%Chan%NULL%1,       Yongxiong%Chen%NULL%1,       Leo L M%Poon%NULL%2,       Annie N Y%Cheung%NULL%1,       Bojian%Zheng%NULL%1,       Kwok-Hung%Chan%NULL%0,       William%Mak%NULL%1,       Hextan Y S%Ngan%NULL%1,       Xiaoning%Xu%NULL%1,       Gavin%Screaton%NULL%1,       Paul K H%Tam%NULL%1,       Jonathan M%Austyn%NULL%1,       Li-Chong%Chan%NULL%2,       Shea-Ping%Yip%NULL%2,       Malik%Peiris%NULL%3,       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,       Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,       WK Eddie%Ip%WIP@partners.org%1,       Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,       Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,       Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,       Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,       Raymond WH%Yung%rwhyung@ha.org.hk%2,       Eudora Y%Chow%chowe@ha.org.hk%2,       KL%Au%klau@ha.org.hk%1,       Eric YT%Chan%eytchan@ha.org.hk%2,       Wilina%Lim%wllim@pacific.net.hk%0,       JS Malik%Peiris%malik@hkucc.hku.hk%2,       Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,       Dan%Feng%fddd@263.net%1,       Sake J%de Vlas%s.devlas@erasmusmc.nl%1,       Hongwei%Wang%whw7809@yahoo.com.cn%1,       Arnaud%Fontanet%fontanet@pasteur.fr%1,       Panhe%Zhang%juntianz@yahoo.com.cn%1,       Sabine%Plancoulaine%plancoulaine@necker.fr%1,       Fang%Tang%tf4065@sina.com%1,       Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,       Hong%Yang%anni_yang@yahoo.com%1,       Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,       Jan H%Richardus%j.richardus@erasmusmc.nl%1,       J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,       Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,       Jyh-Yuan%Yang%NULL%1,       Jih-Hui%Lin%NULL%1,       Cathy S. J.%Fann%NULL%1,       Valeriy%Osyetrov%NULL%1,       Chwan-Chuen%King%NULL%1,       Yi-Ming Arthur%Chen%NULL%1,       Hsiao-Ling%Chang%NULL%1,       Hung-Wei%Kuo%NULL%1,       Fong%Liao%NULL%1,       Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,       Johannes C. Y.%Ching%NULL%1,       M. S.%Xu%NULL%1,       Annie N. Y.%Cheung%NULL%1,       Shea-Ping%Yip%NULL%0,       Loretta Y. C.%Yam%NULL%1,       Sik-To%Lai%NULL%2,       Chung-Ming%Chu%NULL%2,       Andrew T. Y.%Wong%NULL%1,       You-Qiang%Song%NULL%1,       Fang-Ping%Huang%NULL%1,       Wei%Liu%NULL%0,       P. H.%Chung%NULL%1,       G. M.%Leung%NULL%1,       Eudora Y. D.%Chow%NULL%1,       Eric Y. T.%Chan%NULL%0,       Jane C. K.%Chan%NULL%1,       Hextan%Ngan%NULL%1,       Paul%Tam%NULL%1,       Li-Chong%Chan%NULL%0,       Pak%Sham%NULL%1,       Vera S. F.%Chan%NULL%1,       Malik%Peiris%NULL%0,       Steve C. L.%Lin%NULL%1,       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,       Gangqiao%Zhou%zhougq@chgb.org.cn%0,       Wai Po%Chong%h9820905@graduate.hku.hk%1,       Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,       Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,       Hongxing%Zhang%zhanghx08@126.com%1,       Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,       Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,       Yun%Zhai%zhaiyun077@tom.com%0,       Raymond WH%Yung%rwhyung@ha.org.hk%0,       Eudora Y%Chow%chowe@ha.org.hk%0,       Ka Leung%Au%klau@ha.org.hk%0,       Eric YT%Chan%eytchan@ha.org.hk%0,       Wilina%Lim%wllim@pacific.net.hk%0,       JS Malik%Peiris%malik@hkucc.hku.hk%0,       Fuchu%He%hefc@nic.bmi.ac.cn%0,       Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,       Maoti%Wei%weimaoti@yahoo.com.cn%1,       Yi%Han%halanhan2001sh@163.com%1,       Keju%Zhang%sinong77@sina.com%1,       Li%He%wujinhl@163.com%2,       Zhen%Yang%yzdtchina@yahoo.com.cn%2,       Bing%Su%tjsubin553@sina.com%1,       Zhilun%Zhang%zzl718@sina.com.cn%1,       Yilan%Hu%yougu@yahoo.com.cn%1,       Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,       Satoru%Itoyama%NULL%0,       Koichi%Kashiwase%NULL%1,       Nguyen Chi%Phi%NULL%0,       Hoang Thuy%Long%NULL%0,       Le Dang%Ha%NULL%0,       Vo Van%Ban%NULL%0,       Bach Khanh%Hoa%NULL%1,       Nguyen Thi Le%Hang%NULL%1,       Minako%Hijikata%NULL%0,       Shinsaku%Sakurada%NULL%1,       Masahiro%Satake%NULL%1,       Katsushi%Tokunaga%NULL%1,       Takehiko%Sasazuki%NULL%0,       Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,       Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,       Yuling%Shi%sane222@163.com%1,       Ping%Li%liping@nic.bmi.ac.cn%1,       Chuanxuan%Liu%renew7306_cn@sina.com%1,       Qingjun%Ma%maqingjun@sina.com%1,       Ruifu%Yang%zhangf@big.ac.cn%1,       Xiaoyi%Wang%happybettylx@hotmail.com%1,       Lina%zhu%luckina@sina.com%1,       Xiao%Yang%gaowei@sina.com%1,       Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,       Mei-Shu%Xu%NULL%2,       Johannes Chi Yun%Ching%NULL%1,       Thomas Man Kit%So%NULL%1,       Sik-To%Lai%NULL%0,       Chung-Ming%Chu%NULL%0,       Loretta Y.C.%Yam%NULL%1,       Andrew T.Y.%Wong%NULL%1,       Pui Hong%Chung%NULL%1,       Vera Sau Fong%Chan%NULL%1,       Chen Lung Steve%Lin%NULL%1,       Pak Chung%Sham%NULL%1,       Gabriel M.%Leung%NULL%0,       Joseph S.M.%Peiris%NULL%1,       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,       Kelvin Yuen Kwong%Chan%NULL%1,       Eric Hing Leung%Lee%NULL%1,       Mei-Shu%Xu%NULL%0,       Campbell Kam Po%Ting%NULL%1,       Thomas M. K.%So%NULL%1,       Pak C.%Sham%NULL%1,       Gabriel M.%Leung%NULL%0,       Joseph S. M.%Peiris%NULL%1,       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,        Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,        Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,        Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,        Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,        Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,        Pei-Jan%Chen%g8640@ms13.hinet.net%1,        Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,        Ken Hong%Lim%khlim@seed.net.tw%1,        Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,        Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,        Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,        Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,        Nelson L S%Tang%NULL%1,        David S C%Hui%NULL%1,        Grace T Y%Chung%NULL%1,        Stephen S C%Chim%NULL%1,        K C Allen%Chan%NULL%1,        Ying-man%Sung%NULL%1,        Louis Y S%Chan%NULL%1,        Yu-kwan%Tong%NULL%1,        Wing-shan%Lee%NULL%1,        Paul K S%Chan%NULL%1,        Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,        Naoto%Keicho%NULL%3,        Tran%Quy%NULL%4,        Nguyen Chi%Phi%NULL%4,        Hoang Thuy%Long%NULL%4,        Le Dang%Ha%NULL%4,        Vo Van%Ban%NULL%4,        Jun%Ohashi%NULL%1,        Minako%Hijikata%NULL%4,        Ikumi%Matsushita%NULL%3,        Akihiko%Kawana%NULL%1,        Hideki%Yanai%NULL%3,        Teruo%Kirikae%NULL%3,        Tadatoshi%Kuratsuji%NULL%3,        Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,        Kin-Mang%Lau%NULL%1,        Libby%Li%NULL%1,        Suk-Hang%Cheng%NULL%1,        Wing Y.%Chan%NULL%1,        Pak K.%Hui%NULL%1,        Benny%Zee%NULL%1,        Chi-Bon%Leung%NULL%1,        Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,        Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,        David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,        Grace TY%Chung%gracechung@cuhk.edu.hk%1,        Alan KL%Wu%alanklwu@yahoo.com%1,        Stephen SC%Chim%sschim@cuhk.edu.hk%1,        Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,        Nelson%Lee%leelsn@yahoo.com%1,        KW%Choi%kwchoi12@netvigator.com%1,        YM%Sung%mandysung@cuhk.edu.hk%1,        Paul KS%Chan%paulkschan@cuhk.edu.hk%1,        YK%Tong%yktong@cuhk.edu.hk%1,        ST%Lai%laist@ha.org.hk%1,        WC%Yu%yuwc@ha.org.hk%1,        Owen%Tsang%tyotsang@hotmail.com%1,        YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,        Minako%Hijikata%NULL%0,        Satoru%Itoyama%NULL%2,        Tran%Quy%NULL%0,        Nguyen Chi%Phi%NULL%0,        Hoang Thuy%Long%NULL%0,        Le Dang%Ha%NULL%0,        Vo Van%Ban%NULL%0,        Ikumi%Matsushita%NULL%0,        Hideki%Yanai%NULL%0,        Fumiko%Kirikae%NULL%2,        Teruo%Kirikae%NULL%0,        Tadatoshi%Kuratsuji%NULL%0,        Takehiko%Sasazuki%NULL%0,        Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,        Kwok Hung%Chan%NULL%1,        Helen K. W.%Law%NULL%1,        Gloria H. W.%Tso%NULL%1,        Eric K. P.%Kong%NULL%1,        Wilfred H. S.%Wong%NULL%1,        Yuk Fai%To%NULL%1,        Raymond W. H.%Yung%NULL%1,        Eudora Y.%Chow%NULL%1,        Ka Leung%Au%NULL%2,        Eric Y. T.%Chan%NULL%2,        Wilina%Lim%NULL%3,        Jens C.%Jensenius%NULL%1,        Malcolm W.%Turner%NULL%1,        J. S. Malik%Peiris%NULL%1,        Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,        Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,        Minako%Hijikata%NULL%0,        Tran%Quy%NULL%0,        Nguyen Chi%Phi%NULL%0,        Hoang Thuy%Long%NULL%0,        Le Dang%Ha%NULL%0,        Vo Van%Ban%NULL%0,        Ikumi%Matsushita%NULL%0,        Hideki%Yanai%NULL%0,        Fumiko%Kirikae%NULL%0,        Teruo%Kirikae%NULL%0,        Tadatoshi%Kuratsuji%NULL%0,        Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,        J.%Tanner%NULL%1,        P. K. S.%Chan%NULL%1,        S.%Biffin%NULL%1,        W. B.%Dyer%NULL%1,        A. F.%Geczy%NULL%1,        J. W.%Tang%NULL%1,        D. S. C.%Hui%NULL%1,        J. J. Y.%Sung%NULL%1,        J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,        Gangqiao%Zhou%NULL%2,        Lianteng%Zhi%NULL%1,        Hao%Yang%NULL%1,        Yun%Zhai%NULL%2,        Xiaojia%Dong%NULL%1,        Xiumei%Zhang%NULL%1,        Xue%Gao%NULL%1,        Yunping%Zhu%NULL%1,        Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,        Kelvin Y K%Chan%NULL%1,        Yongxiong%Chen%NULL%1,        Leo L M%Poon%NULL%2,        Annie N Y%Cheung%NULL%1,        Bojian%Zheng%NULL%1,        Kwok-Hung%Chan%NULL%0,        William%Mak%NULL%1,        Hextan Y S%Ngan%NULL%1,        Xiaoning%Xu%NULL%1,        Gavin%Screaton%NULL%1,        Paul K H%Tam%NULL%1,        Jonathan M%Austyn%NULL%1,        Li-Chong%Chan%NULL%2,        Shea-Ping%Yip%NULL%2,        Malik%Peiris%NULL%3,        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,        Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,        WK Eddie%Ip%WIP@partners.org%1,        Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,        Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,        Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,        Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,        Raymond WH%Yung%rwhyung@ha.org.hk%2,        Eudora Y%Chow%chowe@ha.org.hk%2,        KL%Au%klau@ha.org.hk%1,        Eric YT%Chan%eytchan@ha.org.hk%2,        Wilina%Lim%wllim@pacific.net.hk%0,        JS Malik%Peiris%malik@hkucc.hku.hk%2,        Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,        Dan%Feng%fddd@263.net%1,        Sake J%de Vlas%s.devlas@erasmusmc.nl%1,        Hongwei%Wang%whw7809@yahoo.com.cn%1,        Arnaud%Fontanet%fontanet@pasteur.fr%1,        Panhe%Zhang%juntianz@yahoo.com.cn%1,        Sabine%Plancoulaine%plancoulaine@necker.fr%1,        Fang%Tang%tf4065@sina.com%1,        Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,        Hong%Yang%anni_yang@yahoo.com%1,        Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,        Jan H%Richardus%j.richardus@erasmusmc.nl%1,        J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,        Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,        Jyh-Yuan%Yang%NULL%1,        Jih-Hui%Lin%NULL%1,        Cathy S. J.%Fann%NULL%1,        Valeriy%Osyetrov%NULL%1,        Chwan-Chuen%King%NULL%1,        Yi-Ming Arthur%Chen%NULL%1,        Hsiao-Ling%Chang%NULL%1,        Hung-Wei%Kuo%NULL%1,        Fong%Liao%NULL%1,        Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,        Johannes C. Y.%Ching%NULL%1,        M. S.%Xu%NULL%1,        Annie N. Y.%Cheung%NULL%1,        Shea-Ping%Yip%NULL%0,        Loretta Y. C.%Yam%NULL%1,        Sik-To%Lai%NULL%2,        Chung-Ming%Chu%NULL%2,        Andrew T. Y.%Wong%NULL%1,        You-Qiang%Song%NULL%1,        Fang-Ping%Huang%NULL%1,        Wei%Liu%NULL%0,        P. H.%Chung%NULL%1,        G. M.%Leung%NULL%1,        Eudora Y. D.%Chow%NULL%1,        Eric Y. T.%Chan%NULL%0,        Jane C. K.%Chan%NULL%1,        Hextan%Ngan%NULL%1,        Paul%Tam%NULL%1,        Li-Chong%Chan%NULL%0,        Pak%Sham%NULL%1,        Vera S. F.%Chan%NULL%1,        Malik%Peiris%NULL%0,        Steve C. L.%Lin%NULL%1,        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,        Gangqiao%Zhou%zhougq@chgb.org.cn%0,        Wai Po%Chong%h9820905@graduate.hku.hk%1,        Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,        Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,        Hongxing%Zhang%zhanghx08@126.com%1,        Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,        Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,        Yun%Zhai%zhaiyun077@tom.com%0,        Raymond WH%Yung%rwhyung@ha.org.hk%0,        Eudora Y%Chow%chowe@ha.org.hk%0,        Ka Leung%Au%klau@ha.org.hk%0,        Eric YT%Chan%eytchan@ha.org.hk%0,        Wilina%Lim%wllim@pacific.net.hk%0,        JS Malik%Peiris%malik@hkucc.hku.hk%0,        Fuchu%He%hefc@nic.bmi.ac.cn%0,        Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,        Maoti%Wei%weimaoti@yahoo.com.cn%1,        Yi%Han%halanhan2001sh@163.com%1,        Keju%Zhang%sinong77@sina.com%1,        Li%He%wujinhl@163.com%2,        Zhen%Yang%yzdtchina@yahoo.com.cn%2,        Bing%Su%tjsubin553@sina.com%1,        Zhilun%Zhang%zzl718@sina.com.cn%1,        Yilan%Hu%yougu@yahoo.com.cn%1,        Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,        Satoru%Itoyama%NULL%0,        Koichi%Kashiwase%NULL%1,        Nguyen Chi%Phi%NULL%0,        Hoang Thuy%Long%NULL%0,        Le Dang%Ha%NULL%0,        Vo Van%Ban%NULL%0,        Bach Khanh%Hoa%NULL%1,        Nguyen Thi Le%Hang%NULL%1,        Minako%Hijikata%NULL%0,        Shinsaku%Sakurada%NULL%1,        Masahiro%Satake%NULL%1,        Katsushi%Tokunaga%NULL%1,        Takehiko%Sasazuki%NULL%0,        Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,        Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,        Yuling%Shi%sane222@163.com%1,        Ping%Li%liping@nic.bmi.ac.cn%1,        Chuanxuan%Liu%renew7306_cn@sina.com%1,        Qingjun%Ma%maqingjun@sina.com%1,        Ruifu%Yang%zhangf@big.ac.cn%1,        Xiaoyi%Wang%happybettylx@hotmail.com%1,        Lina%zhu%luckina@sina.com%1,        Xiao%Yang%gaowei@sina.com%1,        Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,        Mei-Shu%Xu%NULL%2,        Johannes Chi Yun%Ching%NULL%1,        Thomas Man Kit%So%NULL%1,        Sik-To%Lai%NULL%0,        Chung-Ming%Chu%NULL%0,        Loretta Y.C.%Yam%NULL%1,        Andrew T.Y.%Wong%NULL%1,        Pui Hong%Chung%NULL%1,        Vera Sau Fong%Chan%NULL%1,        Chen Lung Steve%Lin%NULL%1,        Pak Chung%Sham%NULL%1,        Gabriel M.%Leung%NULL%0,        Joseph S.M.%Peiris%NULL%1,        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,        Kelvin Yuen Kwong%Chan%NULL%1,        Eric Hing Leung%Lee%NULL%1,        Mei-Shu%Xu%NULL%0,        Campbell Kam Po%Ting%NULL%1,        Thomas M. K.%So%NULL%1,        Pak C.%Sham%NULL%1,        Gabriel M.%Leung%NULL%0,        Joseph S. M.%Peiris%NULL%1,        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,         Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,         Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,         Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,         Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,         Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,         Pei-Jan%Chen%g8640@ms13.hinet.net%1,         Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,         Ken Hong%Lim%khlim@seed.net.tw%1,         Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,         Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,         Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,         Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,         Nelson L S%Tang%NULL%1,         David S C%Hui%NULL%1,         Grace T Y%Chung%NULL%1,         Stephen S C%Chim%NULL%1,         K C Allen%Chan%NULL%1,         Ying-man%Sung%NULL%1,         Louis Y S%Chan%NULL%1,         Yu-kwan%Tong%NULL%1,         Wing-shan%Lee%NULL%1,         Paul K S%Chan%NULL%1,         Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,         Naoto%Keicho%NULL%3,         Tran%Quy%NULL%4,         Nguyen Chi%Phi%NULL%4,         Hoang Thuy%Long%NULL%4,         Le Dang%Ha%NULL%4,         Vo Van%Ban%NULL%4,         Jun%Ohashi%NULL%1,         Minako%Hijikata%NULL%4,         Ikumi%Matsushita%NULL%3,         Akihiko%Kawana%NULL%1,         Hideki%Yanai%NULL%3,         Teruo%Kirikae%NULL%3,         Tadatoshi%Kuratsuji%NULL%3,         Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,         Kin-Mang%Lau%NULL%1,         Libby%Li%NULL%1,         Suk-Hang%Cheng%NULL%1,         Wing Y.%Chan%NULL%1,         Pak K.%Hui%NULL%1,         Benny%Zee%NULL%1,         Chi-Bon%Leung%NULL%1,         Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,         Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,         David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,         Grace TY%Chung%gracechung@cuhk.edu.hk%1,         Alan KL%Wu%alanklwu@yahoo.com%1,         Stephen SC%Chim%sschim@cuhk.edu.hk%1,         Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,         Nelson%Lee%leelsn@yahoo.com%1,         KW%Choi%kwchoi12@netvigator.com%1,         YM%Sung%mandysung@cuhk.edu.hk%1,         Paul KS%Chan%paulkschan@cuhk.edu.hk%1,         YK%Tong%yktong@cuhk.edu.hk%1,         ST%Lai%laist@ha.org.hk%1,         WC%Yu%yuwc@ha.org.hk%1,         Owen%Tsang%tyotsang@hotmail.com%1,         YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,         Minako%Hijikata%NULL%0,         Satoru%Itoyama%NULL%2,         Tran%Quy%NULL%0,         Nguyen Chi%Phi%NULL%0,         Hoang Thuy%Long%NULL%0,         Le Dang%Ha%NULL%0,         Vo Van%Ban%NULL%0,         Ikumi%Matsushita%NULL%0,         Hideki%Yanai%NULL%0,         Fumiko%Kirikae%NULL%2,         Teruo%Kirikae%NULL%0,         Tadatoshi%Kuratsuji%NULL%0,         Takehiko%Sasazuki%NULL%0,         Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,         Kwok Hung%Chan%NULL%1,         Helen K. W.%Law%NULL%1,         Gloria H. W.%Tso%NULL%1,         Eric K. P.%Kong%NULL%1,         Wilfred H. S.%Wong%NULL%1,         Yuk Fai%To%NULL%1,         Raymond W. H.%Yung%NULL%1,         Eudora Y.%Chow%NULL%1,         Ka Leung%Au%NULL%2,         Eric Y. T.%Chan%NULL%2,         Wilina%Lim%NULL%3,         Jens C.%Jensenius%NULL%1,         Malcolm W.%Turner%NULL%1,         J. S. Malik%Peiris%NULL%1,         Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,         Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,         Minako%Hijikata%NULL%0,         Tran%Quy%NULL%0,         Nguyen Chi%Phi%NULL%0,         Hoang Thuy%Long%NULL%0,         Le Dang%Ha%NULL%0,         Vo Van%Ban%NULL%0,         Ikumi%Matsushita%NULL%0,         Hideki%Yanai%NULL%0,         Fumiko%Kirikae%NULL%0,         Teruo%Kirikae%NULL%0,         Tadatoshi%Kuratsuji%NULL%0,         Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,         J.%Tanner%NULL%1,         P. K. S.%Chan%NULL%1,         S.%Biffin%NULL%1,         W. B.%Dyer%NULL%1,         A. F.%Geczy%NULL%1,         J. W.%Tang%NULL%1,         D. S. C.%Hui%NULL%1,         J. J. Y.%Sung%NULL%1,         J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,         Gangqiao%Zhou%NULL%2,         Lianteng%Zhi%NULL%1,         Hao%Yang%NULL%1,         Yun%Zhai%NULL%2,         Xiaojia%Dong%NULL%1,         Xiumei%Zhang%NULL%1,         Xue%Gao%NULL%1,         Yunping%Zhu%NULL%1,         Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,         Kelvin Y K%Chan%NULL%1,         Yongxiong%Chen%NULL%1,         Leo L M%Poon%NULL%2,         Annie N Y%Cheung%NULL%1,         Bojian%Zheng%NULL%1,         Kwok-Hung%Chan%NULL%0,         William%Mak%NULL%1,         Hextan Y S%Ngan%NULL%1,         Xiaoning%Xu%NULL%1,         Gavin%Screaton%NULL%1,         Paul K H%Tam%NULL%1,         Jonathan M%Austyn%NULL%1,         Li-Chong%Chan%NULL%2,         Shea-Ping%Yip%NULL%2,         Malik%Peiris%NULL%3,         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,         Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,         WK Eddie%Ip%WIP@partners.org%1,         Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,         Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,         Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,         Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,         Raymond WH%Yung%rwhyung@ha.org.hk%2,         Eudora Y%Chow%chowe@ha.org.hk%2,         KL%Au%klau@ha.org.hk%1,         Eric YT%Chan%eytchan@ha.org.hk%2,         Wilina%Lim%wllim@pacific.net.hk%0,         JS Malik%Peiris%malik@hkucc.hku.hk%2,         Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,         Dan%Feng%fddd@263.net%1,         Sake J%de Vlas%s.devlas@erasmusmc.nl%1,         Hongwei%Wang%whw7809@yahoo.com.cn%1,         Arnaud%Fontanet%fontanet@pasteur.fr%1,         Panhe%Zhang%juntianz@yahoo.com.cn%1,         Sabine%Plancoulaine%plancoulaine@necker.fr%1,         Fang%Tang%tf4065@sina.com%1,         Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,         Hong%Yang%anni_yang@yahoo.com%1,         Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,         Jan H%Richardus%j.richardus@erasmusmc.nl%1,         J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,         Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,         Jyh-Yuan%Yang%NULL%1,         Jih-Hui%Lin%NULL%1,         Cathy S. J.%Fann%NULL%1,         Valeriy%Osyetrov%NULL%1,         Chwan-Chuen%King%NULL%1,         Yi-Ming Arthur%Chen%NULL%1,         Hsiao-Ling%Chang%NULL%1,         Hung-Wei%Kuo%NULL%1,         Fong%Liao%NULL%1,         Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,         Johannes C. Y.%Ching%NULL%1,         M. S.%Xu%NULL%1,         Annie N. Y.%Cheung%NULL%1,         Shea-Ping%Yip%NULL%0,         Loretta Y. C.%Yam%NULL%1,         Sik-To%Lai%NULL%2,         Chung-Ming%Chu%NULL%2,         Andrew T. Y.%Wong%NULL%1,         You-Qiang%Song%NULL%1,         Fang-Ping%Huang%NULL%1,         Wei%Liu%NULL%0,         P. H.%Chung%NULL%1,         G. M.%Leung%NULL%1,         Eudora Y. D.%Chow%NULL%1,         Eric Y. T.%Chan%NULL%0,         Jane C. K.%Chan%NULL%1,         Hextan%Ngan%NULL%1,         Paul%Tam%NULL%1,         Li-Chong%Chan%NULL%0,         Pak%Sham%NULL%1,         Vera S. F.%Chan%NULL%1,         Malik%Peiris%NULL%0,         Steve C. L.%Lin%NULL%1,         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,         Gangqiao%Zhou%zhougq@chgb.org.cn%0,         Wai Po%Chong%h9820905@graduate.hku.hk%1,         Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,         Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,         Hongxing%Zhang%zhanghx08@126.com%1,         Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,         Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,         Yun%Zhai%zhaiyun077@tom.com%0,         Raymond WH%Yung%rwhyung@ha.org.hk%0,         Eudora Y%Chow%chowe@ha.org.hk%0,         Ka Leung%Au%klau@ha.org.hk%0,         Eric YT%Chan%eytchan@ha.org.hk%0,         Wilina%Lim%wllim@pacific.net.hk%0,         JS Malik%Peiris%malik@hkucc.hku.hk%0,         Fuchu%He%hefc@nic.bmi.ac.cn%0,         Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,         Maoti%Wei%weimaoti@yahoo.com.cn%1,         Yi%Han%halanhan2001sh@163.com%1,         Keju%Zhang%sinong77@sina.com%1,         Li%He%wujinhl@163.com%2,         Zhen%Yang%yzdtchina@yahoo.com.cn%2,         Bing%Su%tjsubin553@sina.com%1,         Zhilun%Zhang%zzl718@sina.com.cn%1,         Yilan%Hu%yougu@yahoo.com.cn%1,         Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,         Satoru%Itoyama%NULL%0,         Koichi%Kashiwase%NULL%1,         Nguyen Chi%Phi%NULL%0,         Hoang Thuy%Long%NULL%0,         Le Dang%Ha%NULL%0,         Vo Van%Ban%NULL%0,         Bach Khanh%Hoa%NULL%1,         Nguyen Thi Le%Hang%NULL%1,         Minako%Hijikata%NULL%0,         Shinsaku%Sakurada%NULL%1,         Masahiro%Satake%NULL%1,         Katsushi%Tokunaga%NULL%1,         Takehiko%Sasazuki%NULL%0,         Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,         Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,         Yuling%Shi%sane222@163.com%1,         Ping%Li%liping@nic.bmi.ac.cn%1,         Chuanxuan%Liu%renew7306_cn@sina.com%1,         Qingjun%Ma%maqingjun@sina.com%1,         Ruifu%Yang%zhangf@big.ac.cn%1,         Xiaoyi%Wang%happybettylx@hotmail.com%1,         Lina%zhu%luckina@sina.com%1,         Xiao%Yang%gaowei@sina.com%1,         Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,         Mei-Shu%Xu%NULL%2,         Johannes Chi Yun%Ching%NULL%1,         Thomas Man Kit%So%NULL%1,         Sik-To%Lai%NULL%0,         Chung-Ming%Chu%NULL%0,         Loretta Y.C.%Yam%NULL%1,         Andrew T.Y.%Wong%NULL%1,         Pui Hong%Chung%NULL%1,         Vera Sau Fong%Chan%NULL%1,         Chen Lung Steve%Lin%NULL%1,         Pak Chung%Sham%NULL%1,         Gabriel M.%Leung%NULL%0,         Joseph S.M.%Peiris%NULL%1,         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,         Kelvin Yuen Kwong%Chan%NULL%1,         Eric Hing Leung%Lee%NULL%1,         Mei-Shu%Xu%NULL%0,         Campbell Kam Po%Ting%NULL%1,         Thomas M. K.%So%NULL%1,         Pak C.%Sham%NULL%1,         Gabriel M.%Leung%NULL%0,         Joseph S. M.%Peiris%NULL%1,         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="167" formatCode="d mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="167" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -865,7 +938,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -875,56 +948,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1114,20 +1184,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,15 +1228,15 @@
         <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>37876.0</v>
+        <v>37876</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1170,404 +1245,404 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>38231.0</v>
+        <v>38231</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>38282.0</v>
+        <v>38282</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>38200.0</v>
+        <v>38200</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
       <c r="I5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>38451.0</v>
+        <v>38451</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>38464.0</v>
+        <v>38464</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>38487.0</v>
+        <v>38487</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>38534.0</v>
+        <v>38534</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>38626.0</v>
+        <v>38626</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>38640.0</v>
+        <v>38640</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8">
-        <v>38706.0</v>
+        <v>38706</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>38841.0</v>
+        <v>38841</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>38904.0</v>
+        <v>38904</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>38869.0</v>
+        <v>38869</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>38749.0</v>
+        <v>38749</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1585,76 +1660,76 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>39278.0</v>
+        <v>39278</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>39234.0</v>
+        <v>39234</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>39417.0</v>
+        <v>39417</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -1672,18 +1747,18 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>39753.0</v>
+        <v>39753</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -1701,182 +1776,182 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="9">
-        <v>39507.0</v>
+        <v>39507</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>39995.0</v>
+        <v>39995</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>39934.0</v>
+        <v>39934</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>40360.0</v>
+        <v>40360</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>40344.0</v>
+        <v>40344</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A13"/>
-    <hyperlink r:id="rId12" ref="A14"/>
-    <hyperlink r:id="rId13" ref="A15"/>
-    <hyperlink r:id="rId14" ref="A16"/>
-    <hyperlink r:id="rId15" ref="A17"/>
-    <hyperlink r:id="rId16" ref="A18"/>
-    <hyperlink r:id="rId17" ref="A19"/>
-    <hyperlink r:id="rId18" ref="A20"/>
-    <hyperlink r:id="rId19" ref="A22"/>
-    <hyperlink r:id="rId20" ref="A23"/>
-    <hyperlink r:id="rId21" ref="A24"/>
-    <hyperlink r:id="rId22" ref="A25"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
-  <drawing r:id="rId23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="286">
   <si>
     <t>Doi</t>
   </si>
@@ -895,6 +895,185 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,         Kelvin Yuen Kwong%Chan%NULL%1,         Eric Hing Leung%Lee%NULL%1,         Mei-Shu%Xu%NULL%0,         Campbell Kam Po%Ting%NULL%1,         Thomas M. K.%So%NULL%1,         Pak C.%Sham%NULL%1,         Gabriel M.%Leung%NULL%0,         Joseph S. M.%Peiris%NULL%1,         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,          Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,          Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,          Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,          Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,          Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,          Pei-Jan%Chen%g8640@ms13.hinet.net%1,          Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,          Ken Hong%Lim%khlim@seed.net.tw%1,          Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,          Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,          Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,          Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,          Nelson L S%Tang%NULL%1,          David S C%Hui%NULL%1,          Grace T Y%Chung%NULL%1,          Stephen S C%Chim%NULL%1,          K C Allen%Chan%NULL%1,          Ying-man%Sung%NULL%1,          Louis Y S%Chan%NULL%1,          Yu-kwan%Tong%NULL%1,          Wing-shan%Lee%NULL%1,          Paul K S%Chan%NULL%1,          Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,          Naoto%Keicho%NULL%3,          Tran%Quy%NULL%4,          Nguyen Chi%Phi%NULL%4,          Hoang Thuy%Long%NULL%4,          Le Dang%Ha%NULL%4,          Vo Van%Ban%NULL%4,          Jun%Ohashi%NULL%1,          Minako%Hijikata%NULL%4,          Ikumi%Matsushita%NULL%3,          Akihiko%Kawana%NULL%1,          Hideki%Yanai%NULL%3,          Teruo%Kirikae%NULL%3,          Tadatoshi%Kuratsuji%NULL%3,          Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,          Kin-Mang%Lau%NULL%1,          Libby%Li%NULL%1,          Suk-Hang%Cheng%NULL%1,          Wing Y.%Chan%NULL%1,          Pak K.%Hui%NULL%1,          Benny%Zee%NULL%1,          Chi-Bon%Leung%NULL%1,          Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,          Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,          David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,          Grace TY%Chung%gracechung@cuhk.edu.hk%1,          Alan KL%Wu%alanklwu@yahoo.com%1,          Stephen SC%Chim%sschim@cuhk.edu.hk%1,          Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,          Nelson%Lee%leelsn@yahoo.com%1,          KW%Choi%kwchoi12@netvigator.com%1,          YM%Sung%mandysung@cuhk.edu.hk%1,          Paul KS%Chan%paulkschan@cuhk.edu.hk%1,          YK%Tong%yktong@cuhk.edu.hk%1,          ST%Lai%laist@ha.org.hk%1,          WC%Yu%yuwc@ha.org.hk%1,          Owen%Tsang%tyotsang@hotmail.com%1,          YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,          Minako%Hijikata%NULL%0,          Satoru%Itoyama%NULL%2,          Tran%Quy%NULL%0,          Nguyen Chi%Phi%NULL%0,          Hoang Thuy%Long%NULL%0,          Le Dang%Ha%NULL%0,          Vo Van%Ban%NULL%0,          Ikumi%Matsushita%NULL%0,          Hideki%Yanai%NULL%0,          Fumiko%Kirikae%NULL%2,          Teruo%Kirikae%NULL%0,          Tadatoshi%Kuratsuji%NULL%0,          Takehiko%Sasazuki%NULL%0,          Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,          Kwok Hung%Chan%NULL%1,          Helen K. W.%Law%NULL%1,          Gloria H. W.%Tso%NULL%1,          Eric K. P.%Kong%NULL%1,          Wilfred H. S.%Wong%NULL%1,          Yuk Fai%To%NULL%1,          Raymond W. H.%Yung%NULL%1,          Eudora Y.%Chow%NULL%1,          Ka Leung%Au%NULL%2,          Eric Y. T.%Chan%NULL%2,          Wilina%Lim%NULL%3,          Jens C.%Jensenius%NULL%1,          Malcolm W.%Turner%NULL%1,          J. S. Malik%Peiris%NULL%1,          Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,          Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,          Minako%Hijikata%NULL%0,          Tran%Quy%NULL%0,          Nguyen Chi%Phi%NULL%0,          Hoang Thuy%Long%NULL%0,          Le Dang%Ha%NULL%0,          Vo Van%Ban%NULL%0,          Ikumi%Matsushita%NULL%0,          Hideki%Yanai%NULL%0,          Fumiko%Kirikae%NULL%0,          Teruo%Kirikae%NULL%0,          Tadatoshi%Kuratsuji%NULL%0,          Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,          J.%Tanner%NULL%1,          P. K. S.%Chan%NULL%1,          S.%Biffin%NULL%1,          W. B.%Dyer%NULL%1,          A. F.%Geczy%NULL%1,          J. W.%Tang%NULL%1,          D. S. C.%Hui%NULL%1,          J. J. Y.%Sung%NULL%1,          J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,          Gangqiao%Zhou%NULL%2,          Lianteng%Zhi%NULL%1,          Hao%Yang%NULL%1,          Yun%Zhai%NULL%2,          Xiaojia%Dong%NULL%1,          Xiumei%Zhang%NULL%1,          Xue%Gao%NULL%1,          Yunping%Zhu%NULL%1,          Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,          Kelvin Y K%Chan%NULL%1,          Yongxiong%Chen%NULL%1,          Leo L M%Poon%NULL%1,          Annie N Y%Cheung%NULL%1,          Bojian%Zheng%NULL%1,          Kwok-Hung%Chan%NULL%1,          William%Mak%NULL%1,          Hextan Y S%Ngan%NULL%1,          Xiaoning%Xu%NULL%1,          Gavin%Screaton%NULL%1,          Paul K H%Tam%NULL%1,          Jonathan M%Austyn%NULL%1,          Li-Chong%Chan%NULL%2,          Shea-Ping%Yip%NULL%2,          Malik%Peiris%NULL%2,          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,          Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,          WK Eddie%Ip%WIP@partners.org%1,          Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,          Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,          Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,          Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,          Raymond WH%Yung%rwhyung@ha.org.hk%2,          Eudora Y%Chow%chowe@ha.org.hk%2,          KL%Au%klau@ha.org.hk%1,          Eric YT%Chan%eytchan@ha.org.hk%2,          Wilina%Lim%wllim@pacific.net.hk%0,          JS Malik%Peiris%malik@hkucc.hku.hk%2,          Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,          Dan%Feng%fddd@263.net%1,          Sake J%de Vlas%s.devlas@erasmusmc.nl%1,          Hongwei%Wang%whw7809@yahoo.com.cn%1,          Arnaud%Fontanet%fontanet@pasteur.fr%1,          Panhe%Zhang%juntianz@yahoo.com.cn%1,          Sabine%Plancoulaine%plancoulaine@necker.fr%1,          Fang%Tang%tf4065@sina.com%1,          Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,          Hong%Yang%anni_yang@yahoo.com%1,          Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,          Jan H%Richardus%j.richardus@erasmusmc.nl%1,          J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,          Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,          Jyh-Yuan%Yang%NULL%1,          Jih-Hui%Lin%NULL%1,          Cathy S. J.%Fann%NULL%1,          Valeriy%Osyetrov%NULL%1,          Chwan-Chuen%King%NULL%1,          Yi-Ming Arthur%Chen%NULL%1,          Hsiao-Ling%Chang%NULL%1,          Hung-Wei%Kuo%NULL%1,          Fong%Liao%NULL%1,          Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>"Epidemiological and Genetic Correlates of Severe Acute Respiratory Syndrome Coronavirus Infection in the Hospital with the Highest Nosocomial Infection Rate in Taiwan in 2003"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ABSTRACT\n          \n            Taiwan experienced a series of outbreaks of nosocomial severe acute respiratory syndrome (SARS) infections in 2003. Two months after the final outbreak, we recruited 658 employees from the hospital that suffered the first and most severe SARS infections to help us investigate epidemiological and genetic factors associated with the SARS coronavirus (SARS-CoV).
+ SARS-CoV infections were detected by using enzyme immunoassays and confirmed by a combination of Western blot assays, neutralizing antibody tests, and commercial SARS tests.
+ Risk factors were analyzed via questionnaire responses and sequence-specific oligonucleotide probes of human leukocyte antigen (HLA) alleles.
+ Our results indicate that 3% (20\/658) of the study participants were seropositive, with one female nurse identified as a subclinical case.
+ Identified SARS-CoV infection risk factors include working in the same building as the hospital's emergency room and infection ward, providing direct care to SARS patients, and carrying a Cw*0801 HLA allele.
+ The odds ratio for contracting a SARS-CoV infection among persons with either a homozygous or a heterozygous Cw*0801 genotype was 4.4 (95% confidence interval, 1.5 to 12.9;\n            P\n            = 0.007).
+\n          </t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1, Shu-Yuan%Liang%xref no email%1, Yi-Ping%Shih%xref no email%1, Chia-Yen%Chen%xref no email%1, Yuan-Ming%Lee%xref no email%1, Ling%Chang%xref no email%1, Shiao-Ying%Jung%xref no email%1, Mei-Shang%Ho%xref no email%1, Kung-Yee%Liang%xref no email%1, Hour-Young%Chen%xref no email%1, Yu-Jiun%Chan%xref no email%1, Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,          Johannes C. Y.%Ching%NULL%1,          M. S.%Xu%NULL%1,          Annie N. Y.%Cheung%NULL%1,          Shea-Ping%Yip%NULL%0,          Loretta Y. C.%Yam%NULL%1,          Sik-To%Lai%NULL%2,          Chung-Ming%Chu%NULL%2,          Andrew T. Y.%Wong%NULL%1,          You-Qiang%Song%NULL%1,          Fang-Ping%Huang%NULL%1,          Wei%Liu%NULL%1,          P. H.%Chung%NULL%1,          G. M.%Leung%NULL%1,          Eudora Y. D.%Chow%NULL%1,          Eric Y. T.%Chan%NULL%0,          Jane C. K.%Chan%NULL%1,          Hextan%Ngan%NULL%1,          Paul%Tam%NULL%1,          Li-Chong%Chan%NULL%0,          Pak%Sham%NULL%1,          Vera S. F.%Chan%NULL%1,          Malik%Peiris%NULL%0,          Steve C. L.%Lin%NULL%1,          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,          Gangqiao%Zhou%zhougq@chgb.org.cn%0,          Wai Po%Chong%h9820905@graduate.hku.hk%1,          Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,          Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,          Hongxing%Zhang%zhanghx08@126.com%1,          Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,          Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,          Yun%Zhai%zhaiyun077@tom.com%0,          Raymond WH%Yung%rwhyung@ha.org.hk%0,          Eudora Y%Chow%chowe@ha.org.hk%0,          Ka Leung%Au%klau@ha.org.hk%0,          Eric YT%Chan%eytchan@ha.org.hk%0,          Wilina%Lim%wllim@pacific.net.hk%0,          JS Malik%Peiris%malik@hkucc.hku.hk%0,          Fuchu%He%hefc@nic.bmi.ac.cn%0,          Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>"High Prevalence of the CD14-159CC Genotype in Patients Infected with Severe Acute Respiratory Syndrome-Associated Coronavirus"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ABSTRACT\n          \n            To investigate whether genetic factors of innate immunity might influence susceptibility and\/or progression in individuals infected with SARS, we evaluated the CD14 gene polymorphism in 198 Hong Kong blood donors and 152 Hong Kong severe acute respiratory syndrome (SARS) patients who were previously genotyped for Fc\u03b3RIIA polymorphisms.
+ The prevalence of the CD14-159CC polymorphism was significantly higher in the patients with severe SARS than in the those with mild SARS or controls (31% versus 15% [mild SARS] or 20% [controls]; mild SARS:\n            P\n            = 0.029; odds ratio, 2.74; 95% confidence interval, 1.15 to 6.57; controls,\n            P\n            = 0.04; odds ratio, 2.41; 95% confidence interval, 1.05 to 5.54), and both CD14-159CC and Fc\u03b3RIIA-RR131 are risk genotypes for severe SARS-CoV infection.
+\n          </t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1, Ingrid%Boehm%xref no email%1, Paul K. S.%Chan%xref no email%1, Katherine%Marks%xref no email%1, Julian W.%Tang%xref no email%1, David S. C.%Hui%xref no email%1, Joseph J. Y.%Sung%xref no email%1, Wayne B.%Dyer%xref no email%1, Andrew F.%Geczy%xref no email%1, John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>"Polymorphisms in the C-type lectin genes cluster in chromosome 19 and predisposition to severe acute respiratory syndrome coronavirus (SARS-CoV) infection"</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1, N L-S%Tang%xref no email%1, P K-S%Chan%xref no email%1, C-Y%Wang%xref no email%1, D S-C%Hui%xref no email%1, C%Luk%xref no email%1, R%Kwok%xref no email%1, W%Huang%xref no email%1, J J-Y%Sung%xref no email%1, Q-P%Kong%xref no email%1, Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,          Maoti%Wei%weimaoti@yahoo.com.cn%1,          Yi%Han%halanhan2001sh@163.com%1,          Keju%Zhang%sinong77@sina.com%1,          Li%He%wujinhl@163.com%1,          Zhen%Yang%yzdtchina@yahoo.com.cn%1,          Bing%Su%tjsubin553@sina.com%1,          Zhilun%Zhang%zzl718@sina.com.cn%1,          Yilan%Hu%yougu@yahoo.com.cn%1,          Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,          Satoru%Itoyama%NULL%0,          Koichi%Kashiwase%NULL%1,          Nguyen Chi%Phi%NULL%0,          Hoang Thuy%Long%NULL%0,          Le Dang%Ha%NULL%0,          Vo Van%Ban%NULL%0,          Bach Khanh%Hoa%NULL%1,          Nguyen Thi Le%Hang%NULL%1,          Minako%Hijikata%NULL%0,          Shinsaku%Sakurada%NULL%1,          Masahiro%Satake%NULL%1,          Katsushi%Tokunaga%NULL%1,          Takehiko%Sasazuki%NULL%0,          Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,          Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,          Yuling%Shi%sane222@163.com%1,          Ping%Li%liping@nic.bmi.ac.cn%1,          Chuanxuan%Liu%renew7306_cn@sina.com%1,          Qingjun%Ma%maqingjun@sina.com%1,          Ruifu%Yang%zhangf@big.ac.cn%1,          Xiaoyi%Wang%happybettylx@hotmail.com%1,          Lina%zhu%luckina@sina.com%1,          Xiao%Yang%gaowei@sina.com%1,          Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,          Mei-Shu%Xu%NULL%2,          Johannes Chi Yun%Ching%NULL%1,          Thomas Man Kit%So%NULL%1,          Sik-To%Lai%NULL%0,          Chung-Ming%Chu%NULL%0,          Loretta Y.C.%Yam%NULL%1,          Andrew T.Y.%Wong%NULL%1,          Pui Hong%Chung%NULL%1,          Vera Sau Fong%Chan%NULL%1,          Chen Lung Steve%Lin%NULL%1,          Pak Chung%Sham%NULL%1,          Gabriel M.%Leung%NULL%2,          Joseph S.M.%Peiris%NULL%1,          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,          Kelvin Yuen Kwong%Chan%NULL%1,          Eric Hing Leung%Lee%NULL%1,          Mei-Shu%Xu%NULL%0,          Campbell Kam Po%Ting%NULL%1,          Thomas M. K.%So%NULL%1,          Pak C.%Sham%NULL%1,          Gabriel M.%Leung%NULL%0,          Joseph S. M.%Peiris%NULL%1,          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,           Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,           Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,           Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,           Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,           Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,           Pei-Jan%Chen%g8640@ms13.hinet.net%1,           Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,           Ken Hong%Lim%khlim@seed.net.tw%1,           Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,           Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,           Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,           Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,           Nelson L S%Tang%NULL%1,           David S C%Hui%NULL%1,           Grace T Y%Chung%NULL%1,           Stephen S C%Chim%NULL%1,           K C Allen%Chan%NULL%1,           Ying-man%Sung%NULL%1,           Louis Y S%Chan%NULL%1,           Yu-kwan%Tong%NULL%1,           Wing-shan%Lee%NULL%1,           Paul K S%Chan%NULL%1,           Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,           Naoto%Keicho%NULL%3,           Tran%Quy%NULL%4,           Nguyen Chi%Phi%NULL%4,           Hoang Thuy%Long%NULL%4,           Le Dang%Ha%NULL%4,           Vo Van%Ban%NULL%4,           Jun%Ohashi%NULL%1,           Minako%Hijikata%NULL%4,           Ikumi%Matsushita%NULL%3,           Akihiko%Kawana%NULL%1,           Hideki%Yanai%NULL%3,           Teruo%Kirikae%NULL%3,           Tadatoshi%Kuratsuji%NULL%3,           Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,           Kin-Mang%Lau%NULL%1,           Libby%Li%NULL%1,           Suk-Hang%Cheng%NULL%1,           Wing Y.%Chan%NULL%1,           Pak K.%Hui%NULL%1,           Benny%Zee%NULL%1,           Chi-Bon%Leung%NULL%1,           Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,           Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,           David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,           Grace TY%Chung%gracechung@cuhk.edu.hk%1,           Alan KL%Wu%alanklwu@yahoo.com%1,           Stephen SC%Chim%sschim@cuhk.edu.hk%1,           Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,           Nelson%Lee%leelsn@yahoo.com%1,           KW%Choi%kwchoi12@netvigator.com%1,           YM%Sung%mandysung@cuhk.edu.hk%1,           Paul KS%Chan%paulkschan@cuhk.edu.hk%1,           YK%Tong%yktong@cuhk.edu.hk%1,           ST%Lai%laist@ha.org.hk%1,           WC%Yu%yuwc@ha.org.hk%1,           Owen%Tsang%tyotsang@hotmail.com%1,           YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,           Minako%Hijikata%NULL%0,           Satoru%Itoyama%NULL%2,           Tran%Quy%NULL%0,           Nguyen Chi%Phi%NULL%0,           Hoang Thuy%Long%NULL%0,           Le Dang%Ha%NULL%0,           Vo Van%Ban%NULL%0,           Ikumi%Matsushita%NULL%0,           Hideki%Yanai%NULL%0,           Fumiko%Kirikae%NULL%2,           Teruo%Kirikae%NULL%0,           Tadatoshi%Kuratsuji%NULL%0,           Takehiko%Sasazuki%NULL%0,           Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,           Kwok Hung%Chan%NULL%1,           Helen K. W.%Law%NULL%1,           Gloria H. W.%Tso%NULL%1,           Eric K. P.%Kong%NULL%1,           Wilfred H. S.%Wong%NULL%1,           Yuk Fai%To%NULL%1,           Raymond W. H.%Yung%NULL%1,           Eudora Y.%Chow%NULL%1,           Ka Leung%Au%NULL%2,           Eric Y. T.%Chan%NULL%2,           Wilina%Lim%NULL%3,           Jens C.%Jensenius%NULL%1,           Malcolm W.%Turner%NULL%1,           J. S. Malik%Peiris%NULL%1,           Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,           Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,           Minako%Hijikata%NULL%0,           Tran%Quy%NULL%0,           Nguyen Chi%Phi%NULL%0,           Hoang Thuy%Long%NULL%0,           Le Dang%Ha%NULL%0,           Vo Van%Ban%NULL%0,           Ikumi%Matsushita%NULL%0,           Hideki%Yanai%NULL%0,           Fumiko%Kirikae%NULL%0,           Teruo%Kirikae%NULL%0,           Tadatoshi%Kuratsuji%NULL%0,           Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,           J.%Tanner%NULL%1,           P. K. S.%Chan%NULL%1,           S.%Biffin%NULL%1,           W. B.%Dyer%NULL%1,           A. F.%Geczy%NULL%1,           J. W.%Tang%NULL%1,           D. S. C.%Hui%NULL%1,           J. J. Y.%Sung%NULL%1,           J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,           Gangqiao%Zhou%NULL%2,           Lianteng%Zhi%NULL%1,           Hao%Yang%NULL%1,           Yun%Zhai%NULL%2,           Xiaojia%Dong%NULL%1,           Xiumei%Zhang%NULL%1,           Xue%Gao%NULL%1,           Yunping%Zhu%NULL%1,           Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,           Kelvin Y K%Chan%NULL%1,           Yongxiong%Chen%NULL%1,           Leo L M%Poon%NULL%1,           Annie N Y%Cheung%NULL%1,           Bojian%Zheng%NULL%1,           Kwok-Hung%Chan%NULL%1,           William%Mak%NULL%1,           Hextan Y S%Ngan%NULL%1,           Xiaoning%Xu%NULL%1,           Gavin%Screaton%NULL%1,           Paul K H%Tam%NULL%1,           Jonathan M%Austyn%NULL%1,           Li-Chong%Chan%NULL%2,           Shea-Ping%Yip%NULL%2,           Malik%Peiris%NULL%2,           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,           Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,           WK Eddie%Ip%WIP@partners.org%1,           Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,           Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,           Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,           Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,           Raymond WH%Yung%rwhyung@ha.org.hk%2,           Eudora Y%Chow%chowe@ha.org.hk%2,           KL%Au%klau@ha.org.hk%1,           Eric YT%Chan%eytchan@ha.org.hk%2,           Wilina%Lim%wllim@pacific.net.hk%0,           JS Malik%Peiris%malik@hkucc.hku.hk%2,           Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,           Dan%Feng%fddd@263.net%1,           Sake J%de Vlas%s.devlas@erasmusmc.nl%1,           Hongwei%Wang%whw7809@yahoo.com.cn%1,           Arnaud%Fontanet%fontanet@pasteur.fr%1,           Panhe%Zhang%juntianz@yahoo.com.cn%1,           Sabine%Plancoulaine%plancoulaine@necker.fr%1,           Fang%Tang%tf4065@sina.com%1,           Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,           Hong%Yang%anni_yang@yahoo.com%1,           Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,           Jan H%Richardus%j.richardus@erasmusmc.nl%1,           J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,           Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,           Jyh-Yuan%Yang%NULL%1,           Jih-Hui%Lin%NULL%1,           Cathy S. J.%Fann%NULL%1,           Valeriy%Osyetrov%NULL%1,           Chwan-Chuen%King%NULL%1,           Yi-Ming Arthur%Chen%NULL%1,           Hsiao-Ling%Chang%NULL%1,           Hung-Wei%Kuo%NULL%1,           Fong%Liao%NULL%1,           Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,  Shu-Yuan%Liang%xref no email%1,  Yi-Ping%Shih%xref no email%1,  Chia-Yen%Chen%xref no email%1,  Yuan-Ming%Lee%xref no email%1,  Ling%Chang%xref no email%1,  Shiao-Ying%Jung%xref no email%1,  Mei-Shang%Ho%xref no email%1,  Kung-Yee%Liang%xref no email%1,  Hour-Young%Chen%xref no email%1,  Yu-Jiun%Chan%xref no email%1,  Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,           Johannes C. Y.%Ching%NULL%1,           M. S.%Xu%NULL%1,           Annie N. Y.%Cheung%NULL%1,           Shea-Ping%Yip%NULL%0,           Loretta Y. C.%Yam%NULL%1,           Sik-To%Lai%NULL%2,           Chung-Ming%Chu%NULL%2,           Andrew T. Y.%Wong%NULL%1,           You-Qiang%Song%NULL%1,           Fang-Ping%Huang%NULL%1,           Wei%Liu%NULL%1,           P. H.%Chung%NULL%1,           G. M.%Leung%NULL%1,           Eudora Y. D.%Chow%NULL%1,           Eric Y. T.%Chan%NULL%0,           Jane C. K.%Chan%NULL%1,           Hextan%Ngan%NULL%1,           Paul%Tam%NULL%1,           Li-Chong%Chan%NULL%0,           Pak%Sham%NULL%1,           Vera S. F.%Chan%NULL%1,           Malik%Peiris%NULL%0,           Steve C. L.%Lin%NULL%1,           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,           Gangqiao%Zhou%zhougq@chgb.org.cn%0,           Wai Po%Chong%h9820905@graduate.hku.hk%1,           Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,           Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,           Hongxing%Zhang%zhanghx08@126.com%1,           Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,           Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,           Yun%Zhai%zhaiyun077@tom.com%0,           Raymond WH%Yung%rwhyung@ha.org.hk%0,           Eudora Y%Chow%chowe@ha.org.hk%0,           Ka Leung%Au%klau@ha.org.hk%0,           Eric YT%Chan%eytchan@ha.org.hk%0,           Wilina%Lim%wllim@pacific.net.hk%0,           JS Malik%Peiris%malik@hkucc.hku.hk%0,           Fuchu%He%hefc@nic.bmi.ac.cn%0,           Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,  Ingrid%Boehm%xref no email%1,  Paul K. S.%Chan%xref no email%1,  Katherine%Marks%xref no email%1,  Julian W.%Tang%xref no email%1,  David S. C.%Hui%xref no email%1,  Joseph J. Y.%Sung%xref no email%1,  Wayne B.%Dyer%xref no email%1,  Andrew F.%Geczy%xref no email%1,  John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,  N L-S%Tang%xref no email%1,  P K-S%Chan%xref no email%1,  C-Y%Wang%xref no email%1,  D S-C%Hui%xref no email%1,  C%Luk%xref no email%1,  R%Kwok%xref no email%1,  W%Huang%xref no email%1,  J J-Y%Sung%xref no email%1,  Q-P%Kong%xref no email%1,  Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,           Maoti%Wei%weimaoti@yahoo.com.cn%1,           Yi%Han%halanhan2001sh@163.com%1,           Keju%Zhang%sinong77@sina.com%1,           Li%He%wujinhl@163.com%1,           Zhen%Yang%yzdtchina@yahoo.com.cn%1,           Bing%Su%tjsubin553@sina.com%1,           Zhilun%Zhang%zzl718@sina.com.cn%1,           Yilan%Hu%yougu@yahoo.com.cn%1,           Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,           Satoru%Itoyama%NULL%0,           Koichi%Kashiwase%NULL%1,           Nguyen Chi%Phi%NULL%0,           Hoang Thuy%Long%NULL%0,           Le Dang%Ha%NULL%0,           Vo Van%Ban%NULL%0,           Bach Khanh%Hoa%NULL%1,           Nguyen Thi Le%Hang%NULL%1,           Minako%Hijikata%NULL%0,           Shinsaku%Sakurada%NULL%1,           Masahiro%Satake%NULL%1,           Katsushi%Tokunaga%NULL%1,           Takehiko%Sasazuki%NULL%0,           Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,           Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,           Yuling%Shi%sane222@163.com%1,           Ping%Li%liping@nic.bmi.ac.cn%1,           Chuanxuan%Liu%renew7306_cn@sina.com%1,           Qingjun%Ma%maqingjun@sina.com%1,           Ruifu%Yang%zhangf@big.ac.cn%1,           Xiaoyi%Wang%happybettylx@hotmail.com%1,           Lina%zhu%luckina@sina.com%1,           Xiao%Yang%gaowei@sina.com%1,           Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,           Mei-Shu%Xu%NULL%2,           Johannes Chi Yun%Ching%NULL%1,           Thomas Man Kit%So%NULL%1,           Sik-To%Lai%NULL%0,           Chung-Ming%Chu%NULL%0,           Loretta Y.C.%Yam%NULL%1,           Andrew T.Y.%Wong%NULL%1,           Pui Hong%Chung%NULL%1,           Vera Sau Fong%Chan%NULL%1,           Chen Lung Steve%Lin%NULL%1,           Pak Chung%Sham%NULL%1,           Gabriel M.%Leung%NULL%2,           Joseph S.M.%Peiris%NULL%1,           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,           Kelvin Yuen Kwong%Chan%NULL%1,           Eric Hing Leung%Lee%NULL%1,           Mei-Shu%Xu%NULL%0,           Campbell Kam Po%Ting%NULL%1,           Thomas M. K.%So%NULL%1,           Pak C.%Sham%NULL%1,           Gabriel M.%Leung%NULL%0,           Joseph S. M.%Peiris%NULL%1,           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1424,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1274,7 +1453,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1303,7 +1482,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1332,7 +1511,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1361,7 +1540,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1390,7 +1569,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -1419,7 +1598,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1448,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -1477,7 +1656,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1506,7 +1685,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1535,7 +1714,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -1564,7 +1743,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1593,7 +1772,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1622,7 +1801,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1645,22 +1824,22 @@
         <v>38749</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
@@ -1680,7 +1859,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -1709,7 +1888,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -1732,22 +1911,22 @@
         <v>39417</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
@@ -1761,22 +1940,22 @@
         <v>39753</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="I20" t="s">
         <v>43</v>
@@ -1796,7 +1975,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -1825,7 +2004,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -1854,7 +2033,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -1883,7 +2062,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -1912,7 +2091,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="334">
   <si>
     <t>Doi</t>
   </si>
@@ -1074,6 +1074,150 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,           Kelvin Yuen Kwong%Chan%NULL%1,           Eric Hing Leung%Lee%NULL%1,           Mei-Shu%Xu%NULL%0,           Campbell Kam Po%Ting%NULL%1,           Thomas M. K.%So%NULL%1,           Pak C.%Sham%NULL%1,           Gabriel M.%Leung%NULL%0,           Joseph S. M.%Peiris%NULL%1,           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,            Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,            Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,            Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,            Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,            Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,            Pei-Jan%Chen%g8640@ms13.hinet.net%1,            Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,            Ken Hong%Lim%khlim@seed.net.tw%1,            Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,            Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,            Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,            Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,            Nelson L S%Tang%NULL%1,            David S C%Hui%NULL%1,            Grace T Y%Chung%NULL%1,            Stephen S C%Chim%NULL%1,            K C Allen%Chan%NULL%1,            Ying-man%Sung%NULL%1,            Louis Y S%Chan%NULL%1,            Yu-kwan%Tong%NULL%1,            Wing-shan%Lee%NULL%1,            Paul K S%Chan%NULL%1,            Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,            Naoto%Keicho%NULL%3,            Tran%Quy%NULL%4,            Nguyen Chi%Phi%NULL%4,            Hoang Thuy%Long%NULL%4,            Le Dang%Ha%NULL%4,            Vo Van%Ban%NULL%4,            Jun%Ohashi%NULL%1,            Minako%Hijikata%NULL%4,            Ikumi%Matsushita%NULL%3,            Akihiko%Kawana%NULL%1,            Hideki%Yanai%NULL%3,            Teruo%Kirikae%NULL%3,            Tadatoshi%Kuratsuji%NULL%3,            Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,            Kin-Mang%Lau%NULL%1,            Libby%Li%NULL%1,            Suk-Hang%Cheng%NULL%1,            Wing Y.%Chan%NULL%1,            Pak K.%Hui%NULL%1,            Benny%Zee%NULL%1,            Chi-Bon%Leung%NULL%1,            Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,            Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,            David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,            Grace TY%Chung%gracechung@cuhk.edu.hk%1,            Alan KL%Wu%alanklwu@yahoo.com%1,            Stephen SC%Chim%sschim@cuhk.edu.hk%1,            Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,            Nelson%Lee%leelsn@yahoo.com%1,            KW%Choi%kwchoi12@netvigator.com%1,            YM%Sung%mandysung@cuhk.edu.hk%1,            Paul KS%Chan%paulkschan@cuhk.edu.hk%1,            YK%Tong%yktong@cuhk.edu.hk%1,            ST%Lai%laist@ha.org.hk%1,            WC%Yu%yuwc@ha.org.hk%1,            Owen%Tsang%tyotsang@hotmail.com%1,            YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,            Minako%Hijikata%NULL%0,            Satoru%Itoyama%NULL%2,            Tran%Quy%NULL%0,            Nguyen Chi%Phi%NULL%0,            Hoang Thuy%Long%NULL%0,            Le Dang%Ha%NULL%0,            Vo Van%Ban%NULL%0,            Ikumi%Matsushita%NULL%0,            Hideki%Yanai%NULL%0,            Fumiko%Kirikae%NULL%2,            Teruo%Kirikae%NULL%0,            Tadatoshi%Kuratsuji%NULL%0,            Takehiko%Sasazuki%NULL%0,            Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,            Kwok Hung%Chan%NULL%1,            Helen K. W.%Law%NULL%1,            Gloria H. W.%Tso%NULL%1,            Eric K. P.%Kong%NULL%1,            Wilfred H. S.%Wong%NULL%1,            Yuk Fai%To%NULL%1,            Raymond W. H.%Yung%NULL%1,            Eudora Y.%Chow%NULL%1,            Ka Leung%Au%NULL%2,            Eric Y. T.%Chan%NULL%2,            Wilina%Lim%NULL%3,            Jens C.%Jensenius%NULL%1,            Malcolm W.%Turner%NULL%1,            J. S. Malik%Peiris%NULL%1,            Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,            Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,            Minako%Hijikata%NULL%0,            Tran%Quy%NULL%0,            Nguyen Chi%Phi%NULL%0,            Hoang Thuy%Long%NULL%0,            Le Dang%Ha%NULL%0,            Vo Van%Ban%NULL%0,            Ikumi%Matsushita%NULL%0,            Hideki%Yanai%NULL%0,            Fumiko%Kirikae%NULL%0,            Teruo%Kirikae%NULL%0,            Tadatoshi%Kuratsuji%NULL%0,            Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,            J.%Tanner%NULL%1,            P. K. S.%Chan%NULL%1,            S.%Biffin%NULL%1,            W. B.%Dyer%NULL%1,            A. F.%Geczy%NULL%1,            J. W.%Tang%NULL%1,            D. S. C.%Hui%NULL%1,            J. J. Y.%Sung%NULL%1,            J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,            Gangqiao%Zhou%NULL%2,            Lianteng%Zhi%NULL%1,            Hao%Yang%NULL%1,            Yun%Zhai%NULL%2,            Xiaojia%Dong%NULL%1,            Xiumei%Zhang%NULL%1,            Xue%Gao%NULL%1,            Yunping%Zhu%NULL%1,            Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,            Kelvin Y K%Chan%NULL%1,            Yongxiong%Chen%NULL%1,            Leo L M%Poon%NULL%1,            Annie N Y%Cheung%NULL%1,            Bojian%Zheng%NULL%1,            Kwok-Hung%Chan%NULL%1,            William%Mak%NULL%1,            Hextan Y S%Ngan%NULL%1,            Xiaoning%Xu%NULL%1,            Gavin%Screaton%NULL%1,            Paul K H%Tam%NULL%1,            Jonathan M%Austyn%NULL%1,            Li-Chong%Chan%NULL%2,            Shea-Ping%Yip%NULL%2,            Malik%Peiris%NULL%2,            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,            Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,            WK Eddie%Ip%WIP@partners.org%1,            Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,            Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,            Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,            Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,            Raymond WH%Yung%rwhyung@ha.org.hk%2,            Eudora Y%Chow%chowe@ha.org.hk%2,            KL%Au%klau@ha.org.hk%1,            Eric YT%Chan%eytchan@ha.org.hk%2,            Wilina%Lim%wllim@pacific.net.hk%0,            JS Malik%Peiris%malik@hkucc.hku.hk%2,            Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,            Dan%Feng%fddd@263.net%1,            Sake J%de Vlas%s.devlas@erasmusmc.nl%1,            Hongwei%Wang%whw7809@yahoo.com.cn%1,            Arnaud%Fontanet%fontanet@pasteur.fr%1,            Panhe%Zhang%juntianz@yahoo.com.cn%1,            Sabine%Plancoulaine%plancoulaine@necker.fr%1,            Fang%Tang%tf4065@sina.com%1,            Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,            Hong%Yang%anni_yang@yahoo.com%1,            Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,            Jan H%Richardus%j.richardus@erasmusmc.nl%1,            J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,            Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,            Jyh-Yuan%Yang%NULL%1,            Jih-Hui%Lin%NULL%1,            Cathy S. J.%Fann%NULL%1,            Valeriy%Osyetrov%NULL%1,            Chwan-Chuen%King%NULL%1,            Yi-Ming Arthur%Chen%NULL%1,            Hsiao-Ling%Chang%NULL%1,            Hung-Wei%Kuo%NULL%1,            Fong%Liao%NULL%1,            Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,   Shu-Yuan%Liang%xref no email%1,   Yi-Ping%Shih%xref no email%1,   Chia-Yen%Chen%xref no email%1,   Yuan-Ming%Lee%xref no email%1,   Ling%Chang%xref no email%1,   Shiao-Ying%Jung%xref no email%1,   Mei-Shang%Ho%xref no email%1,   Kung-Yee%Liang%xref no email%1,   Hour-Young%Chen%xref no email%1,   Yu-Jiun%Chan%xref no email%1,   Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,            Johannes C. Y.%Ching%NULL%1,            M. S.%Xu%NULL%1,            Annie N. Y.%Cheung%NULL%1,            Shea-Ping%Yip%NULL%0,            Loretta Y. C.%Yam%NULL%1,            Sik-To%Lai%NULL%2,            Chung-Ming%Chu%NULL%2,            Andrew T. Y.%Wong%NULL%1,            You-Qiang%Song%NULL%1,            Fang-Ping%Huang%NULL%1,            Wei%Liu%NULL%1,            P. H.%Chung%NULL%1,            G. M.%Leung%NULL%1,            Eudora Y. D.%Chow%NULL%1,            Eric Y. T.%Chan%NULL%0,            Jane C. K.%Chan%NULL%1,            Hextan%Ngan%NULL%1,            Paul%Tam%NULL%1,            Li-Chong%Chan%NULL%0,            Pak%Sham%NULL%1,            Vera S. F.%Chan%NULL%1,            Malik%Peiris%NULL%0,            Steve C. L.%Lin%NULL%1,            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,            Gangqiao%Zhou%zhougq@chgb.org.cn%0,            Wai Po%Chong%h9820905@graduate.hku.hk%1,            Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,            Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,            Hongxing%Zhang%zhanghx08@126.com%1,            Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,            Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,            Yun%Zhai%zhaiyun077@tom.com%0,            Raymond WH%Yung%rwhyung@ha.org.hk%0,            Eudora Y%Chow%chowe@ha.org.hk%0,            Ka Leung%Au%klau@ha.org.hk%0,            Eric YT%Chan%eytchan@ha.org.hk%0,            Wilina%Lim%wllim@pacific.net.hk%0,            JS Malik%Peiris%malik@hkucc.hku.hk%0,            Fuchu%He%hefc@nic.bmi.ac.cn%0,            Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,   Ingrid%Boehm%xref no email%1,   Paul K. S.%Chan%xref no email%1,   Katherine%Marks%xref no email%1,   Julian W.%Tang%xref no email%1,   David S. C.%Hui%xref no email%1,   Joseph J. Y.%Sung%xref no email%1,   Wayne B.%Dyer%xref no email%1,   Andrew F.%Geczy%xref no email%1,   John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,   N L-S%Tang%xref no email%1,   P K-S%Chan%xref no email%1,   C-Y%Wang%xref no email%1,   D S-C%Hui%xref no email%1,   C%Luk%xref no email%1,   R%Kwok%xref no email%1,   W%Huang%xref no email%1,   J J-Y%Sung%xref no email%1,   Q-P%Kong%xref no email%1,   Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,            Maoti%Wei%weimaoti@yahoo.com.cn%1,            Yi%Han%halanhan2001sh@163.com%1,            Keju%Zhang%sinong77@sina.com%1,            Li%He%wujinhl@163.com%1,            Zhen%Yang%yzdtchina@yahoo.com.cn%1,            Bing%Su%tjsubin553@sina.com%1,            Zhilun%Zhang%zzl718@sina.com.cn%1,            Yilan%Hu%yougu@yahoo.com.cn%1,            Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,            Satoru%Itoyama%NULL%0,            Koichi%Kashiwase%NULL%1,            Nguyen Chi%Phi%NULL%0,            Hoang Thuy%Long%NULL%0,            Le Dang%Ha%NULL%0,            Vo Van%Ban%NULL%0,            Bach Khanh%Hoa%NULL%1,            Nguyen Thi Le%Hang%NULL%1,            Minako%Hijikata%NULL%0,            Shinsaku%Sakurada%NULL%1,            Masahiro%Satake%NULL%1,            Katsushi%Tokunaga%NULL%1,            Takehiko%Sasazuki%NULL%0,            Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,            Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,            Yuling%Shi%sane222@163.com%1,            Ping%Li%liping@nic.bmi.ac.cn%1,            Chuanxuan%Liu%renew7306_cn@sina.com%1,            Qingjun%Ma%maqingjun@sina.com%1,            Ruifu%Yang%zhangf@big.ac.cn%1,            Xiaoyi%Wang%happybettylx@hotmail.com%1,            Lina%zhu%luckina@sina.com%1,            Xiao%Yang%gaowei@sina.com%1,            Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,            Mei-Shu%Xu%NULL%2,            Johannes Chi Yun%Ching%NULL%1,            Thomas Man Kit%So%NULL%1,            Sik-To%Lai%NULL%0,            Chung-Ming%Chu%NULL%0,            Loretta Y.C.%Yam%NULL%1,            Andrew T.Y.%Wong%NULL%1,            Pui Hong%Chung%NULL%1,            Vera Sau Fong%Chan%NULL%1,            Chen Lung Steve%Lin%NULL%1,            Pak Chung%Sham%NULL%1,            Gabriel M.%Leung%NULL%2,            Joseph S.M.%Peiris%NULL%1,            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,            Kelvin Yuen Kwong%Chan%NULL%1,            Eric Hing Leung%Lee%NULL%1,            Mei-Shu%Xu%NULL%0,            Campbell Kam Po%Ting%NULL%1,            Thomas M. K.%So%NULL%1,            Pak C.%Sham%NULL%1,            Gabriel M.%Leung%NULL%0,            Joseph S. M.%Peiris%NULL%1,            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,             Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,             Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,             Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,             Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,             Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,             Pei-Jan%Chen%g8640@ms13.hinet.net%1,             Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,             Ken Hong%Lim%khlim@seed.net.tw%1,             Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,             Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,             Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,             Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,             Nelson L S%Tang%NULL%1,             David S C%Hui%NULL%1,             Grace T Y%Chung%NULL%1,             Stephen S C%Chim%NULL%1,             K C Allen%Chan%NULL%1,             Ying-man%Sung%NULL%1,             Louis Y S%Chan%NULL%1,             Yu-kwan%Tong%NULL%1,             Wing-shan%Lee%NULL%1,             Paul K S%Chan%NULL%1,             Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,             Naoto%Keicho%NULL%3,             Tran%Quy%NULL%4,             Nguyen Chi%Phi%NULL%4,             Hoang Thuy%Long%NULL%4,             Le Dang%Ha%NULL%4,             Vo Van%Ban%NULL%4,             Jun%Ohashi%NULL%1,             Minako%Hijikata%NULL%4,             Ikumi%Matsushita%NULL%3,             Akihiko%Kawana%NULL%1,             Hideki%Yanai%NULL%3,             Teruo%Kirikae%NULL%3,             Tadatoshi%Kuratsuji%NULL%3,             Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,             Kin-Mang%Lau%NULL%1,             Libby%Li%NULL%1,             Suk-Hang%Cheng%NULL%1,             Wing Y.%Chan%NULL%1,             Pak K.%Hui%NULL%1,             Benny%Zee%NULL%1,             Chi-Bon%Leung%NULL%1,             Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,             Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,             David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,             Grace TY%Chung%gracechung@cuhk.edu.hk%1,             Alan KL%Wu%alanklwu@yahoo.com%1,             Stephen SC%Chim%sschim@cuhk.edu.hk%1,             Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,             Nelson%Lee%leelsn@yahoo.com%1,             KW%Choi%kwchoi12@netvigator.com%1,             YM%Sung%mandysung@cuhk.edu.hk%1,             Paul KS%Chan%paulkschan@cuhk.edu.hk%1,             YK%Tong%yktong@cuhk.edu.hk%1,             ST%Lai%laist@ha.org.hk%1,             WC%Yu%yuwc@ha.org.hk%1,             Owen%Tsang%tyotsang@hotmail.com%1,             YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,             Minako%Hijikata%NULL%0,             Satoru%Itoyama%NULL%2,             Tran%Quy%NULL%0,             Nguyen Chi%Phi%NULL%0,             Hoang Thuy%Long%NULL%0,             Le Dang%Ha%NULL%0,             Vo Van%Ban%NULL%0,             Ikumi%Matsushita%NULL%0,             Hideki%Yanai%NULL%0,             Fumiko%Kirikae%NULL%2,             Teruo%Kirikae%NULL%0,             Tadatoshi%Kuratsuji%NULL%0,             Takehiko%Sasazuki%NULL%0,             Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,             Kwok Hung%Chan%NULL%1,             Helen K. W.%Law%NULL%1,             Gloria H. W.%Tso%NULL%1,             Eric K. P.%Kong%NULL%1,             Wilfred H. S.%Wong%NULL%1,             Yuk Fai%To%NULL%1,             Raymond W. H.%Yung%NULL%1,             Eudora Y.%Chow%NULL%1,             Ka Leung%Au%NULL%2,             Eric Y. T.%Chan%NULL%2,             Wilina%Lim%NULL%3,             Jens C.%Jensenius%NULL%1,             Malcolm W.%Turner%NULL%1,             J. S. Malik%Peiris%NULL%1,             Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,             Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,             Minako%Hijikata%NULL%0,             Tran%Quy%NULL%0,             Nguyen Chi%Phi%NULL%0,             Hoang Thuy%Long%NULL%0,             Le Dang%Ha%NULL%0,             Vo Van%Ban%NULL%0,             Ikumi%Matsushita%NULL%0,             Hideki%Yanai%NULL%0,             Fumiko%Kirikae%NULL%0,             Teruo%Kirikae%NULL%0,             Tadatoshi%Kuratsuji%NULL%0,             Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,             J.%Tanner%NULL%1,             P. K. S.%Chan%NULL%1,             S.%Biffin%NULL%1,             W. B.%Dyer%NULL%1,             A. F.%Geczy%NULL%1,             J. W.%Tang%NULL%1,             D. S. C.%Hui%NULL%1,             J. J. Y.%Sung%NULL%1,             J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,             Gangqiao%Zhou%NULL%2,             Lianteng%Zhi%NULL%1,             Hao%Yang%NULL%1,             Yun%Zhai%NULL%2,             Xiaojia%Dong%NULL%1,             Xiumei%Zhang%NULL%1,             Xue%Gao%NULL%1,             Yunping%Zhu%NULL%1,             Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,             Kelvin Y K%Chan%NULL%1,             Yongxiong%Chen%NULL%1,             Leo L M%Poon%NULL%1,             Annie N Y%Cheung%NULL%1,             Bojian%Zheng%NULL%1,             Kwok-Hung%Chan%NULL%1,             William%Mak%NULL%1,             Hextan Y S%Ngan%NULL%1,             Xiaoning%Xu%NULL%1,             Gavin%Screaton%NULL%1,             Paul K H%Tam%NULL%1,             Jonathan M%Austyn%NULL%1,             Li-Chong%Chan%NULL%2,             Shea-Ping%Yip%NULL%2,             Malik%Peiris%NULL%2,             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,             Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,             WK Eddie%Ip%WIP@partners.org%1,             Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,             Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,             Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,             Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,             Raymond WH%Yung%rwhyung@ha.org.hk%2,             Eudora Y%Chow%chowe@ha.org.hk%2,             KL%Au%klau@ha.org.hk%1,             Eric YT%Chan%eytchan@ha.org.hk%2,             Wilina%Lim%wllim@pacific.net.hk%0,             JS Malik%Peiris%malik@hkucc.hku.hk%2,             Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,             Dan%Feng%fddd@263.net%1,             Sake J%de Vlas%s.devlas@erasmusmc.nl%1,             Hongwei%Wang%whw7809@yahoo.com.cn%1,             Arnaud%Fontanet%fontanet@pasteur.fr%1,             Panhe%Zhang%juntianz@yahoo.com.cn%1,             Sabine%Plancoulaine%plancoulaine@necker.fr%1,             Fang%Tang%tf4065@sina.com%1,             Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,             Hong%Yang%anni_yang@yahoo.com%1,             Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,             Jan H%Richardus%j.richardus@erasmusmc.nl%1,             J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,             Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,             Jyh-Yuan%Yang%NULL%1,             Jih-Hui%Lin%NULL%1,             Cathy S. J.%Fann%NULL%1,             Valeriy%Osyetrov%NULL%1,             Chwan-Chuen%King%NULL%1,             Yi-Ming Arthur%Chen%NULL%1,             Hsiao-Ling%Chang%NULL%1,             Hung-Wei%Kuo%NULL%1,             Fong%Liao%NULL%1,             Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,    Shu-Yuan%Liang%xref no email%1,    Yi-Ping%Shih%xref no email%1,    Chia-Yen%Chen%xref no email%1,    Yuan-Ming%Lee%xref no email%1,    Ling%Chang%xref no email%1,    Shiao-Ying%Jung%xref no email%1,    Mei-Shang%Ho%xref no email%1,    Kung-Yee%Liang%xref no email%1,    Hour-Young%Chen%xref no email%1,    Yu-Jiun%Chan%xref no email%1,    Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,             Johannes C. Y.%Ching%NULL%1,             M. S.%Xu%NULL%1,             Annie N. Y.%Cheung%NULL%1,             Shea-Ping%Yip%NULL%0,             Loretta Y. C.%Yam%NULL%1,             Sik-To%Lai%NULL%2,             Chung-Ming%Chu%NULL%2,             Andrew T. Y.%Wong%NULL%1,             You-Qiang%Song%NULL%1,             Fang-Ping%Huang%NULL%1,             Wei%Liu%NULL%1,             P. H.%Chung%NULL%1,             G. M.%Leung%NULL%1,             Eudora Y. D.%Chow%NULL%1,             Eric Y. T.%Chan%NULL%0,             Jane C. K.%Chan%NULL%1,             Hextan%Ngan%NULL%1,             Paul%Tam%NULL%1,             Li-Chong%Chan%NULL%0,             Pak%Sham%NULL%1,             Vera S. F.%Chan%NULL%1,             Malik%Peiris%NULL%0,             Steve C. L.%Lin%NULL%1,             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,             Gangqiao%Zhou%zhougq@chgb.org.cn%0,             Wai Po%Chong%h9820905@graduate.hku.hk%1,             Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,             Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,             Hongxing%Zhang%zhanghx08@126.com%1,             Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,             Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,             Yun%Zhai%zhaiyun077@tom.com%0,             Raymond WH%Yung%rwhyung@ha.org.hk%0,             Eudora Y%Chow%chowe@ha.org.hk%0,             Ka Leung%Au%klau@ha.org.hk%0,             Eric YT%Chan%eytchan@ha.org.hk%0,             Wilina%Lim%wllim@pacific.net.hk%0,             JS Malik%Peiris%malik@hkucc.hku.hk%0,             Fuchu%He%hefc@nic.bmi.ac.cn%0,             Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,    Ingrid%Boehm%xref no email%1,    Paul K. S.%Chan%xref no email%1,    Katherine%Marks%xref no email%1,    Julian W.%Tang%xref no email%1,    David S. C.%Hui%xref no email%1,    Joseph J. Y.%Sung%xref no email%1,    Wayne B.%Dyer%xref no email%1,    Andrew F.%Geczy%xref no email%1,    John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,    N L-S%Tang%xref no email%1,    P K-S%Chan%xref no email%1,    C-Y%Wang%xref no email%1,    D S-C%Hui%xref no email%1,    C%Luk%xref no email%1,    R%Kwok%xref no email%1,    W%Huang%xref no email%1,    J J-Y%Sung%xref no email%1,    Q-P%Kong%xref no email%1,    Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,             Maoti%Wei%weimaoti@yahoo.com.cn%1,             Yi%Han%halanhan2001sh@163.com%1,             Keju%Zhang%sinong77@sina.com%1,             Li%He%wujinhl@163.com%1,             Zhen%Yang%yzdtchina@yahoo.com.cn%1,             Bing%Su%tjsubin553@sina.com%1,             Zhilun%Zhang%zzl718@sina.com.cn%1,             Yilan%Hu%yougu@yahoo.com.cn%1,             Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,             Satoru%Itoyama%NULL%0,             Koichi%Kashiwase%NULL%1,             Nguyen Chi%Phi%NULL%0,             Hoang Thuy%Long%NULL%0,             Le Dang%Ha%NULL%0,             Vo Van%Ban%NULL%0,             Bach Khanh%Hoa%NULL%1,             Nguyen Thi Le%Hang%NULL%1,             Minako%Hijikata%NULL%0,             Shinsaku%Sakurada%NULL%1,             Masahiro%Satake%NULL%1,             Katsushi%Tokunaga%NULL%1,             Takehiko%Sasazuki%NULL%0,             Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,             Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,             Yuling%Shi%sane222@163.com%1,             Ping%Li%liping@nic.bmi.ac.cn%1,             Chuanxuan%Liu%renew7306_cn@sina.com%1,             Qingjun%Ma%maqingjun@sina.com%1,             Ruifu%Yang%zhangf@big.ac.cn%1,             Xiaoyi%Wang%happybettylx@hotmail.com%1,             Lina%zhu%luckina@sina.com%1,             Xiao%Yang%gaowei@sina.com%1,             Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,             Mei-Shu%Xu%NULL%2,             Johannes Chi Yun%Ching%NULL%1,             Thomas Man Kit%So%NULL%1,             Sik-To%Lai%NULL%0,             Chung-Ming%Chu%NULL%0,             Loretta Y.C.%Yam%NULL%1,             Andrew T.Y.%Wong%NULL%1,             Pui Hong%Chung%NULL%1,             Vera Sau Fong%Chan%NULL%1,             Chen Lung Steve%Lin%NULL%1,             Pak Chung%Sham%NULL%1,             Gabriel M.%Leung%NULL%2,             Joseph S.M.%Peiris%NULL%1,             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,             Kelvin Yuen Kwong%Chan%NULL%1,             Eric Hing Leung%Lee%NULL%1,             Mei-Shu%Xu%NULL%0,             Campbell Kam Po%Ting%NULL%1,             Thomas M. K.%So%NULL%1,             Pak C.%Sham%NULL%1,             Gabriel M.%Leung%NULL%0,             Joseph S. M.%Peiris%NULL%1,             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1453,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1482,7 +1626,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1511,7 +1655,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1540,7 +1684,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1569,7 +1713,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -1598,7 +1742,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1627,7 +1771,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -1656,7 +1800,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1685,7 +1829,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1714,7 +1858,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -1743,7 +1887,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1772,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1801,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1830,7 +1974,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1859,7 +2003,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -1888,7 +2032,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -1917,7 +2061,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1946,7 +2090,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -1975,7 +2119,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2004,7 +2148,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2033,7 +2177,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2062,7 +2206,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2091,7 +2235,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="382">
   <si>
     <t>Doi</t>
   </si>
@@ -1218,6 +1218,150 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,             Kelvin Yuen Kwong%Chan%NULL%1,             Eric Hing Leung%Lee%NULL%1,             Mei-Shu%Xu%NULL%0,             Campbell Kam Po%Ting%NULL%1,             Thomas M. K.%So%NULL%1,             Pak C.%Sham%NULL%1,             Gabriel M.%Leung%NULL%0,             Joseph S. M.%Peiris%NULL%1,             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,              Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,              Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,              Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,              Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,              Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,              Pei-Jan%Chen%g8640@ms13.hinet.net%1,              Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,              Ken Hong%Lim%khlim@seed.net.tw%1,              Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,              Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,              Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,              Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,              Nelson L S%Tang%NULL%1,              David S C%Hui%NULL%1,              Grace T Y%Chung%NULL%1,              Stephen S C%Chim%NULL%1,              K C Allen%Chan%NULL%1,              Ying-man%Sung%NULL%1,              Louis Y S%Chan%NULL%1,              Yu-kwan%Tong%NULL%1,              Wing-shan%Lee%NULL%1,              Paul K S%Chan%NULL%1,              Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,              Naoto%Keicho%NULL%3,              Tran%Quy%NULL%4,              Nguyen Chi%Phi%NULL%4,              Hoang Thuy%Long%NULL%4,              Le Dang%Ha%NULL%4,              Vo Van%Ban%NULL%4,              Jun%Ohashi%NULL%1,              Minako%Hijikata%NULL%4,              Ikumi%Matsushita%NULL%3,              Akihiko%Kawana%NULL%1,              Hideki%Yanai%NULL%3,              Teruo%Kirikae%NULL%3,              Tadatoshi%Kuratsuji%NULL%3,              Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,              Kin-Mang%Lau%NULL%1,              Libby%Li%NULL%1,              Suk-Hang%Cheng%NULL%1,              Wing Y.%Chan%NULL%1,              Pak K.%Hui%NULL%1,              Benny%Zee%NULL%1,              Chi-Bon%Leung%NULL%1,              Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,              Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,              David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,              Grace TY%Chung%gracechung@cuhk.edu.hk%1,              Alan KL%Wu%alanklwu@yahoo.com%1,              Stephen SC%Chim%sschim@cuhk.edu.hk%1,              Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,              Nelson%Lee%leelsn@yahoo.com%1,              KW%Choi%kwchoi12@netvigator.com%1,              YM%Sung%mandysung@cuhk.edu.hk%1,              Paul KS%Chan%paulkschan@cuhk.edu.hk%1,              YK%Tong%yktong@cuhk.edu.hk%1,              ST%Lai%laist@ha.org.hk%1,              WC%Yu%yuwc@ha.org.hk%1,              Owen%Tsang%tyotsang@hotmail.com%1,              YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,              Minako%Hijikata%NULL%0,              Satoru%Itoyama%NULL%2,              Tran%Quy%NULL%0,              Nguyen Chi%Phi%NULL%0,              Hoang Thuy%Long%NULL%0,              Le Dang%Ha%NULL%0,              Vo Van%Ban%NULL%0,              Ikumi%Matsushita%NULL%0,              Hideki%Yanai%NULL%0,              Fumiko%Kirikae%NULL%2,              Teruo%Kirikae%NULL%0,              Tadatoshi%Kuratsuji%NULL%0,              Takehiko%Sasazuki%NULL%0,              Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,              Kwok Hung%Chan%NULL%1,              Helen K. W.%Law%NULL%1,              Gloria H. W.%Tso%NULL%1,              Eric K. P.%Kong%NULL%1,              Wilfred H. S.%Wong%NULL%1,              Yuk Fai%To%NULL%1,              Raymond W. H.%Yung%NULL%1,              Eudora Y.%Chow%NULL%1,              Ka Leung%Au%NULL%2,              Eric Y. T.%Chan%NULL%2,              Wilina%Lim%NULL%3,              Jens C.%Jensenius%NULL%1,              Malcolm W.%Turner%NULL%1,              J. S. Malik%Peiris%NULL%1,              Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,              Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,              Minako%Hijikata%NULL%0,              Tran%Quy%NULL%0,              Nguyen Chi%Phi%NULL%0,              Hoang Thuy%Long%NULL%0,              Le Dang%Ha%NULL%0,              Vo Van%Ban%NULL%0,              Ikumi%Matsushita%NULL%0,              Hideki%Yanai%NULL%0,              Fumiko%Kirikae%NULL%0,              Teruo%Kirikae%NULL%0,              Tadatoshi%Kuratsuji%NULL%0,              Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,              J.%Tanner%NULL%1,              P. K. S.%Chan%NULL%1,              S.%Biffin%NULL%1,              W. B.%Dyer%NULL%1,              A. F.%Geczy%NULL%1,              J. W.%Tang%NULL%1,              D. S. C.%Hui%NULL%1,              J. J. Y.%Sung%NULL%1,              J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,              Gangqiao%Zhou%NULL%2,              Lianteng%Zhi%NULL%1,              Hao%Yang%NULL%1,              Yun%Zhai%NULL%2,              Xiaojia%Dong%NULL%1,              Xiumei%Zhang%NULL%1,              Xue%Gao%NULL%1,              Yunping%Zhu%NULL%1,              Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,              Kelvin Y K%Chan%NULL%1,              Yongxiong%Chen%NULL%1,              Leo L M%Poon%NULL%1,              Annie N Y%Cheung%NULL%1,              Bojian%Zheng%NULL%1,              Kwok-Hung%Chan%NULL%1,              William%Mak%NULL%1,              Hextan Y S%Ngan%NULL%1,              Xiaoning%Xu%NULL%1,              Gavin%Screaton%NULL%1,              Paul K H%Tam%NULL%1,              Jonathan M%Austyn%NULL%1,              Li-Chong%Chan%NULL%2,              Shea-Ping%Yip%NULL%2,              Malik%Peiris%NULL%2,              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,              Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,              WK Eddie%Ip%WIP@partners.org%1,              Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,              Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,              Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,              Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,              Raymond WH%Yung%rwhyung@ha.org.hk%2,              Eudora Y%Chow%chowe@ha.org.hk%2,              KL%Au%klau@ha.org.hk%1,              Eric YT%Chan%eytchan@ha.org.hk%2,              Wilina%Lim%wllim@pacific.net.hk%0,              JS Malik%Peiris%malik@hkucc.hku.hk%2,              Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,              Dan%Feng%fddd@263.net%1,              Sake J%de Vlas%s.devlas@erasmusmc.nl%1,              Hongwei%Wang%whw7809@yahoo.com.cn%1,              Arnaud%Fontanet%fontanet@pasteur.fr%1,              Panhe%Zhang%juntianz@yahoo.com.cn%1,              Sabine%Plancoulaine%plancoulaine@necker.fr%1,              Fang%Tang%tf4065@sina.com%1,              Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,              Hong%Yang%anni_yang@yahoo.com%1,              Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,              Jan H%Richardus%j.richardus@erasmusmc.nl%1,              J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,              Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,              Jyh-Yuan%Yang%NULL%1,              Jih-Hui%Lin%NULL%1,              Cathy S. J.%Fann%NULL%1,              Valeriy%Osyetrov%NULL%1,              Chwan-Chuen%King%NULL%1,              Yi-Ming Arthur%Chen%NULL%1,              Hsiao-Ling%Chang%NULL%1,              Hung-Wei%Kuo%NULL%1,              Fong%Liao%NULL%1,              Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,     Shu-Yuan%Liang%xref no email%1,     Yi-Ping%Shih%xref no email%1,     Chia-Yen%Chen%xref no email%1,     Yuan-Ming%Lee%xref no email%1,     Ling%Chang%xref no email%1,     Shiao-Ying%Jung%xref no email%1,     Mei-Shang%Ho%xref no email%1,     Kung-Yee%Liang%xref no email%1,     Hour-Young%Chen%xref no email%1,     Yu-Jiun%Chan%xref no email%1,     Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,              Johannes C. Y.%Ching%NULL%1,              M. S.%Xu%NULL%1,              Annie N. Y.%Cheung%NULL%1,              Shea-Ping%Yip%NULL%0,              Loretta Y. C.%Yam%NULL%1,              Sik-To%Lai%NULL%2,              Chung-Ming%Chu%NULL%2,              Andrew T. Y.%Wong%NULL%1,              You-Qiang%Song%NULL%1,              Fang-Ping%Huang%NULL%1,              Wei%Liu%NULL%1,              P. H.%Chung%NULL%1,              G. M.%Leung%NULL%1,              Eudora Y. D.%Chow%NULL%1,              Eric Y. T.%Chan%NULL%0,              Jane C. K.%Chan%NULL%1,              Hextan%Ngan%NULL%1,              Paul%Tam%NULL%1,              Li-Chong%Chan%NULL%0,              Pak%Sham%NULL%1,              Vera S. F.%Chan%NULL%1,              Malik%Peiris%NULL%0,              Steve C. L.%Lin%NULL%1,              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,              Gangqiao%Zhou%zhougq@chgb.org.cn%0,              Wai Po%Chong%h9820905@graduate.hku.hk%1,              Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,              Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,              Hongxing%Zhang%zhanghx08@126.com%1,              Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,              Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,              Yun%Zhai%zhaiyun077@tom.com%0,              Raymond WH%Yung%rwhyung@ha.org.hk%0,              Eudora Y%Chow%chowe@ha.org.hk%0,              Ka Leung%Au%klau@ha.org.hk%0,              Eric YT%Chan%eytchan@ha.org.hk%0,              Wilina%Lim%wllim@pacific.net.hk%0,              JS Malik%Peiris%malik@hkucc.hku.hk%0,              Fuchu%He%hefc@nic.bmi.ac.cn%0,              Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,     Ingrid%Boehm%xref no email%1,     Paul K. S.%Chan%xref no email%1,     Katherine%Marks%xref no email%1,     Julian W.%Tang%xref no email%1,     David S. C.%Hui%xref no email%1,     Joseph J. Y.%Sung%xref no email%1,     Wayne B.%Dyer%xref no email%1,     Andrew F.%Geczy%xref no email%1,     John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,     N L-S%Tang%xref no email%1,     P K-S%Chan%xref no email%1,     C-Y%Wang%xref no email%1,     D S-C%Hui%xref no email%1,     C%Luk%xref no email%1,     R%Kwok%xref no email%1,     W%Huang%xref no email%1,     J J-Y%Sung%xref no email%1,     Q-P%Kong%xref no email%1,     Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,              Maoti%Wei%weimaoti@yahoo.com.cn%1,              Yi%Han%halanhan2001sh@163.com%1,              Keju%Zhang%sinong77@sina.com%1,              Li%He%wujinhl@163.com%1,              Zhen%Yang%yzdtchina@yahoo.com.cn%1,              Bing%Su%tjsubin553@sina.com%1,              Zhilun%Zhang%zzl718@sina.com.cn%1,              Yilan%Hu%yougu@yahoo.com.cn%1,              Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,              Satoru%Itoyama%NULL%0,              Koichi%Kashiwase%NULL%1,              Nguyen Chi%Phi%NULL%0,              Hoang Thuy%Long%NULL%0,              Le Dang%Ha%NULL%0,              Vo Van%Ban%NULL%0,              Bach Khanh%Hoa%NULL%1,              Nguyen Thi Le%Hang%NULL%1,              Minako%Hijikata%NULL%0,              Shinsaku%Sakurada%NULL%1,              Masahiro%Satake%NULL%1,              Katsushi%Tokunaga%NULL%1,              Takehiko%Sasazuki%NULL%0,              Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,              Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,              Yuling%Shi%sane222@163.com%1,              Ping%Li%liping@nic.bmi.ac.cn%1,              Chuanxuan%Liu%renew7306_cn@sina.com%1,              Qingjun%Ma%maqingjun@sina.com%1,              Ruifu%Yang%zhangf@big.ac.cn%1,              Xiaoyi%Wang%happybettylx@hotmail.com%1,              Lina%zhu%luckina@sina.com%1,              Xiao%Yang%gaowei@sina.com%1,              Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,              Mei-Shu%Xu%NULL%2,              Johannes Chi Yun%Ching%NULL%1,              Thomas Man Kit%So%NULL%1,              Sik-To%Lai%NULL%0,              Chung-Ming%Chu%NULL%0,              Loretta Y.C.%Yam%NULL%1,              Andrew T.Y.%Wong%NULL%1,              Pui Hong%Chung%NULL%1,              Vera Sau Fong%Chan%NULL%1,              Chen Lung Steve%Lin%NULL%1,              Pak Chung%Sham%NULL%1,              Gabriel M.%Leung%NULL%2,              Joseph S.M.%Peiris%NULL%1,              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,              Kelvin Yuen Kwong%Chan%NULL%1,              Eric Hing Leung%Lee%NULL%1,              Mei-Shu%Xu%NULL%0,              Campbell Kam Po%Ting%NULL%1,              Thomas M. K.%So%NULL%1,              Pak C.%Sham%NULL%1,              Gabriel M.%Leung%NULL%0,              Joseph S. M.%Peiris%NULL%1,              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,               Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,               Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,               Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,               Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,               Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,               Pei-Jan%Chen%g8640@ms13.hinet.net%1,               Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,               Ken Hong%Lim%khlim@seed.net.tw%1,               Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,               Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,               Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,               Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,               Nelson L S%Tang%NULL%1,               David S C%Hui%NULL%1,               Grace T Y%Chung%NULL%1,               Stephen S C%Chim%NULL%1,               K C Allen%Chan%NULL%1,               Ying-man%Sung%NULL%1,               Louis Y S%Chan%NULL%1,               Yu-kwan%Tong%NULL%1,               Wing-shan%Lee%NULL%1,               Paul K S%Chan%NULL%1,               Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,               Naoto%Keicho%NULL%3,               Tran%Quy%NULL%4,               Nguyen Chi%Phi%NULL%4,               Hoang Thuy%Long%NULL%4,               Le Dang%Ha%NULL%4,               Vo Van%Ban%NULL%4,               Jun%Ohashi%NULL%1,               Minako%Hijikata%NULL%4,               Ikumi%Matsushita%NULL%3,               Akihiko%Kawana%NULL%1,               Hideki%Yanai%NULL%3,               Teruo%Kirikae%NULL%3,               Tadatoshi%Kuratsuji%NULL%3,               Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,               Kin-Mang%Lau%NULL%1,               Libby%Li%NULL%1,               Suk-Hang%Cheng%NULL%1,               Wing Y.%Chan%NULL%1,               Pak K.%Hui%NULL%1,               Benny%Zee%NULL%1,               Chi-Bon%Leung%NULL%1,               Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,               Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,               David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,               Grace TY%Chung%gracechung@cuhk.edu.hk%1,               Alan KL%Wu%alanklwu@yahoo.com%1,               Stephen SC%Chim%sschim@cuhk.edu.hk%1,               Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,               Nelson%Lee%leelsn@yahoo.com%1,               KW%Choi%kwchoi12@netvigator.com%1,               YM%Sung%mandysung@cuhk.edu.hk%1,               Paul KS%Chan%paulkschan@cuhk.edu.hk%1,               YK%Tong%yktong@cuhk.edu.hk%1,               ST%Lai%laist@ha.org.hk%1,               WC%Yu%yuwc@ha.org.hk%1,               Owen%Tsang%tyotsang@hotmail.com%1,               YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,               Minako%Hijikata%NULL%0,               Satoru%Itoyama%NULL%2,               Tran%Quy%NULL%0,               Nguyen Chi%Phi%NULL%0,               Hoang Thuy%Long%NULL%0,               Le Dang%Ha%NULL%0,               Vo Van%Ban%NULL%0,               Ikumi%Matsushita%NULL%0,               Hideki%Yanai%NULL%0,               Fumiko%Kirikae%NULL%2,               Teruo%Kirikae%NULL%0,               Tadatoshi%Kuratsuji%NULL%0,               Takehiko%Sasazuki%NULL%0,               Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,               Kwok Hung%Chan%NULL%1,               Helen K. W.%Law%NULL%1,               Gloria H. W.%Tso%NULL%1,               Eric K. P.%Kong%NULL%1,               Wilfred H. S.%Wong%NULL%1,               Yuk Fai%To%NULL%1,               Raymond W. H.%Yung%NULL%1,               Eudora Y.%Chow%NULL%1,               Ka Leung%Au%NULL%2,               Eric Y. T.%Chan%NULL%2,               Wilina%Lim%NULL%3,               Jens C.%Jensenius%NULL%1,               Malcolm W.%Turner%NULL%1,               J. S. Malik%Peiris%NULL%1,               Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,               Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,               Minako%Hijikata%NULL%0,               Tran%Quy%NULL%0,               Nguyen Chi%Phi%NULL%0,               Hoang Thuy%Long%NULL%0,               Le Dang%Ha%NULL%0,               Vo Van%Ban%NULL%0,               Ikumi%Matsushita%NULL%0,               Hideki%Yanai%NULL%0,               Fumiko%Kirikae%NULL%0,               Teruo%Kirikae%NULL%0,               Tadatoshi%Kuratsuji%NULL%0,               Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,               J.%Tanner%NULL%1,               P. K. S.%Chan%NULL%1,               S.%Biffin%NULL%1,               W. B.%Dyer%NULL%1,               A. F.%Geczy%NULL%1,               J. W.%Tang%NULL%1,               D. S. C.%Hui%NULL%1,               J. J. Y.%Sung%NULL%1,               J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,               Gangqiao%Zhou%NULL%2,               Lianteng%Zhi%NULL%1,               Hao%Yang%NULL%1,               Yun%Zhai%NULL%2,               Xiaojia%Dong%NULL%1,               Xiumei%Zhang%NULL%1,               Xue%Gao%NULL%1,               Yunping%Zhu%NULL%1,               Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,               Kelvin Y K%Chan%NULL%1,               Yongxiong%Chen%NULL%1,               Leo L M%Poon%NULL%1,               Annie N Y%Cheung%NULL%1,               Bojian%Zheng%NULL%1,               Kwok-Hung%Chan%NULL%1,               William%Mak%NULL%1,               Hextan Y S%Ngan%NULL%1,               Xiaoning%Xu%NULL%1,               Gavin%Screaton%NULL%1,               Paul K H%Tam%NULL%1,               Jonathan M%Austyn%NULL%1,               Li-Chong%Chan%NULL%2,               Shea-Ping%Yip%NULL%2,               Malik%Peiris%NULL%2,               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,               Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,               WK Eddie%Ip%WIP@partners.org%1,               Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,               Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,               Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,               Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,               Raymond WH%Yung%rwhyung@ha.org.hk%2,               Eudora Y%Chow%chowe@ha.org.hk%2,               KL%Au%klau@ha.org.hk%1,               Eric YT%Chan%eytchan@ha.org.hk%2,               Wilina%Lim%wllim@pacific.net.hk%0,               JS Malik%Peiris%malik@hkucc.hku.hk%2,               Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,               Dan%Feng%fddd@263.net%1,               Sake J%de Vlas%s.devlas@erasmusmc.nl%1,               Hongwei%Wang%whw7809@yahoo.com.cn%1,               Arnaud%Fontanet%fontanet@pasteur.fr%1,               Panhe%Zhang%juntianz@yahoo.com.cn%1,               Sabine%Plancoulaine%plancoulaine@necker.fr%1,               Fang%Tang%tf4065@sina.com%1,               Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,               Hong%Yang%anni_yang@yahoo.com%1,               Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,               Jan H%Richardus%j.richardus@erasmusmc.nl%1,               J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,               Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,               Jyh-Yuan%Yang%NULL%1,               Jih-Hui%Lin%NULL%1,               Cathy S. J.%Fann%NULL%1,               Valeriy%Osyetrov%NULL%1,               Chwan-Chuen%King%NULL%1,               Yi-Ming Arthur%Chen%NULL%1,               Hsiao-Ling%Chang%NULL%1,               Hung-Wei%Kuo%NULL%1,               Fong%Liao%NULL%1,               Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,      Shu-Yuan%Liang%xref no email%1,      Yi-Ping%Shih%xref no email%1,      Chia-Yen%Chen%xref no email%1,      Yuan-Ming%Lee%xref no email%1,      Ling%Chang%xref no email%1,      Shiao-Ying%Jung%xref no email%1,      Mei-Shang%Ho%xref no email%1,      Kung-Yee%Liang%xref no email%1,      Hour-Young%Chen%xref no email%1,      Yu-Jiun%Chan%xref no email%1,      Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,               Johannes C. Y.%Ching%NULL%1,               M. S.%Xu%NULL%1,               Annie N. Y.%Cheung%NULL%1,               Shea-Ping%Yip%NULL%0,               Loretta Y. C.%Yam%NULL%1,               Sik-To%Lai%NULL%2,               Chung-Ming%Chu%NULL%2,               Andrew T. Y.%Wong%NULL%1,               You-Qiang%Song%NULL%1,               Fang-Ping%Huang%NULL%1,               Wei%Liu%NULL%1,               P. H.%Chung%NULL%1,               G. M.%Leung%NULL%1,               Eudora Y. D.%Chow%NULL%1,               Eric Y. T.%Chan%NULL%0,               Jane C. K.%Chan%NULL%1,               Hextan%Ngan%NULL%1,               Paul%Tam%NULL%1,               Li-Chong%Chan%NULL%0,               Pak%Sham%NULL%1,               Vera S. F.%Chan%NULL%1,               Malik%Peiris%NULL%0,               Steve C. L.%Lin%NULL%1,               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,               Gangqiao%Zhou%zhougq@chgb.org.cn%0,               Wai Po%Chong%h9820905@graduate.hku.hk%1,               Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,               Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,               Hongxing%Zhang%zhanghx08@126.com%1,               Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,               Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,               Yun%Zhai%zhaiyun077@tom.com%0,               Raymond WH%Yung%rwhyung@ha.org.hk%0,               Eudora Y%Chow%chowe@ha.org.hk%0,               Ka Leung%Au%klau@ha.org.hk%0,               Eric YT%Chan%eytchan@ha.org.hk%0,               Wilina%Lim%wllim@pacific.net.hk%0,               JS Malik%Peiris%malik@hkucc.hku.hk%0,               Fuchu%He%hefc@nic.bmi.ac.cn%0,               Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,      Ingrid%Boehm%xref no email%1,      Paul K. S.%Chan%xref no email%1,      Katherine%Marks%xref no email%1,      Julian W.%Tang%xref no email%1,      David S. C.%Hui%xref no email%1,      Joseph J. Y.%Sung%xref no email%1,      Wayne B.%Dyer%xref no email%1,      Andrew F.%Geczy%xref no email%1,      John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,      N L-S%Tang%xref no email%1,      P K-S%Chan%xref no email%1,      C-Y%Wang%xref no email%1,      D S-C%Hui%xref no email%1,      C%Luk%xref no email%1,      R%Kwok%xref no email%1,      W%Huang%xref no email%1,      J J-Y%Sung%xref no email%1,      Q-P%Kong%xref no email%1,      Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,               Maoti%Wei%weimaoti@yahoo.com.cn%1,               Yi%Han%halanhan2001sh@163.com%1,               Keju%Zhang%sinong77@sina.com%1,               Li%He%wujinhl@163.com%1,               Zhen%Yang%yzdtchina@yahoo.com.cn%1,               Bing%Su%tjsubin553@sina.com%1,               Zhilun%Zhang%zzl718@sina.com.cn%1,               Yilan%Hu%yougu@yahoo.com.cn%1,               Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,               Satoru%Itoyama%NULL%0,               Koichi%Kashiwase%NULL%1,               Nguyen Chi%Phi%NULL%0,               Hoang Thuy%Long%NULL%0,               Le Dang%Ha%NULL%0,               Vo Van%Ban%NULL%0,               Bach Khanh%Hoa%NULL%1,               Nguyen Thi Le%Hang%NULL%1,               Minako%Hijikata%NULL%0,               Shinsaku%Sakurada%NULL%1,               Masahiro%Satake%NULL%1,               Katsushi%Tokunaga%NULL%1,               Takehiko%Sasazuki%NULL%0,               Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,               Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,               Yuling%Shi%sane222@163.com%1,               Ping%Li%liping@nic.bmi.ac.cn%1,               Chuanxuan%Liu%renew7306_cn@sina.com%1,               Qingjun%Ma%maqingjun@sina.com%1,               Ruifu%Yang%zhangf@big.ac.cn%1,               Xiaoyi%Wang%happybettylx@hotmail.com%1,               Lina%zhu%luckina@sina.com%1,               Xiao%Yang%gaowei@sina.com%1,               Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,               Mei-Shu%Xu%NULL%2,               Johannes Chi Yun%Ching%NULL%1,               Thomas Man Kit%So%NULL%1,               Sik-To%Lai%NULL%0,               Chung-Ming%Chu%NULL%0,               Loretta Y.C.%Yam%NULL%1,               Andrew T.Y.%Wong%NULL%1,               Pui Hong%Chung%NULL%1,               Vera Sau Fong%Chan%NULL%1,               Chen Lung Steve%Lin%NULL%1,               Pak Chung%Sham%NULL%1,               Gabriel M.%Leung%NULL%2,               Joseph S.M.%Peiris%NULL%1,               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,               Kelvin Yuen Kwong%Chan%NULL%1,               Eric Hing Leung%Lee%NULL%1,               Mei-Shu%Xu%NULL%0,               Campbell Kam Po%Ting%NULL%1,               Thomas M. K.%So%NULL%1,               Pak C.%Sham%NULL%1,               Gabriel M.%Leung%NULL%0,               Joseph S. M.%Peiris%NULL%1,               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1712,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1597,7 +1741,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1626,7 +1770,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1655,7 +1799,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1684,7 +1828,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1713,7 +1857,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -1742,7 +1886,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1771,7 +1915,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -1800,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1829,7 +1973,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1858,7 +2002,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -1887,7 +2031,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1916,7 +2060,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -1945,7 +2089,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1974,7 +2118,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2003,7 +2147,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2032,7 +2176,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2061,7 +2205,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2090,7 +2234,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2119,7 +2263,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2148,7 +2292,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2177,7 +2321,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2206,7 +2350,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2235,7 +2379,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="406">
   <si>
     <t>Doi</t>
   </si>
@@ -1362,6 +1362,78 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,               Kelvin Yuen Kwong%Chan%NULL%1,               Eric Hing Leung%Lee%NULL%1,               Mei-Shu%Xu%NULL%0,               Campbell Kam Po%Ting%NULL%1,               Thomas M. K.%So%NULL%1,               Pak C.%Sham%NULL%1,               Gabriel M.%Leung%NULL%0,               Joseph S. M.%Peiris%NULL%1,               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                Pei-Jan%Chen%g8640@ms13.hinet.net%1,                Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                Ken Hong%Lim%khlim@seed.net.tw%1,                Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                Nelson L S%Tang%NULL%1,                David S C%Hui%NULL%1,                Grace T Y%Chung%NULL%1,                Stephen S C%Chim%NULL%1,                K C Allen%Chan%NULL%1,                Ying-man%Sung%NULL%1,                Louis Y S%Chan%NULL%1,                Yu-kwan%Tong%NULL%1,                Wing-shan%Lee%NULL%1,                Paul K S%Chan%NULL%1,                Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                Naoto%Keicho%NULL%3,                Tran%Quy%NULL%4,                Nguyen Chi%Phi%NULL%4,                Hoang Thuy%Long%NULL%4,                Le Dang%Ha%NULL%4,                Vo Van%Ban%NULL%4,                Jun%Ohashi%NULL%1,                Minako%Hijikata%NULL%4,                Ikumi%Matsushita%NULL%3,                Akihiko%Kawana%NULL%1,                Hideki%Yanai%NULL%3,                Teruo%Kirikae%NULL%3,                Tadatoshi%Kuratsuji%NULL%3,                Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                Kin-Mang%Lau%NULL%1,                Libby%Li%NULL%1,                Suk-Hang%Cheng%NULL%1,                Wing Y.%Chan%NULL%1,                Pak K.%Hui%NULL%1,                Benny%Zee%NULL%1,                Chi-Bon%Leung%NULL%1,                Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                Grace TY%Chung%gracechung@cuhk.edu.hk%1,                Alan KL%Wu%alanklwu@yahoo.com%1,                Stephen SC%Chim%sschim@cuhk.edu.hk%1,                Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                Nelson%Lee%leelsn@yahoo.com%1,                KW%Choi%kwchoi12@netvigator.com%1,                YM%Sung%mandysung@cuhk.edu.hk%1,                Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                YK%Tong%yktong@cuhk.edu.hk%1,                ST%Lai%laist@ha.org.hk%1,                WC%Yu%yuwc@ha.org.hk%1,                Owen%Tsang%tyotsang@hotmail.com%1,                YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                Minako%Hijikata%NULL%0,                Satoru%Itoyama%NULL%2,                Tran%Quy%NULL%0,                Nguyen Chi%Phi%NULL%0,                Hoang Thuy%Long%NULL%0,                Le Dang%Ha%NULL%0,                Vo Van%Ban%NULL%0,                Ikumi%Matsushita%NULL%0,                Hideki%Yanai%NULL%0,                Fumiko%Kirikae%NULL%2,                Teruo%Kirikae%NULL%0,                Tadatoshi%Kuratsuji%NULL%0,                Takehiko%Sasazuki%NULL%0,                Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                Kwok Hung%Chan%NULL%1,                Helen K. W.%Law%NULL%1,                Gloria H. W.%Tso%NULL%1,                Eric K. P.%Kong%NULL%1,                Wilfred H. S.%Wong%NULL%1,                Yuk Fai%To%NULL%1,                Raymond W. H.%Yung%NULL%1,                Eudora Y.%Chow%NULL%1,                Ka Leung%Au%NULL%2,                Eric Y. T.%Chan%NULL%2,                Wilina%Lim%NULL%3,                Jens C.%Jensenius%NULL%1,                Malcolm W.%Turner%NULL%1,                J. S. Malik%Peiris%NULL%1,                Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                Minako%Hijikata%NULL%0,                Tran%Quy%NULL%0,                Nguyen Chi%Phi%NULL%0,                Hoang Thuy%Long%NULL%0,                Le Dang%Ha%NULL%0,                Vo Van%Ban%NULL%0,                Ikumi%Matsushita%NULL%0,                Hideki%Yanai%NULL%0,                Fumiko%Kirikae%NULL%0,                Teruo%Kirikae%NULL%0,                Tadatoshi%Kuratsuji%NULL%0,                Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                J.%Tanner%NULL%1,                P. K. S.%Chan%NULL%1,                S.%Biffin%NULL%1,                W. B.%Dyer%NULL%1,                A. F.%Geczy%NULL%1,                J. W.%Tang%NULL%1,                D. S. C.%Hui%NULL%1,                J. J. Y.%Sung%NULL%1,                J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                Gangqiao%Zhou%NULL%2,                Lianteng%Zhi%NULL%1,                Hao%Yang%NULL%1,                Yun%Zhai%NULL%2,                Xiaojia%Dong%NULL%1,                Xiumei%Zhang%NULL%1,                Xue%Gao%NULL%1,                Yunping%Zhu%NULL%1,                Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                Kelvin Y K%Chan%NULL%1,                Yongxiong%Chen%NULL%1,                Leo L M%Poon%NULL%1,                Annie N Y%Cheung%NULL%1,                Bojian%Zheng%NULL%1,                Kwok-Hung%Chan%NULL%1,                William%Mak%NULL%1,                Hextan Y S%Ngan%NULL%1,                Xiaoning%Xu%NULL%1,                Gavin%Screaton%NULL%1,                Paul K H%Tam%NULL%1,                Jonathan M%Austyn%NULL%1,                Li-Chong%Chan%NULL%2,                Shea-Ping%Yip%NULL%2,                Malik%Peiris%NULL%2,                Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                WK Eddie%Ip%WIP@partners.org%1,                Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                Raymond WH%Yung%rwhyung@ha.org.hk%2,                Eudora Y%Chow%chowe@ha.org.hk%2,                KL%Au%klau@ha.org.hk%1,                Eric YT%Chan%eytchan@ha.org.hk%2,                Wilina%Lim%wllim@pacific.net.hk%0,                JS Malik%Peiris%malik@hkucc.hku.hk%2,                Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                Dan%Feng%fddd@263.net%1,                Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                Hongwei%Wang%whw7809@yahoo.com.cn%1,                Arnaud%Fontanet%fontanet@pasteur.fr%1,                Panhe%Zhang%juntianz@yahoo.com.cn%1,                Sabine%Plancoulaine%plancoulaine@necker.fr%1,                Fang%Tang%tf4065@sina.com%1,                Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                Hong%Yang%anni_yang@yahoo.com%1,                Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                Jan H%Richardus%j.richardus@erasmusmc.nl%1,                J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                Jyh-Yuan%Yang%NULL%1,                Jih-Hui%Lin%NULL%1,                Cathy S. J.%Fann%NULL%1,                Valeriy%Osyetrov%NULL%1,                Chwan-Chuen%King%NULL%1,                Yi-Ming Arthur%Chen%NULL%1,                Hsiao-Ling%Chang%NULL%1,                Hung-Wei%Kuo%NULL%1,                Fong%Liao%NULL%1,                Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,       Shu-Yuan%Liang%xref no email%1,       Yi-Ping%Shih%xref no email%1,       Chia-Yen%Chen%xref no email%1,       Yuan-Ming%Lee%xref no email%1,       Ling%Chang%xref no email%1,       Shiao-Ying%Jung%xref no email%1,       Mei-Shang%Ho%xref no email%1,       Kung-Yee%Liang%xref no email%1,       Hour-Young%Chen%xref no email%1,       Yu-Jiun%Chan%xref no email%1,       Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                Johannes C. Y.%Ching%NULL%1,                M. S.%Xu%NULL%1,                Annie N. Y.%Cheung%NULL%1,                Shea-Ping%Yip%NULL%0,                Loretta Y. C.%Yam%NULL%1,                Sik-To%Lai%NULL%2,                Chung-Ming%Chu%NULL%2,                Andrew T. Y.%Wong%NULL%1,                You-Qiang%Song%NULL%1,                Fang-Ping%Huang%NULL%1,                Wei%Liu%NULL%1,                P. H.%Chung%NULL%1,                G. M.%Leung%NULL%1,                Eudora Y. D.%Chow%NULL%1,                Eric Y. T.%Chan%NULL%0,                Jane C. K.%Chan%NULL%1,                Hextan%Ngan%NULL%1,                Paul%Tam%NULL%1,                Li-Chong%Chan%NULL%0,                Pak%Sham%NULL%1,                Vera S. F.%Chan%NULL%1,                Malik%Peiris%NULL%0,                Steve C. L.%Lin%NULL%1,                Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                Gangqiao%Zhou%zhougq@chgb.org.cn%0,                Wai Po%Chong%h9820905@graduate.hku.hk%1,                Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                Hongxing%Zhang%zhanghx08@126.com%1,                Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                Yun%Zhai%zhaiyun077@tom.com%0,                Raymond WH%Yung%rwhyung@ha.org.hk%0,                Eudora Y%Chow%chowe@ha.org.hk%0,                Ka Leung%Au%klau@ha.org.hk%0,                Eric YT%Chan%eytchan@ha.org.hk%0,                Wilina%Lim%wllim@pacific.net.hk%0,                JS Malik%Peiris%malik@hkucc.hku.hk%0,                Fuchu%He%hefc@nic.bmi.ac.cn%0,                Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,       Ingrid%Boehm%xref no email%1,       Paul K. S.%Chan%xref no email%1,       Katherine%Marks%xref no email%1,       Julian W.%Tang%xref no email%1,       David S. C.%Hui%xref no email%1,       Joseph J. Y.%Sung%xref no email%1,       Wayne B.%Dyer%xref no email%1,       Andrew F.%Geczy%xref no email%1,       John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,       N L-S%Tang%xref no email%1,       P K-S%Chan%xref no email%1,       C-Y%Wang%xref no email%1,       D S-C%Hui%xref no email%1,       C%Luk%xref no email%1,       R%Kwok%xref no email%1,       W%Huang%xref no email%1,       J J-Y%Sung%xref no email%1,       Q-P%Kong%xref no email%1,       Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                Maoti%Wei%weimaoti@yahoo.com.cn%1,                Yi%Han%halanhan2001sh@163.com%1,                Keju%Zhang%sinong77@sina.com%1,                Li%He%wujinhl@163.com%1,                Zhen%Yang%yzdtchina@yahoo.com.cn%1,                Bing%Su%tjsubin553@sina.com%1,                Zhilun%Zhang%zzl718@sina.com.cn%1,                Yilan%Hu%yougu@yahoo.com.cn%1,                Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                Satoru%Itoyama%NULL%0,                Koichi%Kashiwase%NULL%1,                Nguyen Chi%Phi%NULL%0,                Hoang Thuy%Long%NULL%0,                Le Dang%Ha%NULL%0,                Vo Van%Ban%NULL%0,                Bach Khanh%Hoa%NULL%1,                Nguyen Thi Le%Hang%NULL%1,                Minako%Hijikata%NULL%0,                Shinsaku%Sakurada%NULL%1,                Masahiro%Satake%NULL%1,                Katsushi%Tokunaga%NULL%1,                Takehiko%Sasazuki%NULL%0,                Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                Yuling%Shi%sane222@163.com%1,                Ping%Li%liping@nic.bmi.ac.cn%1,                Chuanxuan%Liu%renew7306_cn@sina.com%1,                Qingjun%Ma%maqingjun@sina.com%1,                Ruifu%Yang%zhangf@big.ac.cn%1,                Xiaoyi%Wang%happybettylx@hotmail.com%1,                Lina%zhu%luckina@sina.com%1,                Xiao%Yang%gaowei@sina.com%1,                Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                Mei-Shu%Xu%NULL%2,                Johannes Chi Yun%Ching%NULL%1,                Thomas Man Kit%So%NULL%1,                Sik-To%Lai%NULL%0,                Chung-Ming%Chu%NULL%0,                Loretta Y.C.%Yam%NULL%1,                Andrew T.Y.%Wong%NULL%1,                Pui Hong%Chung%NULL%1,                Vera Sau Fong%Chan%NULL%1,                Chen Lung Steve%Lin%NULL%1,                Pak Chung%Sham%NULL%1,                Gabriel M.%Leung%NULL%2,                Joseph S.M.%Peiris%NULL%1,                Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                Kelvin Yuen Kwong%Chan%NULL%1,                Eric Hing Leung%Lee%NULL%1,                Mei-Shu%Xu%NULL%0,                Campbell Kam Po%Ting%NULL%1,                Thomas M. K.%So%NULL%1,                Pak C.%Sham%NULL%1,                Gabriel M.%Leung%NULL%0,                Joseph S. M.%Peiris%NULL%1,                Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1741,7 +1813,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1770,7 +1842,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1799,7 +1871,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1828,7 +1900,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1857,7 +1929,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -1886,7 +1958,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1915,7 +1987,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -1944,7 +2016,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1973,7 +2045,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2002,7 +2074,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2031,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2060,7 +2132,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2089,7 +2161,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2118,7 +2190,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2147,7 +2219,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2176,7 +2248,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2205,7 +2277,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2234,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2263,7 +2335,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2292,7 +2364,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2321,7 +2393,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2350,7 +2422,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2379,7 +2451,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="430">
   <si>
     <t>Doi</t>
   </si>
@@ -1434,6 +1434,78 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                Kelvin Yuen Kwong%Chan%NULL%1,                Eric Hing Leung%Lee%NULL%1,                Mei-Shu%Xu%NULL%0,                Campbell Kam Po%Ting%NULL%1,                Thomas M. K.%So%NULL%1,                Pak C.%Sham%NULL%1,                Gabriel M.%Leung%NULL%0,                Joseph S. M.%Peiris%NULL%1,                Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                 Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                 Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                 Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                 Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                 Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                 Pei-Jan%Chen%g8640@ms13.hinet.net%1,                 Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                 Ken Hong%Lim%khlim@seed.net.tw%1,                 Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                 Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                 Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                 Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                 Nelson L S%Tang%NULL%1,                 David S C%Hui%NULL%1,                 Grace T Y%Chung%NULL%1,                 Stephen S C%Chim%NULL%1,                 K C Allen%Chan%NULL%1,                 Ying-man%Sung%NULL%1,                 Louis Y S%Chan%NULL%1,                 Yu-kwan%Tong%NULL%1,                 Wing-shan%Lee%NULL%1,                 Paul K S%Chan%NULL%1,                 Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                 Naoto%Keicho%NULL%3,                 Tran%Quy%NULL%4,                 Nguyen Chi%Phi%NULL%4,                 Hoang Thuy%Long%NULL%4,                 Le Dang%Ha%NULL%4,                 Vo Van%Ban%NULL%4,                 Jun%Ohashi%NULL%1,                 Minako%Hijikata%NULL%4,                 Ikumi%Matsushita%NULL%3,                 Akihiko%Kawana%NULL%1,                 Hideki%Yanai%NULL%3,                 Teruo%Kirikae%NULL%3,                 Tadatoshi%Kuratsuji%NULL%3,                 Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                 Kin-Mang%Lau%NULL%1,                 Libby%Li%NULL%1,                 Suk-Hang%Cheng%NULL%1,                 Wing Y.%Chan%NULL%1,                 Pak K.%Hui%NULL%1,                 Benny%Zee%NULL%1,                 Chi-Bon%Leung%NULL%1,                 Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                 Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                 David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                 Grace TY%Chung%gracechung@cuhk.edu.hk%1,                 Alan KL%Wu%alanklwu@yahoo.com%1,                 Stephen SC%Chim%sschim@cuhk.edu.hk%1,                 Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                 Nelson%Lee%leelsn@yahoo.com%1,                 KW%Choi%kwchoi12@netvigator.com%1,                 YM%Sung%mandysung@cuhk.edu.hk%1,                 Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                 YK%Tong%yktong@cuhk.edu.hk%1,                 ST%Lai%laist@ha.org.hk%1,                 WC%Yu%yuwc@ha.org.hk%1,                 Owen%Tsang%tyotsang@hotmail.com%1,                 YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                 Minako%Hijikata%NULL%0,                 Satoru%Itoyama%NULL%2,                 Tran%Quy%NULL%0,                 Nguyen Chi%Phi%NULL%0,                 Hoang Thuy%Long%NULL%0,                 Le Dang%Ha%NULL%0,                 Vo Van%Ban%NULL%0,                 Ikumi%Matsushita%NULL%0,                 Hideki%Yanai%NULL%0,                 Fumiko%Kirikae%NULL%2,                 Teruo%Kirikae%NULL%0,                 Tadatoshi%Kuratsuji%NULL%0,                 Takehiko%Sasazuki%NULL%0,                 Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                 Kwok Hung%Chan%NULL%1,                 Helen K. W.%Law%NULL%1,                 Gloria H. W.%Tso%NULL%1,                 Eric K. P.%Kong%NULL%1,                 Wilfred H. S.%Wong%NULL%1,                 Yuk Fai%To%NULL%1,                 Raymond W. H.%Yung%NULL%1,                 Eudora Y.%Chow%NULL%1,                 Ka Leung%Au%NULL%2,                 Eric Y. T.%Chan%NULL%2,                 Wilina%Lim%NULL%3,                 Jens C.%Jensenius%NULL%1,                 Malcolm W.%Turner%NULL%1,                 J. S. Malik%Peiris%NULL%1,                 Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                 Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                 Minako%Hijikata%NULL%0,                 Tran%Quy%NULL%0,                 Nguyen Chi%Phi%NULL%0,                 Hoang Thuy%Long%NULL%0,                 Le Dang%Ha%NULL%0,                 Vo Van%Ban%NULL%0,                 Ikumi%Matsushita%NULL%0,                 Hideki%Yanai%NULL%0,                 Fumiko%Kirikae%NULL%0,                 Teruo%Kirikae%NULL%0,                 Tadatoshi%Kuratsuji%NULL%0,                 Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                 J.%Tanner%NULL%1,                 P. K. S.%Chan%NULL%1,                 S.%Biffin%NULL%1,                 W. B.%Dyer%NULL%1,                 A. F.%Geczy%NULL%1,                 J. W.%Tang%NULL%1,                 D. S. C.%Hui%NULL%1,                 J. J. Y.%Sung%NULL%1,                 J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                 Gangqiao%Zhou%NULL%2,                 Lianteng%Zhi%NULL%1,                 Hao%Yang%NULL%1,                 Yun%Zhai%NULL%2,                 Xiaojia%Dong%NULL%1,                 Xiumei%Zhang%NULL%1,                 Xue%Gao%NULL%1,                 Yunping%Zhu%NULL%1,                 Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                 Kelvin Y K%Chan%NULL%1,                 Yongxiong%Chen%NULL%1,                 Leo L M%Poon%NULL%1,                 Annie N Y%Cheung%NULL%1,                 Bojian%Zheng%NULL%1,                 Kwok-Hung%Chan%NULL%1,                 William%Mak%NULL%1,                 Hextan Y S%Ngan%NULL%1,                 Xiaoning%Xu%NULL%1,                 Gavin%Screaton%NULL%1,                 Paul K H%Tam%NULL%1,                 Jonathan M%Austyn%NULL%1,                 Li-Chong%Chan%NULL%2,                 Shea-Ping%Yip%NULL%2,                 Malik%Peiris%NULL%2,                 Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                 Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                 WK Eddie%Ip%WIP@partners.org%1,                 Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                 Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                 Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                 Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                 Raymond WH%Yung%rwhyung@ha.org.hk%2,                 Eudora Y%Chow%chowe@ha.org.hk%2,                 KL%Au%klau@ha.org.hk%1,                 Eric YT%Chan%eytchan@ha.org.hk%2,                 Wilina%Lim%wllim@pacific.net.hk%0,                 JS Malik%Peiris%malik@hkucc.hku.hk%2,                 Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                 Dan%Feng%fddd@263.net%1,                 Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                 Hongwei%Wang%whw7809@yahoo.com.cn%1,                 Arnaud%Fontanet%fontanet@pasteur.fr%1,                 Panhe%Zhang%juntianz@yahoo.com.cn%1,                 Sabine%Plancoulaine%plancoulaine@necker.fr%1,                 Fang%Tang%tf4065@sina.com%1,                 Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                 Hong%Yang%anni_yang@yahoo.com%1,                 Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                 Jan H%Richardus%j.richardus@erasmusmc.nl%1,                 J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                 Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                 Jyh-Yuan%Yang%NULL%1,                 Jih-Hui%Lin%NULL%1,                 Cathy S. J.%Fann%NULL%1,                 Valeriy%Osyetrov%NULL%1,                 Chwan-Chuen%King%NULL%1,                 Yi-Ming Arthur%Chen%NULL%1,                 Hsiao-Ling%Chang%NULL%1,                 Hung-Wei%Kuo%NULL%1,                 Fong%Liao%NULL%1,                 Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,        Shu-Yuan%Liang%xref no email%1,        Yi-Ping%Shih%xref no email%1,        Chia-Yen%Chen%xref no email%1,        Yuan-Ming%Lee%xref no email%1,        Ling%Chang%xref no email%1,        Shiao-Ying%Jung%xref no email%1,        Mei-Shang%Ho%xref no email%1,        Kung-Yee%Liang%xref no email%1,        Hour-Young%Chen%xref no email%1,        Yu-Jiun%Chan%xref no email%1,        Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                 Johannes C. Y.%Ching%NULL%1,                 M. S.%Xu%NULL%1,                 Annie N. Y.%Cheung%NULL%1,                 Shea-Ping%Yip%NULL%0,                 Loretta Y. C.%Yam%NULL%1,                 Sik-To%Lai%NULL%2,                 Chung-Ming%Chu%NULL%2,                 Andrew T. Y.%Wong%NULL%1,                 You-Qiang%Song%NULL%1,                 Fang-Ping%Huang%NULL%1,                 Wei%Liu%NULL%1,                 P. H.%Chung%NULL%1,                 G. M.%Leung%NULL%1,                 Eudora Y. D.%Chow%NULL%1,                 Eric Y. T.%Chan%NULL%0,                 Jane C. K.%Chan%NULL%1,                 Hextan%Ngan%NULL%1,                 Paul%Tam%NULL%1,                 Li-Chong%Chan%NULL%0,                 Pak%Sham%NULL%1,                 Vera S. F.%Chan%NULL%1,                 Malik%Peiris%NULL%0,                 Steve C. L.%Lin%NULL%1,                 Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                 Gangqiao%Zhou%zhougq@chgb.org.cn%0,                 Wai Po%Chong%h9820905@graduate.hku.hk%1,                 Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                 Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                 Hongxing%Zhang%zhanghx08@126.com%1,                 Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                 Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                 Yun%Zhai%zhaiyun077@tom.com%0,                 Raymond WH%Yung%rwhyung@ha.org.hk%0,                 Eudora Y%Chow%chowe@ha.org.hk%0,                 Ka Leung%Au%klau@ha.org.hk%0,                 Eric YT%Chan%eytchan@ha.org.hk%0,                 Wilina%Lim%wllim@pacific.net.hk%0,                 JS Malik%Peiris%malik@hkucc.hku.hk%0,                 Fuchu%He%hefc@nic.bmi.ac.cn%0,                 Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,        Ingrid%Boehm%xref no email%1,        Paul K. S.%Chan%xref no email%1,        Katherine%Marks%xref no email%1,        Julian W.%Tang%xref no email%1,        David S. C.%Hui%xref no email%1,        Joseph J. Y.%Sung%xref no email%1,        Wayne B.%Dyer%xref no email%1,        Andrew F.%Geczy%xref no email%1,        John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,        N L-S%Tang%xref no email%1,        P K-S%Chan%xref no email%1,        C-Y%Wang%xref no email%1,        D S-C%Hui%xref no email%1,        C%Luk%xref no email%1,        R%Kwok%xref no email%1,        W%Huang%xref no email%1,        J J-Y%Sung%xref no email%1,        Q-P%Kong%xref no email%1,        Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                 Maoti%Wei%weimaoti@yahoo.com.cn%1,                 Yi%Han%halanhan2001sh@163.com%1,                 Keju%Zhang%sinong77@sina.com%1,                 Li%He%wujinhl@163.com%1,                 Zhen%Yang%yzdtchina@yahoo.com.cn%1,                 Bing%Su%tjsubin553@sina.com%1,                 Zhilun%Zhang%zzl718@sina.com.cn%1,                 Yilan%Hu%yougu@yahoo.com.cn%1,                 Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                 Satoru%Itoyama%NULL%0,                 Koichi%Kashiwase%NULL%1,                 Nguyen Chi%Phi%NULL%0,                 Hoang Thuy%Long%NULL%0,                 Le Dang%Ha%NULL%0,                 Vo Van%Ban%NULL%0,                 Bach Khanh%Hoa%NULL%1,                 Nguyen Thi Le%Hang%NULL%1,                 Minako%Hijikata%NULL%0,                 Shinsaku%Sakurada%NULL%1,                 Masahiro%Satake%NULL%1,                 Katsushi%Tokunaga%NULL%1,                 Takehiko%Sasazuki%NULL%0,                 Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                 Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                 Yuling%Shi%sane222@163.com%1,                 Ping%Li%liping@nic.bmi.ac.cn%1,                 Chuanxuan%Liu%renew7306_cn@sina.com%1,                 Qingjun%Ma%maqingjun@sina.com%1,                 Ruifu%Yang%zhangf@big.ac.cn%1,                 Xiaoyi%Wang%happybettylx@hotmail.com%1,                 Lina%zhu%luckina@sina.com%1,                 Xiao%Yang%gaowei@sina.com%1,                 Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                 Mei-Shu%Xu%NULL%2,                 Johannes Chi Yun%Ching%NULL%1,                 Thomas Man Kit%So%NULL%1,                 Sik-To%Lai%NULL%0,                 Chung-Ming%Chu%NULL%0,                 Loretta Y.C.%Yam%NULL%1,                 Andrew T.Y.%Wong%NULL%1,                 Pui Hong%Chung%NULL%1,                 Vera Sau Fong%Chan%NULL%1,                 Chen Lung Steve%Lin%NULL%1,                 Pak Chung%Sham%NULL%1,                 Gabriel M.%Leung%NULL%2,                 Joseph S.M.%Peiris%NULL%1,                 Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                 Kelvin Yuen Kwong%Chan%NULL%1,                 Eric Hing Leung%Lee%NULL%1,                 Mei-Shu%Xu%NULL%0,                 Campbell Kam Po%Ting%NULL%1,                 Thomas M. K.%So%NULL%1,                 Pak C.%Sham%NULL%1,                 Gabriel M.%Leung%NULL%0,                 Joseph S. M.%Peiris%NULL%1,                 Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1813,7 +1885,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1842,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1871,7 +1943,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1900,7 +1972,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -1929,7 +2001,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -1958,7 +2030,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -1987,7 +2059,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2016,7 +2088,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2045,7 +2117,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2074,7 +2146,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2103,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2132,7 +2204,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2161,7 +2233,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2190,7 +2262,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2219,7 +2291,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2248,7 +2320,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2277,7 +2349,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2306,7 +2378,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2335,7 +2407,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2364,7 +2436,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2393,7 +2465,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2422,7 +2494,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2451,7 +2523,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="478">
   <si>
     <t>Doi</t>
   </si>
@@ -1506,6 +1506,150 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                 Kelvin Yuen Kwong%Chan%NULL%1,                 Eric Hing Leung%Lee%NULL%1,                 Mei-Shu%Xu%NULL%0,                 Campbell Kam Po%Ting%NULL%1,                 Thomas M. K.%So%NULL%1,                 Pak C.%Sham%NULL%1,                 Gabriel M.%Leung%NULL%0,                 Joseph S. M.%Peiris%NULL%1,                 Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                  Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                  Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                  Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                  Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                  Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                  Pei-Jan%Chen%g8640@ms13.hinet.net%1,                  Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                  Ken Hong%Lim%khlim@seed.net.tw%1,                  Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                  Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                  Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                  Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                  Nelson L S%Tang%NULL%1,                  David S C%Hui%NULL%1,                  Grace T Y%Chung%NULL%1,                  Stephen S C%Chim%NULL%1,                  K C Allen%Chan%NULL%1,                  Ying-man%Sung%NULL%1,                  Louis Y S%Chan%NULL%1,                  Yu-kwan%Tong%NULL%1,                  Wing-shan%Lee%NULL%1,                  Paul K S%Chan%NULL%1,                  Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                  Naoto%Keicho%NULL%3,                  Tran%Quy%NULL%4,                  Nguyen Chi%Phi%NULL%4,                  Hoang Thuy%Long%NULL%4,                  Le Dang%Ha%NULL%4,                  Vo Van%Ban%NULL%4,                  Jun%Ohashi%NULL%1,                  Minako%Hijikata%NULL%4,                  Ikumi%Matsushita%NULL%3,                  Akihiko%Kawana%NULL%1,                  Hideki%Yanai%NULL%3,                  Teruo%Kirikae%NULL%3,                  Tadatoshi%Kuratsuji%NULL%3,                  Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                  Kin-Mang%Lau%NULL%1,                  Libby%Li%NULL%1,                  Suk-Hang%Cheng%NULL%1,                  Wing Y.%Chan%NULL%1,                  Pak K.%Hui%NULL%1,                  Benny%Zee%NULL%1,                  Chi-Bon%Leung%NULL%1,                  Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                  Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                  David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                  Grace TY%Chung%gracechung@cuhk.edu.hk%1,                  Alan KL%Wu%alanklwu@yahoo.com%1,                  Stephen SC%Chim%sschim@cuhk.edu.hk%1,                  Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                  Nelson%Lee%leelsn@yahoo.com%1,                  KW%Choi%kwchoi12@netvigator.com%1,                  YM%Sung%mandysung@cuhk.edu.hk%1,                  Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                  YK%Tong%yktong@cuhk.edu.hk%1,                  ST%Lai%laist@ha.org.hk%1,                  WC%Yu%yuwc@ha.org.hk%1,                  Owen%Tsang%tyotsang@hotmail.com%1,                  YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                  Minako%Hijikata%NULL%0,                  Satoru%Itoyama%NULL%2,                  Tran%Quy%NULL%0,                  Nguyen Chi%Phi%NULL%0,                  Hoang Thuy%Long%NULL%0,                  Le Dang%Ha%NULL%0,                  Vo Van%Ban%NULL%0,                  Ikumi%Matsushita%NULL%0,                  Hideki%Yanai%NULL%0,                  Fumiko%Kirikae%NULL%2,                  Teruo%Kirikae%NULL%0,                  Tadatoshi%Kuratsuji%NULL%0,                  Takehiko%Sasazuki%NULL%0,                  Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                  Kwok Hung%Chan%NULL%1,                  Helen K. W.%Law%NULL%1,                  Gloria H. W.%Tso%NULL%1,                  Eric K. P.%Kong%NULL%1,                  Wilfred H. S.%Wong%NULL%1,                  Yuk Fai%To%NULL%1,                  Raymond W. H.%Yung%NULL%1,                  Eudora Y.%Chow%NULL%1,                  Ka Leung%Au%NULL%2,                  Eric Y. T.%Chan%NULL%2,                  Wilina%Lim%NULL%3,                  Jens C.%Jensenius%NULL%1,                  Malcolm W.%Turner%NULL%1,                  J. S. Malik%Peiris%NULL%1,                  Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                  Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                  Minako%Hijikata%NULL%0,                  Tran%Quy%NULL%0,                  Nguyen Chi%Phi%NULL%0,                  Hoang Thuy%Long%NULL%0,                  Le Dang%Ha%NULL%0,                  Vo Van%Ban%NULL%0,                  Ikumi%Matsushita%NULL%0,                  Hideki%Yanai%NULL%0,                  Fumiko%Kirikae%NULL%0,                  Teruo%Kirikae%NULL%0,                  Tadatoshi%Kuratsuji%NULL%0,                  Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                  J.%Tanner%NULL%1,                  P. K. S.%Chan%NULL%1,                  S.%Biffin%NULL%1,                  W. B.%Dyer%NULL%1,                  A. F.%Geczy%NULL%1,                  J. W.%Tang%NULL%1,                  D. S. C.%Hui%NULL%1,                  J. J. Y.%Sung%NULL%1,                  J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                  Gangqiao%Zhou%NULL%2,                  Lianteng%Zhi%NULL%1,                  Hao%Yang%NULL%1,                  Yun%Zhai%NULL%2,                  Xiaojia%Dong%NULL%1,                  Xiumei%Zhang%NULL%1,                  Xue%Gao%NULL%1,                  Yunping%Zhu%NULL%1,                  Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                  Kelvin Y K%Chan%NULL%1,                  Yongxiong%Chen%NULL%1,                  Leo L M%Poon%NULL%1,                  Annie N Y%Cheung%NULL%1,                  Bojian%Zheng%NULL%1,                  Kwok-Hung%Chan%NULL%1,                  William%Mak%NULL%1,                  Hextan Y S%Ngan%NULL%1,                  Xiaoning%Xu%NULL%1,                  Gavin%Screaton%NULL%1,                  Paul K H%Tam%NULL%1,                  Jonathan M%Austyn%NULL%1,                  Li-Chong%Chan%NULL%2,                  Shea-Ping%Yip%NULL%2,                  Malik%Peiris%NULL%2,                  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                  Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                  WK Eddie%Ip%WIP@partners.org%1,                  Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                  Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                  Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                  Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                  Raymond WH%Yung%rwhyung@ha.org.hk%2,                  Eudora Y%Chow%chowe@ha.org.hk%2,                  KL%Au%klau@ha.org.hk%1,                  Eric YT%Chan%eytchan@ha.org.hk%2,                  Wilina%Lim%wllim@pacific.net.hk%0,                  JS Malik%Peiris%malik@hkucc.hku.hk%2,                  Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                  Dan%Feng%fddd@263.net%1,                  Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                  Hongwei%Wang%whw7809@yahoo.com.cn%1,                  Arnaud%Fontanet%fontanet@pasteur.fr%1,                  Panhe%Zhang%juntianz@yahoo.com.cn%1,                  Sabine%Plancoulaine%plancoulaine@necker.fr%1,                  Fang%Tang%tf4065@sina.com%1,                  Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                  Hong%Yang%anni_yang@yahoo.com%1,                  Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                  Jan H%Richardus%j.richardus@erasmusmc.nl%1,                  J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                  Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                  Jyh-Yuan%Yang%NULL%1,                  Jih-Hui%Lin%NULL%1,                  Cathy S. J.%Fann%NULL%1,                  Valeriy%Osyetrov%NULL%1,                  Chwan-Chuen%King%NULL%1,                  Yi-Ming Arthur%Chen%NULL%1,                  Hsiao-Ling%Chang%NULL%1,                  Hung-Wei%Kuo%NULL%1,                  Fong%Liao%NULL%1,                  Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,         Shu-Yuan%Liang%xref no email%1,         Yi-Ping%Shih%xref no email%1,         Chia-Yen%Chen%xref no email%1,         Yuan-Ming%Lee%xref no email%1,         Ling%Chang%xref no email%1,         Shiao-Ying%Jung%xref no email%1,         Mei-Shang%Ho%xref no email%1,         Kung-Yee%Liang%xref no email%1,         Hour-Young%Chen%xref no email%1,         Yu-Jiun%Chan%xref no email%1,         Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                  Johannes C. Y.%Ching%NULL%1,                  M. S.%Xu%NULL%1,                  Annie N. Y.%Cheung%NULL%1,                  Shea-Ping%Yip%NULL%0,                  Loretta Y. C.%Yam%NULL%1,                  Sik-To%Lai%NULL%2,                  Chung-Ming%Chu%NULL%2,                  Andrew T. Y.%Wong%NULL%1,                  You-Qiang%Song%NULL%1,                  Fang-Ping%Huang%NULL%1,                  Wei%Liu%NULL%1,                  P. H.%Chung%NULL%1,                  G. M.%Leung%NULL%1,                  Eudora Y. D.%Chow%NULL%1,                  Eric Y. T.%Chan%NULL%0,                  Jane C. K.%Chan%NULL%1,                  Hextan%Ngan%NULL%1,                  Paul%Tam%NULL%1,                  Li-Chong%Chan%NULL%0,                  Pak%Sham%NULL%1,                  Vera S. F.%Chan%NULL%1,                  Malik%Peiris%NULL%0,                  Steve C. L.%Lin%NULL%1,                  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                  Gangqiao%Zhou%zhougq@chgb.org.cn%0,                  Wai Po%Chong%h9820905@graduate.hku.hk%1,                  Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                  Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                  Hongxing%Zhang%zhanghx08@126.com%1,                  Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                  Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                  Yun%Zhai%zhaiyun077@tom.com%0,                  Raymond WH%Yung%rwhyung@ha.org.hk%0,                  Eudora Y%Chow%chowe@ha.org.hk%0,                  Ka Leung%Au%klau@ha.org.hk%0,                  Eric YT%Chan%eytchan@ha.org.hk%0,                  Wilina%Lim%wllim@pacific.net.hk%0,                  JS Malik%Peiris%malik@hkucc.hku.hk%0,                  Fuchu%He%hefc@nic.bmi.ac.cn%0,                  Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,         Ingrid%Boehm%xref no email%1,         Paul K. S.%Chan%xref no email%1,         Katherine%Marks%xref no email%1,         Julian W.%Tang%xref no email%1,         David S. C.%Hui%xref no email%1,         Joseph J. Y.%Sung%xref no email%1,         Wayne B.%Dyer%xref no email%1,         Andrew F.%Geczy%xref no email%1,         John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,         N L-S%Tang%xref no email%1,         P K-S%Chan%xref no email%1,         C-Y%Wang%xref no email%1,         D S-C%Hui%xref no email%1,         C%Luk%xref no email%1,         R%Kwok%xref no email%1,         W%Huang%xref no email%1,         J J-Y%Sung%xref no email%1,         Q-P%Kong%xref no email%1,         Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                  Maoti%Wei%weimaoti@yahoo.com.cn%1,                  Yi%Han%halanhan2001sh@163.com%1,                  Keju%Zhang%sinong77@sina.com%1,                  Li%He%wujinhl@163.com%1,                  Zhen%Yang%yzdtchina@yahoo.com.cn%1,                  Bing%Su%tjsubin553@sina.com%1,                  Zhilun%Zhang%zzl718@sina.com.cn%1,                  Yilan%Hu%yougu@yahoo.com.cn%1,                  Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                  Satoru%Itoyama%NULL%0,                  Koichi%Kashiwase%NULL%1,                  Nguyen Chi%Phi%NULL%0,                  Hoang Thuy%Long%NULL%0,                  Le Dang%Ha%NULL%0,                  Vo Van%Ban%NULL%0,                  Bach Khanh%Hoa%NULL%1,                  Nguyen Thi Le%Hang%NULL%1,                  Minako%Hijikata%NULL%0,                  Shinsaku%Sakurada%NULL%1,                  Masahiro%Satake%NULL%1,                  Katsushi%Tokunaga%NULL%1,                  Takehiko%Sasazuki%NULL%0,                  Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                  Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                  Yuling%Shi%sane222@163.com%1,                  Ping%Li%liping@nic.bmi.ac.cn%1,                  Chuanxuan%Liu%renew7306_cn@sina.com%1,                  Qingjun%Ma%maqingjun@sina.com%1,                  Ruifu%Yang%zhangf@big.ac.cn%1,                  Xiaoyi%Wang%happybettylx@hotmail.com%1,                  Lina%zhu%luckina@sina.com%1,                  Xiao%Yang%gaowei@sina.com%1,                  Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                  Mei-Shu%Xu%NULL%2,                  Johannes Chi Yun%Ching%NULL%1,                  Thomas Man Kit%So%NULL%1,                  Sik-To%Lai%NULL%0,                  Chung-Ming%Chu%NULL%0,                  Loretta Y.C.%Yam%NULL%1,                  Andrew T.Y.%Wong%NULL%1,                  Pui Hong%Chung%NULL%1,                  Vera Sau Fong%Chan%NULL%1,                  Chen Lung Steve%Lin%NULL%1,                  Pak Chung%Sham%NULL%1,                  Gabriel M.%Leung%NULL%2,                  Joseph S.M.%Peiris%NULL%1,                  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                  Kelvin Yuen Kwong%Chan%NULL%1,                  Eric Hing Leung%Lee%NULL%1,                  Mei-Shu%Xu%NULL%0,                  Campbell Kam Po%Ting%NULL%1,                  Thomas M. K.%So%NULL%1,                  Pak C.%Sham%NULL%1,                  Gabriel M.%Leung%NULL%0,                  Joseph S. M.%Peiris%NULL%1,                  Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                   Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                   Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                   Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                   Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                   Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                   Pei-Jan%Chen%g8640@ms13.hinet.net%1,                   Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                   Ken Hong%Lim%khlim@seed.net.tw%1,                   Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                   Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                   Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                   Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                   Nelson L S%Tang%NULL%1,                   David S C%Hui%NULL%1,                   Grace T Y%Chung%NULL%1,                   Stephen S C%Chim%NULL%1,                   K C Allen%Chan%NULL%1,                   Ying-man%Sung%NULL%1,                   Louis Y S%Chan%NULL%1,                   Yu-kwan%Tong%NULL%1,                   Wing-shan%Lee%NULL%1,                   Paul K S%Chan%NULL%1,                   Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                   Naoto%Keicho%NULL%3,                   Tran%Quy%NULL%4,                   Nguyen Chi%Phi%NULL%4,                   Hoang Thuy%Long%NULL%4,                   Le Dang%Ha%NULL%4,                   Vo Van%Ban%NULL%4,                   Jun%Ohashi%NULL%1,                   Minako%Hijikata%NULL%4,                   Ikumi%Matsushita%NULL%3,                   Akihiko%Kawana%NULL%1,                   Hideki%Yanai%NULL%3,                   Teruo%Kirikae%NULL%3,                   Tadatoshi%Kuratsuji%NULL%3,                   Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                   Kin-Mang%Lau%NULL%1,                   Libby%Li%NULL%1,                   Suk-Hang%Cheng%NULL%1,                   Wing Y.%Chan%NULL%1,                   Pak K.%Hui%NULL%1,                   Benny%Zee%NULL%1,                   Chi-Bon%Leung%NULL%1,                   Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                   Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                   David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                   Grace TY%Chung%gracechung@cuhk.edu.hk%1,                   Alan KL%Wu%alanklwu@yahoo.com%1,                   Stephen SC%Chim%sschim@cuhk.edu.hk%1,                   Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                   Nelson%Lee%leelsn@yahoo.com%1,                   KW%Choi%kwchoi12@netvigator.com%1,                   YM%Sung%mandysung@cuhk.edu.hk%1,                   Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                   YK%Tong%yktong@cuhk.edu.hk%1,                   ST%Lai%laist@ha.org.hk%1,                   WC%Yu%yuwc@ha.org.hk%1,                   Owen%Tsang%tyotsang@hotmail.com%1,                   YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                   Minako%Hijikata%NULL%0,                   Satoru%Itoyama%NULL%2,                   Tran%Quy%NULL%0,                   Nguyen Chi%Phi%NULL%0,                   Hoang Thuy%Long%NULL%0,                   Le Dang%Ha%NULL%0,                   Vo Van%Ban%NULL%0,                   Ikumi%Matsushita%NULL%0,                   Hideki%Yanai%NULL%0,                   Fumiko%Kirikae%NULL%2,                   Teruo%Kirikae%NULL%0,                   Tadatoshi%Kuratsuji%NULL%0,                   Takehiko%Sasazuki%NULL%0,                   Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                   Kwok Hung%Chan%NULL%1,                   Helen K. W.%Law%NULL%1,                   Gloria H. W.%Tso%NULL%1,                   Eric K. P.%Kong%NULL%1,                   Wilfred H. S.%Wong%NULL%1,                   Yuk Fai%To%NULL%1,                   Raymond W. H.%Yung%NULL%1,                   Eudora Y.%Chow%NULL%1,                   Ka Leung%Au%NULL%2,                   Eric Y. T.%Chan%NULL%2,                   Wilina%Lim%NULL%3,                   Jens C.%Jensenius%NULL%1,                   Malcolm W.%Turner%NULL%1,                   J. S. Malik%Peiris%NULL%1,                   Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                   Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                   Minako%Hijikata%NULL%0,                   Tran%Quy%NULL%0,                   Nguyen Chi%Phi%NULL%0,                   Hoang Thuy%Long%NULL%0,                   Le Dang%Ha%NULL%0,                   Vo Van%Ban%NULL%0,                   Ikumi%Matsushita%NULL%0,                   Hideki%Yanai%NULL%0,                   Fumiko%Kirikae%NULL%0,                   Teruo%Kirikae%NULL%0,                   Tadatoshi%Kuratsuji%NULL%0,                   Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                   J.%Tanner%NULL%1,                   P. K. S.%Chan%NULL%1,                   S.%Biffin%NULL%1,                   W. B.%Dyer%NULL%1,                   A. F.%Geczy%NULL%1,                   J. W.%Tang%NULL%1,                   D. S. C.%Hui%NULL%1,                   J. J. Y.%Sung%NULL%1,                   J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                   Gangqiao%Zhou%NULL%2,                   Lianteng%Zhi%NULL%1,                   Hao%Yang%NULL%1,                   Yun%Zhai%NULL%2,                   Xiaojia%Dong%NULL%1,                   Xiumei%Zhang%NULL%1,                   Xue%Gao%NULL%1,                   Yunping%Zhu%NULL%1,                   Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                   Kelvin Y K%Chan%NULL%1,                   Yongxiong%Chen%NULL%1,                   Leo L M%Poon%NULL%1,                   Annie N Y%Cheung%NULL%1,                   Bojian%Zheng%NULL%1,                   Kwok-Hung%Chan%NULL%1,                   William%Mak%NULL%1,                   Hextan Y S%Ngan%NULL%1,                   Xiaoning%Xu%NULL%1,                   Gavin%Screaton%NULL%1,                   Paul K H%Tam%NULL%1,                   Jonathan M%Austyn%NULL%1,                   Li-Chong%Chan%NULL%2,                   Shea-Ping%Yip%NULL%2,                   Malik%Peiris%NULL%2,                   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                   Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                   WK Eddie%Ip%WIP@partners.org%1,                   Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                   Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                   Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                   Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                   Raymond WH%Yung%rwhyung@ha.org.hk%2,                   Eudora Y%Chow%chowe@ha.org.hk%2,                   KL%Au%klau@ha.org.hk%1,                   Eric YT%Chan%eytchan@ha.org.hk%2,                   Wilina%Lim%wllim@pacific.net.hk%0,                   JS Malik%Peiris%malik@hkucc.hku.hk%2,                   Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                   Dan%Feng%fddd@263.net%1,                   Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                   Hongwei%Wang%whw7809@yahoo.com.cn%1,                   Arnaud%Fontanet%fontanet@pasteur.fr%1,                   Panhe%Zhang%juntianz@yahoo.com.cn%1,                   Sabine%Plancoulaine%plancoulaine@necker.fr%1,                   Fang%Tang%tf4065@sina.com%1,                   Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                   Hong%Yang%anni_yang@yahoo.com%1,                   Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                   Jan H%Richardus%j.richardus@erasmusmc.nl%1,                   J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                   Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                   Jyh-Yuan%Yang%NULL%1,                   Jih-Hui%Lin%NULL%1,                   Cathy S. J.%Fann%NULL%1,                   Valeriy%Osyetrov%NULL%1,                   Chwan-Chuen%King%NULL%1,                   Yi-Ming Arthur%Chen%NULL%1,                   Hsiao-Ling%Chang%NULL%1,                   Hung-Wei%Kuo%NULL%1,                   Fong%Liao%NULL%1,                   Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,          Shu-Yuan%Liang%xref no email%1,          Yi-Ping%Shih%xref no email%1,          Chia-Yen%Chen%xref no email%1,          Yuan-Ming%Lee%xref no email%1,          Ling%Chang%xref no email%1,          Shiao-Ying%Jung%xref no email%1,          Mei-Shang%Ho%xref no email%1,          Kung-Yee%Liang%xref no email%1,          Hour-Young%Chen%xref no email%1,          Yu-Jiun%Chan%xref no email%1,          Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                   Johannes C. Y.%Ching%NULL%1,                   M. S.%Xu%NULL%1,                   Annie N. Y.%Cheung%NULL%1,                   Shea-Ping%Yip%NULL%0,                   Loretta Y. C.%Yam%NULL%1,                   Sik-To%Lai%NULL%2,                   Chung-Ming%Chu%NULL%2,                   Andrew T. Y.%Wong%NULL%1,                   You-Qiang%Song%NULL%1,                   Fang-Ping%Huang%NULL%1,                   Wei%Liu%NULL%1,                   P. H.%Chung%NULL%1,                   G. M.%Leung%NULL%1,                   Eudora Y. D.%Chow%NULL%1,                   Eric Y. T.%Chan%NULL%0,                   Jane C. K.%Chan%NULL%1,                   Hextan%Ngan%NULL%1,                   Paul%Tam%NULL%1,                   Li-Chong%Chan%NULL%0,                   Pak%Sham%NULL%1,                   Vera S. F.%Chan%NULL%1,                   Malik%Peiris%NULL%0,                   Steve C. L.%Lin%NULL%1,                   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                   Gangqiao%Zhou%zhougq@chgb.org.cn%0,                   Wai Po%Chong%h9820905@graduate.hku.hk%1,                   Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                   Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                   Hongxing%Zhang%zhanghx08@126.com%1,                   Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                   Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                   Yun%Zhai%zhaiyun077@tom.com%0,                   Raymond WH%Yung%rwhyung@ha.org.hk%0,                   Eudora Y%Chow%chowe@ha.org.hk%0,                   Ka Leung%Au%klau@ha.org.hk%0,                   Eric YT%Chan%eytchan@ha.org.hk%0,                   Wilina%Lim%wllim@pacific.net.hk%0,                   JS Malik%Peiris%malik@hkucc.hku.hk%0,                   Fuchu%He%hefc@nic.bmi.ac.cn%0,                   Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,          Ingrid%Boehm%xref no email%1,          Paul K. S.%Chan%xref no email%1,          Katherine%Marks%xref no email%1,          Julian W.%Tang%xref no email%1,          David S. C.%Hui%xref no email%1,          Joseph J. Y.%Sung%xref no email%1,          Wayne B.%Dyer%xref no email%1,          Andrew F.%Geczy%xref no email%1,          John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,          N L-S%Tang%xref no email%1,          P K-S%Chan%xref no email%1,          C-Y%Wang%xref no email%1,          D S-C%Hui%xref no email%1,          C%Luk%xref no email%1,          R%Kwok%xref no email%1,          W%Huang%xref no email%1,          J J-Y%Sung%xref no email%1,          Q-P%Kong%xref no email%1,          Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                   Maoti%Wei%weimaoti@yahoo.com.cn%1,                   Yi%Han%halanhan2001sh@163.com%1,                   Keju%Zhang%sinong77@sina.com%1,                   Li%He%wujinhl@163.com%1,                   Zhen%Yang%yzdtchina@yahoo.com.cn%1,                   Bing%Su%tjsubin553@sina.com%1,                   Zhilun%Zhang%zzl718@sina.com.cn%1,                   Yilan%Hu%yougu@yahoo.com.cn%1,                   Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                   Satoru%Itoyama%NULL%0,                   Koichi%Kashiwase%NULL%1,                   Nguyen Chi%Phi%NULL%0,                   Hoang Thuy%Long%NULL%0,                   Le Dang%Ha%NULL%0,                   Vo Van%Ban%NULL%0,                   Bach Khanh%Hoa%NULL%1,                   Nguyen Thi Le%Hang%NULL%1,                   Minako%Hijikata%NULL%0,                   Shinsaku%Sakurada%NULL%1,                   Masahiro%Satake%NULL%1,                   Katsushi%Tokunaga%NULL%1,                   Takehiko%Sasazuki%NULL%0,                   Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                   Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                   Yuling%Shi%sane222@163.com%1,                   Ping%Li%liping@nic.bmi.ac.cn%1,                   Chuanxuan%Liu%renew7306_cn@sina.com%1,                   Qingjun%Ma%maqingjun@sina.com%1,                   Ruifu%Yang%zhangf@big.ac.cn%1,                   Xiaoyi%Wang%happybettylx@hotmail.com%1,                   Lina%zhu%luckina@sina.com%1,                   Xiao%Yang%gaowei@sina.com%1,                   Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                   Mei-Shu%Xu%NULL%2,                   Johannes Chi Yun%Ching%NULL%1,                   Thomas Man Kit%So%NULL%1,                   Sik-To%Lai%NULL%0,                   Chung-Ming%Chu%NULL%0,                   Loretta Y.C.%Yam%NULL%1,                   Andrew T.Y.%Wong%NULL%1,                   Pui Hong%Chung%NULL%1,                   Vera Sau Fong%Chan%NULL%1,                   Chen Lung Steve%Lin%NULL%1,                   Pak Chung%Sham%NULL%1,                   Gabriel M.%Leung%NULL%2,                   Joseph S.M.%Peiris%NULL%1,                   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                   Kelvin Yuen Kwong%Chan%NULL%1,                   Eric Hing Leung%Lee%NULL%1,                   Mei-Shu%Xu%NULL%0,                   Campbell Kam Po%Ting%NULL%1,                   Thomas M. K.%So%NULL%1,                   Pak C.%Sham%NULL%1,                   Gabriel M.%Leung%NULL%0,                   Joseph S. M.%Peiris%NULL%1,                   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +2000,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1885,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -1914,7 +2058,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1943,7 +2087,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1972,7 +2116,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2001,7 +2145,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2030,7 +2174,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2059,7 +2203,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2088,7 +2232,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2117,7 +2261,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2146,7 +2290,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2175,7 +2319,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2204,7 +2348,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2233,7 +2377,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2262,7 +2406,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2291,7 +2435,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2320,7 +2464,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2349,7 +2493,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2378,7 +2522,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2407,7 +2551,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2436,7 +2580,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2465,7 +2609,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2494,7 +2638,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2523,7 +2667,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="502">
   <si>
     <t>Doi</t>
   </si>
@@ -1650,6 +1650,78 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                   Kelvin Yuen Kwong%Chan%NULL%1,                   Eric Hing Leung%Lee%NULL%1,                   Mei-Shu%Xu%NULL%0,                   Campbell Kam Po%Ting%NULL%1,                   Thomas M. K.%So%NULL%1,                   Pak C.%Sham%NULL%1,                   Gabriel M.%Leung%NULL%0,                   Joseph S. M.%Peiris%NULL%1,                   Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                    Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                    Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                    Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                    Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                    Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                    Pei-Jan%Chen%g8640@ms13.hinet.net%1,                    Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                    Ken Hong%Lim%khlim@seed.net.tw%1,                    Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                    Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                    Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                    Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                    Nelson L S%Tang%NULL%1,                    David S C%Hui%NULL%1,                    Grace T Y%Chung%NULL%1,                    Stephen S C%Chim%NULL%1,                    K C Allen%Chan%NULL%1,                    Ying-man%Sung%NULL%1,                    Louis Y S%Chan%NULL%1,                    Yu-kwan%Tong%NULL%1,                    Wing-shan%Lee%NULL%1,                    Paul K S%Chan%NULL%1,                    Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                    Naoto%Keicho%NULL%3,                    Tran%Quy%NULL%4,                    Nguyen Chi%Phi%NULL%4,                    Hoang Thuy%Long%NULL%4,                    Le Dang%Ha%NULL%4,                    Vo Van%Ban%NULL%4,                    Jun%Ohashi%NULL%1,                    Minako%Hijikata%NULL%4,                    Ikumi%Matsushita%NULL%3,                    Akihiko%Kawana%NULL%1,                    Hideki%Yanai%NULL%3,                    Teruo%Kirikae%NULL%3,                    Tadatoshi%Kuratsuji%NULL%3,                    Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                    Kin-Mang%Lau%NULL%1,                    Libby%Li%NULL%1,                    Suk-Hang%Cheng%NULL%1,                    Wing Y.%Chan%NULL%1,                    Pak K.%Hui%NULL%1,                    Benny%Zee%NULL%1,                    Chi-Bon%Leung%NULL%1,                    Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                    Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                    David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                    Grace TY%Chung%gracechung@cuhk.edu.hk%1,                    Alan KL%Wu%alanklwu@yahoo.com%1,                    Stephen SC%Chim%sschim@cuhk.edu.hk%1,                    Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                    Nelson%Lee%leelsn@yahoo.com%1,                    KW%Choi%kwchoi12@netvigator.com%1,                    YM%Sung%mandysung@cuhk.edu.hk%1,                    Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                    YK%Tong%yktong@cuhk.edu.hk%1,                    ST%Lai%laist@ha.org.hk%1,                    WC%Yu%yuwc@ha.org.hk%1,                    Owen%Tsang%tyotsang@hotmail.com%1,                    YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                    Minako%Hijikata%NULL%0,                    Satoru%Itoyama%NULL%2,                    Tran%Quy%NULL%0,                    Nguyen Chi%Phi%NULL%0,                    Hoang Thuy%Long%NULL%0,                    Le Dang%Ha%NULL%0,                    Vo Van%Ban%NULL%0,                    Ikumi%Matsushita%NULL%0,                    Hideki%Yanai%NULL%0,                    Fumiko%Kirikae%NULL%2,                    Teruo%Kirikae%NULL%0,                    Tadatoshi%Kuratsuji%NULL%0,                    Takehiko%Sasazuki%NULL%0,                    Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                    Kwok Hung%Chan%NULL%1,                    Helen K. W.%Law%NULL%1,                    Gloria H. W.%Tso%NULL%1,                    Eric K. P.%Kong%NULL%1,                    Wilfred H. S.%Wong%NULL%1,                    Yuk Fai%To%NULL%1,                    Raymond W. H.%Yung%NULL%1,                    Eudora Y.%Chow%NULL%1,                    Ka Leung%Au%NULL%2,                    Eric Y. T.%Chan%NULL%2,                    Wilina%Lim%NULL%3,                    Jens C.%Jensenius%NULL%1,                    Malcolm W.%Turner%NULL%1,                    J. S. Malik%Peiris%NULL%1,                    Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                    Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                    Minako%Hijikata%NULL%0,                    Tran%Quy%NULL%0,                    Nguyen Chi%Phi%NULL%0,                    Hoang Thuy%Long%NULL%0,                    Le Dang%Ha%NULL%0,                    Vo Van%Ban%NULL%0,                    Ikumi%Matsushita%NULL%0,                    Hideki%Yanai%NULL%0,                    Fumiko%Kirikae%NULL%0,                    Teruo%Kirikae%NULL%0,                    Tadatoshi%Kuratsuji%NULL%0,                    Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                    J.%Tanner%NULL%1,                    P. K. S.%Chan%NULL%1,                    S.%Biffin%NULL%1,                    W. B.%Dyer%NULL%1,                    A. F.%Geczy%NULL%1,                    J. W.%Tang%NULL%1,                    D. S. C.%Hui%NULL%1,                    J. J. Y.%Sung%NULL%1,                    J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                    Gangqiao%Zhou%NULL%2,                    Lianteng%Zhi%NULL%1,                    Hao%Yang%NULL%1,                    Yun%Zhai%NULL%2,                    Xiaojia%Dong%NULL%1,                    Xiumei%Zhang%NULL%1,                    Xue%Gao%NULL%1,                    Yunping%Zhu%NULL%1,                    Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                    Kelvin Y K%Chan%NULL%1,                    Yongxiong%Chen%NULL%1,                    Leo L M%Poon%NULL%1,                    Annie N Y%Cheung%NULL%1,                    Bojian%Zheng%NULL%1,                    Kwok-Hung%Chan%NULL%1,                    William%Mak%NULL%1,                    Hextan Y S%Ngan%NULL%1,                    Xiaoning%Xu%NULL%1,                    Gavin%Screaton%NULL%1,                    Paul K H%Tam%NULL%1,                    Jonathan M%Austyn%NULL%1,                    Li-Chong%Chan%NULL%2,                    Shea-Ping%Yip%NULL%2,                    Malik%Peiris%NULL%2,                    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                    Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                    WK Eddie%Ip%WIP@partners.org%1,                    Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                    Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                    Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                    Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                    Raymond WH%Yung%rwhyung@ha.org.hk%2,                    Eudora Y%Chow%chowe@ha.org.hk%2,                    KL%Au%klau@ha.org.hk%1,                    Eric YT%Chan%eytchan@ha.org.hk%2,                    Wilina%Lim%wllim@pacific.net.hk%0,                    JS Malik%Peiris%malik@hkucc.hku.hk%2,                    Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                    Dan%Feng%fddd@263.net%1,                    Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                    Hongwei%Wang%whw7809@yahoo.com.cn%1,                    Arnaud%Fontanet%fontanet@pasteur.fr%1,                    Panhe%Zhang%juntianz@yahoo.com.cn%1,                    Sabine%Plancoulaine%plancoulaine@necker.fr%1,                    Fang%Tang%tf4065@sina.com%1,                    Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                    Hong%Yang%anni_yang@yahoo.com%1,                    Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                    Jan H%Richardus%j.richardus@erasmusmc.nl%1,                    J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                    Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                    Jyh-Yuan%Yang%NULL%1,                    Jih-Hui%Lin%NULL%1,                    Cathy S. J.%Fann%NULL%1,                    Valeriy%Osyetrov%NULL%1,                    Chwan-Chuen%King%NULL%1,                    Yi-Ming Arthur%Chen%NULL%1,                    Hsiao-Ling%Chang%NULL%1,                    Hung-Wei%Kuo%NULL%1,                    Fong%Liao%NULL%1,                    Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,           Shu-Yuan%Liang%xref no email%1,           Yi-Ping%Shih%xref no email%1,           Chia-Yen%Chen%xref no email%1,           Yuan-Ming%Lee%xref no email%1,           Ling%Chang%xref no email%1,           Shiao-Ying%Jung%xref no email%1,           Mei-Shang%Ho%xref no email%1,           Kung-Yee%Liang%xref no email%1,           Hour-Young%Chen%xref no email%1,           Yu-Jiun%Chan%xref no email%1,           Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                    Johannes C. Y.%Ching%NULL%1,                    M. S.%Xu%NULL%1,                    Annie N. Y.%Cheung%NULL%1,                    Shea-Ping%Yip%NULL%0,                    Loretta Y. C.%Yam%NULL%1,                    Sik-To%Lai%NULL%2,                    Chung-Ming%Chu%NULL%2,                    Andrew T. Y.%Wong%NULL%1,                    You-Qiang%Song%NULL%1,                    Fang-Ping%Huang%NULL%1,                    Wei%Liu%NULL%1,                    P. H.%Chung%NULL%1,                    G. M.%Leung%NULL%1,                    Eudora Y. D.%Chow%NULL%1,                    Eric Y. T.%Chan%NULL%0,                    Jane C. K.%Chan%NULL%1,                    Hextan%Ngan%NULL%1,                    Paul%Tam%NULL%1,                    Li-Chong%Chan%NULL%0,                    Pak%Sham%NULL%1,                    Vera S. F.%Chan%NULL%1,                    Malik%Peiris%NULL%0,                    Steve C. L.%Lin%NULL%1,                    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                    Gangqiao%Zhou%zhougq@chgb.org.cn%0,                    Wai Po%Chong%h9820905@graduate.hku.hk%1,                    Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                    Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                    Hongxing%Zhang%zhanghx08@126.com%1,                    Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                    Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                    Yun%Zhai%zhaiyun077@tom.com%0,                    Raymond WH%Yung%rwhyung@ha.org.hk%0,                    Eudora Y%Chow%chowe@ha.org.hk%0,                    Ka Leung%Au%klau@ha.org.hk%0,                    Eric YT%Chan%eytchan@ha.org.hk%0,                    Wilina%Lim%wllim@pacific.net.hk%0,                    JS Malik%Peiris%malik@hkucc.hku.hk%0,                    Fuchu%He%hefc@nic.bmi.ac.cn%0,                    Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,           Ingrid%Boehm%xref no email%1,           Paul K. S.%Chan%xref no email%1,           Katherine%Marks%xref no email%1,           Julian W.%Tang%xref no email%1,           David S. C.%Hui%xref no email%1,           Joseph J. Y.%Sung%xref no email%1,           Wayne B.%Dyer%xref no email%1,           Andrew F.%Geczy%xref no email%1,           John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,           N L-S%Tang%xref no email%1,           P K-S%Chan%xref no email%1,           C-Y%Wang%xref no email%1,           D S-C%Hui%xref no email%1,           C%Luk%xref no email%1,           R%Kwok%xref no email%1,           W%Huang%xref no email%1,           J J-Y%Sung%xref no email%1,           Q-P%Kong%xref no email%1,           Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                    Maoti%Wei%weimaoti@yahoo.com.cn%1,                    Yi%Han%halanhan2001sh@163.com%1,                    Keju%Zhang%sinong77@sina.com%1,                    Li%He%wujinhl@163.com%1,                    Zhen%Yang%yzdtchina@yahoo.com.cn%1,                    Bing%Su%tjsubin553@sina.com%1,                    Zhilun%Zhang%zzl718@sina.com.cn%1,                    Yilan%Hu%yougu@yahoo.com.cn%1,                    Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                    Satoru%Itoyama%NULL%0,                    Koichi%Kashiwase%NULL%1,                    Nguyen Chi%Phi%NULL%0,                    Hoang Thuy%Long%NULL%0,                    Le Dang%Ha%NULL%0,                    Vo Van%Ban%NULL%0,                    Bach Khanh%Hoa%NULL%1,                    Nguyen Thi Le%Hang%NULL%1,                    Minako%Hijikata%NULL%0,                    Shinsaku%Sakurada%NULL%1,                    Masahiro%Satake%NULL%1,                    Katsushi%Tokunaga%NULL%1,                    Takehiko%Sasazuki%NULL%0,                    Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                    Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                    Yuling%Shi%sane222@163.com%1,                    Ping%Li%liping@nic.bmi.ac.cn%1,                    Chuanxuan%Liu%renew7306_cn@sina.com%1,                    Qingjun%Ma%maqingjun@sina.com%1,                    Ruifu%Yang%zhangf@big.ac.cn%1,                    Xiaoyi%Wang%happybettylx@hotmail.com%1,                    Lina%zhu%luckina@sina.com%1,                    Xiao%Yang%gaowei@sina.com%1,                    Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                    Mei-Shu%Xu%NULL%2,                    Johannes Chi Yun%Ching%NULL%1,                    Thomas Man Kit%So%NULL%1,                    Sik-To%Lai%NULL%0,                    Chung-Ming%Chu%NULL%0,                    Loretta Y.C.%Yam%NULL%1,                    Andrew T.Y.%Wong%NULL%1,                    Pui Hong%Chung%NULL%1,                    Vera Sau Fong%Chan%NULL%1,                    Chen Lung Steve%Lin%NULL%1,                    Pak Chung%Sham%NULL%1,                    Gabriel M.%Leung%NULL%2,                    Joseph S.M.%Peiris%NULL%1,                    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                    Kelvin Yuen Kwong%Chan%NULL%1,                    Eric Hing Leung%Lee%NULL%1,                    Mei-Shu%Xu%NULL%0,                    Campbell Kam Po%Ting%NULL%1,                    Thomas M. K.%So%NULL%1,                    Pak C.%Sham%NULL%1,                    Gabriel M.%Leung%NULL%0,                    Joseph S. M.%Peiris%NULL%1,                    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2029,7 +2101,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2058,7 +2130,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2087,7 +2159,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2116,7 +2188,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2145,7 +2217,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2174,7 +2246,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2203,7 +2275,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2232,7 +2304,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2261,7 +2333,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2290,7 +2362,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2319,7 +2391,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2348,7 +2420,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2377,7 +2449,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2406,7 +2478,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2435,7 +2507,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2464,7 +2536,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2493,7 +2565,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2522,7 +2594,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2551,7 +2623,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2580,7 +2652,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2609,7 +2681,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2638,7 +2710,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2667,7 +2739,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="530">
   <si>
     <t>Doi</t>
   </si>
@@ -1722,6 +1722,90 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                    Kelvin Yuen Kwong%Chan%NULL%1,                    Eric Hing Leung%Lee%NULL%1,                    Mei-Shu%Xu%NULL%0,                    Campbell Kam Po%Ting%NULL%1,                    Thomas M. K.%So%NULL%1,                    Pak C.%Sham%NULL%1,                    Gabriel M.%Leung%NULL%0,                    Joseph S. M.%Peiris%NULL%1,                    Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                     Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                     Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                     Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                     Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                     Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                     Pei-Jan%Chen%g8640@ms13.hinet.net%1,                     Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                     Ken Hong%Lim%khlim@seed.net.tw%1,                     Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                     Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                     Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                     Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                     Nelson L S%Tang%NULL%1,                     David S C%Hui%NULL%1,                     Grace T Y%Chung%NULL%1,                     Stephen S C%Chim%NULL%1,                     K C Allen%Chan%NULL%1,                     Ying-man%Sung%NULL%1,                     Louis Y S%Chan%NULL%1,                     Yu-kwan%Tong%NULL%1,                     Wing-shan%Lee%NULL%1,                     Paul K S%Chan%NULL%1,                     Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                     Naoto%Keicho%NULL%3,                     Tran%Quy%NULL%4,                     Nguyen Chi%Phi%NULL%4,                     Hoang Thuy%Long%NULL%4,                     Le Dang%Ha%NULL%4,                     Vo Van%Ban%NULL%4,                     Jun%Ohashi%NULL%1,                     Minako%Hijikata%NULL%4,                     Ikumi%Matsushita%NULL%3,                     Akihiko%Kawana%NULL%1,                     Hideki%Yanai%NULL%3,                     Teruo%Kirikae%NULL%3,                     Tadatoshi%Kuratsuji%NULL%3,                     Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                     Kin-Mang%Lau%NULL%1,                     Libby%Li%NULL%1,                     Suk-Hang%Cheng%NULL%1,                     Wing Y.%Chan%NULL%1,                     Pak K.%Hui%NULL%1,                     Benny%Zee%NULL%1,                     Chi-Bon%Leung%NULL%1,                     Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                     Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                     David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                     Grace TY%Chung%gracechung@cuhk.edu.hk%1,                     Alan KL%Wu%alanklwu@yahoo.com%1,                     Stephen SC%Chim%sschim@cuhk.edu.hk%1,                     Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                     Nelson%Lee%leelsn@yahoo.com%1,                     KW%Choi%kwchoi12@netvigator.com%1,                     YM%Sung%mandysung@cuhk.edu.hk%1,                     Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                     YK%Tong%yktong@cuhk.edu.hk%1,                     ST%Lai%laist@ha.org.hk%1,                     WC%Yu%yuwc@ha.org.hk%1,                     Owen%Tsang%tyotsang@hotmail.com%1,                     YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                     Minako%Hijikata%NULL%0,                     Satoru%Itoyama%NULL%2,                     Tran%Quy%NULL%0,                     Nguyen Chi%Phi%NULL%0,                     Hoang Thuy%Long%NULL%0,                     Le Dang%Ha%NULL%0,                     Vo Van%Ban%NULL%0,                     Ikumi%Matsushita%NULL%0,                     Hideki%Yanai%NULL%0,                     Fumiko%Kirikae%NULL%2,                     Teruo%Kirikae%NULL%0,                     Tadatoshi%Kuratsuji%NULL%0,                     Takehiko%Sasazuki%NULL%0,                     Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                     Kwok Hung%Chan%NULL%1,                     Helen K. W.%Law%NULL%1,                     Gloria H. W.%Tso%NULL%1,                     Eric K. P.%Kong%NULL%1,                     Wilfred H. S.%Wong%NULL%1,                     Yuk Fai%To%NULL%1,                     Raymond W. H.%Yung%NULL%1,                     Eudora Y.%Chow%NULL%1,                     Ka Leung%Au%NULL%2,                     Eric Y. T.%Chan%NULL%2,                     Wilina%Lim%NULL%3,                     Jens C.%Jensenius%NULL%1,                     Malcolm W.%Turner%NULL%1,                     J. S. Malik%Peiris%NULL%1,                     Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                     Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                     Minako%Hijikata%NULL%0,                     Tran%Quy%NULL%0,                     Nguyen Chi%Phi%NULL%0,                     Hoang Thuy%Long%NULL%0,                     Le Dang%Ha%NULL%0,                     Vo Van%Ban%NULL%0,                     Ikumi%Matsushita%NULL%0,                     Hideki%Yanai%NULL%0,                     Fumiko%Kirikae%NULL%0,                     Teruo%Kirikae%NULL%0,                     Tadatoshi%Kuratsuji%NULL%0,                     Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                     J.%Tanner%NULL%1,                     P. K. S.%Chan%NULL%1,                     S.%Biffin%NULL%1,                     W. B.%Dyer%NULL%1,                     A. F.%Geczy%NULL%1,                     J. W.%Tang%NULL%1,                     D. S. C.%Hui%NULL%1,                     J. J. Y.%Sung%NULL%1,                     J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                     Gangqiao%Zhou%NULL%2,                     Lianteng%Zhi%NULL%1,                     Hao%Yang%NULL%1,                     Yun%Zhai%NULL%2,                     Xiaojia%Dong%NULL%1,                     Xiumei%Zhang%NULL%1,                     Xue%Gao%NULL%1,                     Yunping%Zhu%NULL%1,                     Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                     Kelvin Y K%Chan%NULL%1,                     Yongxiong%Chen%NULL%1,                     Leo L M%Poon%NULL%1,                     Annie N Y%Cheung%NULL%1,                     Bojian%Zheng%NULL%1,                     Kwok-Hung%Chan%NULL%1,                     William%Mak%NULL%1,                     Hextan Y S%Ngan%NULL%1,                     Xiaoning%Xu%NULL%1,                     Gavin%Screaton%NULL%1,                     Paul K H%Tam%NULL%1,                     Jonathan M%Austyn%NULL%1,                     Li-Chong%Chan%NULL%2,                     Shea-Ping%Yip%NULL%2,                     Malik%Peiris%NULL%2,                     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                     Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                     WK Eddie%Ip%WIP@partners.org%1,                     Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                     Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                     Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                     Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                     Raymond WH%Yung%rwhyung@ha.org.hk%2,                     Eudora Y%Chow%chowe@ha.org.hk%2,                     KL%Au%klau@ha.org.hk%1,                     Eric YT%Chan%eytchan@ha.org.hk%2,                     Wilina%Lim%wllim@pacific.net.hk%0,                     JS Malik%Peiris%malik@hkucc.hku.hk%2,                     Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                     Dan%Feng%fddd@263.net%1,                     Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                     Hongwei%Wang%whw7809@yahoo.com.cn%1,                     Arnaud%Fontanet%fontanet@pasteur.fr%1,                     Panhe%Zhang%juntianz@yahoo.com.cn%1,                     Sabine%Plancoulaine%plancoulaine@necker.fr%1,                     Fang%Tang%tf4065@sina.com%1,                     Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                     Hong%Yang%anni_yang@yahoo.com%1,                     Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                     Jan H%Richardus%j.richardus@erasmusmc.nl%1,                     J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                     Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                     Jyh-Yuan%Yang%NULL%1,                     Jih-Hui%Lin%NULL%1,                     Cathy S. J.%Fann%NULL%1,                     Valeriy%Osyetrov%NULL%1,                     Chwan-Chuen%King%NULL%1,                     Yi-Ming Arthur%Chen%NULL%1,                     Hsiao-Ling%Chang%NULL%1,                     Hung-Wei%Kuo%NULL%1,                     Fong%Liao%NULL%1,                     Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,            Shu-Yuan%Liang%xref no email%1,            Yi-Ping%Shih%xref no email%1,            Chia-Yen%Chen%xref no email%1,            Yuan-Ming%Lee%xref no email%1,            Ling%Chang%xref no email%1,            Shiao-Ying%Jung%xref no email%1,            Mei-Shang%Ho%xref no email%1,            Kung-Yee%Liang%xref no email%1,            Hour-Young%Chen%xref no email%1,            Yu-Jiun%Chan%xref no email%1,            Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                     Johannes C. Y.%Ching%NULL%1,                     M. S.%Xu%NULL%1,                     Annie N. Y.%Cheung%NULL%1,                     Shea-Ping%Yip%NULL%0,                     Loretta Y. C.%Yam%NULL%1,                     Sik-To%Lai%NULL%2,                     Chung-Ming%Chu%NULL%2,                     Andrew T. Y.%Wong%NULL%1,                     You-Qiang%Song%NULL%1,                     Fang-Ping%Huang%NULL%1,                     Wei%Liu%NULL%1,                     P. H.%Chung%NULL%1,                     G. M.%Leung%NULL%1,                     Eudora Y. D.%Chow%NULL%1,                     Eric Y. T.%Chan%NULL%0,                     Jane C. K.%Chan%NULL%1,                     Hextan%Ngan%NULL%1,                     Paul%Tam%NULL%1,                     Li-Chong%Chan%NULL%0,                     Pak%Sham%NULL%1,                     Vera S. F.%Chan%NULL%1,                     Malik%Peiris%NULL%0,                     Steve C. L.%Lin%NULL%1,                     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                     Gangqiao%Zhou%zhougq@chgb.org.cn%0,                     Wai Po%Chong%h9820905@graduate.hku.hk%1,                     Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                     Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                     Hongxing%Zhang%zhanghx08@126.com%1,                     Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                     Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                     Yun%Zhai%zhaiyun077@tom.com%0,                     Raymond WH%Yung%rwhyung@ha.org.hk%0,                     Eudora Y%Chow%chowe@ha.org.hk%0,                     Ka Leung%Au%klau@ha.org.hk%0,                     Eric YT%Chan%eytchan@ha.org.hk%0,                     Wilina%Lim%wllim@pacific.net.hk%0,                     JS Malik%Peiris%malik@hkucc.hku.hk%0,                     Fuchu%He%hefc@nic.bmi.ac.cn%0,                     Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,            Ingrid%Boehm%xref no email%1,            Paul K. S.%Chan%xref no email%1,            Katherine%Marks%xref no email%1,            Julian W.%Tang%xref no email%1,            David S. C.%Hui%xref no email%1,            Joseph J. Y.%Sung%xref no email%1,            Wayne B.%Dyer%xref no email%1,            Andrew F.%Geczy%xref no email%1,            John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,            N L-S%Tang%xref no email%1,            P K-S%Chan%xref no email%1,            C-Y%Wang%xref no email%1,            D S-C%Hui%xref no email%1,            C%Luk%xref no email%1,            R%Kwok%xref no email%1,            W%Huang%xref no email%1,            J J-Y%Sung%xref no email%1,            Q-P%Kong%xref no email%1,            Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                     Maoti%Wei%weimaoti@yahoo.com.cn%1,                     Yi%Han%halanhan2001sh@163.com%1,                     Keju%Zhang%sinong77@sina.com%1,                     Li%He%wujinhl@163.com%1,                     Zhen%Yang%yzdtchina@yahoo.com.cn%1,                     Bing%Su%tjsubin553@sina.com%1,                     Zhilun%Zhang%zzl718@sina.com.cn%1,                     Yilan%Hu%yougu@yahoo.com.cn%1,                     Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                     Satoru%Itoyama%NULL%0,                     Koichi%Kashiwase%NULL%1,                     Nguyen Chi%Phi%NULL%0,                     Hoang Thuy%Long%NULL%0,                     Le Dang%Ha%NULL%0,                     Vo Van%Ban%NULL%0,                     Bach Khanh%Hoa%NULL%1,                     Nguyen Thi Le%Hang%NULL%1,                     Minako%Hijikata%NULL%0,                     Shinsaku%Sakurada%NULL%1,                     Masahiro%Satake%NULL%1,                     Katsushi%Tokunaga%NULL%1,                     Takehiko%Sasazuki%NULL%0,                     Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                     Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                     Yuling%Shi%sane222@163.com%1,                     Ping%Li%liping@nic.bmi.ac.cn%1,                     Chuanxuan%Liu%renew7306_cn@sina.com%1,                     Qingjun%Ma%maqingjun@sina.com%1,                     Ruifu%Yang%zhangf@big.ac.cn%1,                     Xiaoyi%Wang%happybettylx@hotmail.com%1,                     Lina%zhu%luckina@sina.com%1,                     Xiao%Yang%gaowei@sina.com%1,                     Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                     Mei-Shu%Xu%NULL%2,                     Johannes Chi Yun%Ching%NULL%1,                     Thomas Man Kit%So%NULL%1,                     Sik-To%Lai%NULL%0,                     Chung-Ming%Chu%NULL%0,                     Loretta Y.C.%Yam%NULL%1,                     Andrew T.Y.%Wong%NULL%1,                     Pui Hong%Chung%NULL%1,                     Vera Sau Fong%Chan%NULL%1,                     Chen Lung Steve%Lin%NULL%1,                     Pak Chung%Sham%NULL%1,                     Gabriel M.%Leung%NULL%2,                     Joseph S.M.%Peiris%NULL%1,                     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                     Kelvin Yuen Kwong%Chan%NULL%1,                     Eric Hing Leung%Lee%NULL%1,                     Mei-Shu%Xu%NULL%0,                     Campbell Kam Po%Ting%NULL%1,                     Thomas M. K.%So%NULL%1,                     Pak C.%Sham%NULL%1,                     Gabriel M.%Leung%NULL%0,                     Joseph S. M.%Peiris%NULL%1,                     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2156,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2084,7 +2168,7 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2101,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2113,7 +2197,7 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2130,7 +2214,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2142,7 +2226,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2159,7 +2243,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2171,7 +2255,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,7 +2272,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2200,7 +2284,7 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2217,7 +2301,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2229,7 +2313,7 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2246,7 +2330,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2258,7 +2342,7 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2275,7 +2359,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2287,7 +2371,7 @@
         <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2304,7 +2388,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2316,7 +2400,7 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2333,7 +2417,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2345,7 +2429,7 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2362,7 +2446,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2374,7 +2458,7 @@
         <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2391,7 +2475,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2403,7 +2487,7 @@
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2420,7 +2504,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2432,7 +2516,7 @@
         <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2449,7 +2533,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2461,7 +2545,7 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2478,7 +2562,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2490,7 +2574,7 @@
         <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2507,7 +2591,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2519,7 +2603,7 @@
         <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2536,7 +2620,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2548,7 +2632,7 @@
         <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2565,7 +2649,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2577,7 +2661,7 @@
         <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2594,7 +2678,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2606,7 +2690,7 @@
         <v>256</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2623,7 +2707,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2635,7 +2719,7 @@
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2652,7 +2736,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2664,7 +2748,7 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2681,7 +2765,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2693,7 +2777,7 @@
         <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2710,7 +2794,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2722,7 +2806,7 @@
         <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2739,7 +2823,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>
@@ -2751,7 +2835,7 @@
         <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="554">
   <si>
     <t>Doi</t>
   </si>
@@ -1806,6 +1806,78 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                     Kelvin Yuen Kwong%Chan%NULL%1,                     Eric Hing Leung%Lee%NULL%1,                     Mei-Shu%Xu%NULL%0,                     Campbell Kam Po%Ting%NULL%1,                     Thomas M. K.%So%NULL%1,                     Pak C.%Sham%NULL%1,                     Gabriel M.%Leung%NULL%0,                     Joseph S. M.%Peiris%NULL%1,                     Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                      Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                      Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                      Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                      Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                      Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                      Pei-Jan%Chen%g8640@ms13.hinet.net%1,                      Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                      Ken Hong%Lim%khlim@seed.net.tw%1,                      Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                      Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                      Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                      Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                      Nelson L S%Tang%NULL%1,                      David S C%Hui%NULL%1,                      Grace T Y%Chung%NULL%1,                      Stephen S C%Chim%NULL%1,                      K C Allen%Chan%NULL%1,                      Ying-man%Sung%NULL%1,                      Louis Y S%Chan%NULL%1,                      Yu-kwan%Tong%NULL%1,                      Wing-shan%Lee%NULL%1,                      Paul K S%Chan%NULL%1,                      Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                      Naoto%Keicho%NULL%3,                      Tran%Quy%NULL%4,                      Nguyen Chi%Phi%NULL%4,                      Hoang Thuy%Long%NULL%4,                      Le Dang%Ha%NULL%4,                      Vo Van%Ban%NULL%4,                      Jun%Ohashi%NULL%1,                      Minako%Hijikata%NULL%4,                      Ikumi%Matsushita%NULL%3,                      Akihiko%Kawana%NULL%1,                      Hideki%Yanai%NULL%3,                      Teruo%Kirikae%NULL%3,                      Tadatoshi%Kuratsuji%NULL%3,                      Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                      Kin-Mang%Lau%NULL%1,                      Libby%Li%NULL%1,                      Suk-Hang%Cheng%NULL%1,                      Wing Y.%Chan%NULL%1,                      Pak K.%Hui%NULL%1,                      Benny%Zee%NULL%1,                      Chi-Bon%Leung%NULL%1,                      Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                      Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                      David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                      Grace TY%Chung%gracechung@cuhk.edu.hk%1,                      Alan KL%Wu%alanklwu@yahoo.com%1,                      Stephen SC%Chim%sschim@cuhk.edu.hk%1,                      Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                      Nelson%Lee%leelsn@yahoo.com%1,                      KW%Choi%kwchoi12@netvigator.com%1,                      YM%Sung%mandysung@cuhk.edu.hk%1,                      Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                      YK%Tong%yktong@cuhk.edu.hk%1,                      ST%Lai%laist@ha.org.hk%1,                      WC%Yu%yuwc@ha.org.hk%1,                      Owen%Tsang%tyotsang@hotmail.com%1,                      YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                      Minako%Hijikata%NULL%0,                      Satoru%Itoyama%NULL%2,                      Tran%Quy%NULL%0,                      Nguyen Chi%Phi%NULL%0,                      Hoang Thuy%Long%NULL%0,                      Le Dang%Ha%NULL%0,                      Vo Van%Ban%NULL%0,                      Ikumi%Matsushita%NULL%0,                      Hideki%Yanai%NULL%0,                      Fumiko%Kirikae%NULL%2,                      Teruo%Kirikae%NULL%0,                      Tadatoshi%Kuratsuji%NULL%0,                      Takehiko%Sasazuki%NULL%0,                      Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                      Kwok Hung%Chan%NULL%1,                      Helen K. W.%Law%NULL%1,                      Gloria H. W.%Tso%NULL%1,                      Eric K. P.%Kong%NULL%1,                      Wilfred H. S.%Wong%NULL%1,                      Yuk Fai%To%NULL%1,                      Raymond W. H.%Yung%NULL%1,                      Eudora Y.%Chow%NULL%1,                      Ka Leung%Au%NULL%2,                      Eric Y. T.%Chan%NULL%2,                      Wilina%Lim%NULL%3,                      Jens C.%Jensenius%NULL%1,                      Malcolm W.%Turner%NULL%1,                      J. S. Malik%Peiris%NULL%1,                      Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                      Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                      Minako%Hijikata%NULL%0,                      Tran%Quy%NULL%0,                      Nguyen Chi%Phi%NULL%0,                      Hoang Thuy%Long%NULL%0,                      Le Dang%Ha%NULL%0,                      Vo Van%Ban%NULL%0,                      Ikumi%Matsushita%NULL%0,                      Hideki%Yanai%NULL%0,                      Fumiko%Kirikae%NULL%0,                      Teruo%Kirikae%NULL%0,                      Tadatoshi%Kuratsuji%NULL%0,                      Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                      J.%Tanner%NULL%1,                      P. K. S.%Chan%NULL%1,                      S.%Biffin%NULL%1,                      W. B.%Dyer%NULL%1,                      A. F.%Geczy%NULL%1,                      J. W.%Tang%NULL%1,                      D. S. C.%Hui%NULL%1,                      J. J. Y.%Sung%NULL%1,                      J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                      Gangqiao%Zhou%NULL%2,                      Lianteng%Zhi%NULL%1,                      Hao%Yang%NULL%1,                      Yun%Zhai%NULL%2,                      Xiaojia%Dong%NULL%1,                      Xiumei%Zhang%NULL%1,                      Xue%Gao%NULL%1,                      Yunping%Zhu%NULL%1,                      Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                      Kelvin Y K%Chan%NULL%1,                      Yongxiong%Chen%NULL%1,                      Leo L M%Poon%NULL%1,                      Annie N Y%Cheung%NULL%1,                      Bojian%Zheng%NULL%1,                      Kwok-Hung%Chan%NULL%1,                      William%Mak%NULL%1,                      Hextan Y S%Ngan%NULL%1,                      Xiaoning%Xu%NULL%1,                      Gavin%Screaton%NULL%1,                      Paul K H%Tam%NULL%1,                      Jonathan M%Austyn%NULL%1,                      Li-Chong%Chan%NULL%2,                      Shea-Ping%Yip%NULL%2,                      Malik%Peiris%NULL%2,                      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                      Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                      WK Eddie%Ip%WIP@partners.org%1,                      Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                      Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                      Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                      Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                      Raymond WH%Yung%rwhyung@ha.org.hk%2,                      Eudora Y%Chow%chowe@ha.org.hk%2,                      KL%Au%klau@ha.org.hk%1,                      Eric YT%Chan%eytchan@ha.org.hk%2,                      Wilina%Lim%wllim@pacific.net.hk%0,                      JS Malik%Peiris%malik@hkucc.hku.hk%2,                      Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                      Dan%Feng%fddd@263.net%1,                      Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                      Hongwei%Wang%whw7809@yahoo.com.cn%1,                      Arnaud%Fontanet%fontanet@pasteur.fr%1,                      Panhe%Zhang%juntianz@yahoo.com.cn%1,                      Sabine%Plancoulaine%plancoulaine@necker.fr%1,                      Fang%Tang%tf4065@sina.com%1,                      Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                      Hong%Yang%anni_yang@yahoo.com%1,                      Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                      Jan H%Richardus%j.richardus@erasmusmc.nl%1,                      J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                      Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                      Jyh-Yuan%Yang%NULL%1,                      Jih-Hui%Lin%NULL%1,                      Cathy S. J.%Fann%NULL%1,                      Valeriy%Osyetrov%NULL%1,                      Chwan-Chuen%King%NULL%1,                      Yi-Ming Arthur%Chen%NULL%1,                      Hsiao-Ling%Chang%NULL%1,                      Hung-Wei%Kuo%NULL%1,                      Fong%Liao%NULL%1,                      Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%1,             Shu-Yuan%Liang%xref no email%1,             Yi-Ping%Shih%xref no email%1,             Chia-Yen%Chen%xref no email%1,             Yuan-Ming%Lee%xref no email%1,             Ling%Chang%xref no email%1,             Shiao-Ying%Jung%xref no email%1,             Mei-Shang%Ho%xref no email%1,             Kung-Yee%Liang%xref no email%1,             Hour-Young%Chen%xref no email%1,             Yu-Jiun%Chan%xref no email%1,             Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                      Johannes C. Y.%Ching%NULL%1,                      M. S.%Xu%NULL%1,                      Annie N. Y.%Cheung%NULL%1,                      Shea-Ping%Yip%NULL%0,                      Loretta Y. C.%Yam%NULL%1,                      Sik-To%Lai%NULL%2,                      Chung-Ming%Chu%NULL%2,                      Andrew T. Y.%Wong%NULL%1,                      You-Qiang%Song%NULL%1,                      Fang-Ping%Huang%NULL%1,                      Wei%Liu%NULL%1,                      P. H.%Chung%NULL%1,                      G. M.%Leung%NULL%1,                      Eudora Y. D.%Chow%NULL%1,                      Eric Y. T.%Chan%NULL%0,                      Jane C. K.%Chan%NULL%1,                      Hextan%Ngan%NULL%1,                      Paul%Tam%NULL%1,                      Li-Chong%Chan%NULL%0,                      Pak%Sham%NULL%1,                      Vera S. F.%Chan%NULL%1,                      Malik%Peiris%NULL%0,                      Steve C. L.%Lin%NULL%1,                      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                      Gangqiao%Zhou%zhougq@chgb.org.cn%0,                      Wai Po%Chong%h9820905@graduate.hku.hk%1,                      Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                      Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                      Hongxing%Zhang%zhanghx08@126.com%1,                      Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                      Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                      Yun%Zhai%zhaiyun077@tom.com%0,                      Raymond WH%Yung%rwhyung@ha.org.hk%0,                      Eudora Y%Chow%chowe@ha.org.hk%0,                      Ka Leung%Au%klau@ha.org.hk%0,                      Eric YT%Chan%eytchan@ha.org.hk%0,                      Wilina%Lim%wllim@pacific.net.hk%0,                      JS Malik%Peiris%malik@hkucc.hku.hk%0,                      Fuchu%He%hefc@nic.bmi.ac.cn%0,                      Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%1,             Ingrid%Boehm%xref no email%1,             Paul K. S.%Chan%xref no email%1,             Katherine%Marks%xref no email%1,             Julian W.%Tang%xref no email%1,             David S. C.%Hui%xref no email%1,             Joseph J. Y.%Sung%xref no email%1,             Wayne B.%Dyer%xref no email%1,             Andrew F.%Geczy%xref no email%1,             John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%1,             N L-S%Tang%xref no email%1,             P K-S%Chan%xref no email%1,             C-Y%Wang%xref no email%1,             D S-C%Hui%xref no email%1,             C%Luk%xref no email%1,             R%Kwok%xref no email%1,             W%Huang%xref no email%1,             J J-Y%Sung%xref no email%1,             Q-P%Kong%xref no email%1,             Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                      Maoti%Wei%weimaoti@yahoo.com.cn%1,                      Yi%Han%halanhan2001sh@163.com%1,                      Keju%Zhang%sinong77@sina.com%1,                      Li%He%wujinhl@163.com%1,                      Zhen%Yang%yzdtchina@yahoo.com.cn%1,                      Bing%Su%tjsubin553@sina.com%1,                      Zhilun%Zhang%zzl718@sina.com.cn%1,                      Yilan%Hu%yougu@yahoo.com.cn%1,                      Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                      Satoru%Itoyama%NULL%0,                      Koichi%Kashiwase%NULL%1,                      Nguyen Chi%Phi%NULL%0,                      Hoang Thuy%Long%NULL%0,                      Le Dang%Ha%NULL%0,                      Vo Van%Ban%NULL%0,                      Bach Khanh%Hoa%NULL%1,                      Nguyen Thi Le%Hang%NULL%1,                      Minako%Hijikata%NULL%0,                      Shinsaku%Sakurada%NULL%1,                      Masahiro%Satake%NULL%1,                      Katsushi%Tokunaga%NULL%1,                      Takehiko%Sasazuki%NULL%0,                      Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                      Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                      Yuling%Shi%sane222@163.com%1,                      Ping%Li%liping@nic.bmi.ac.cn%1,                      Chuanxuan%Liu%renew7306_cn@sina.com%1,                      Qingjun%Ma%maqingjun@sina.com%1,                      Ruifu%Yang%zhangf@big.ac.cn%1,                      Xiaoyi%Wang%happybettylx@hotmail.com%1,                      Lina%zhu%luckina@sina.com%1,                      Xiao%Yang%gaowei@sina.com%1,                      Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                      Mei-Shu%Xu%NULL%2,                      Johannes Chi Yun%Ching%NULL%1,                      Thomas Man Kit%So%NULL%1,                      Sik-To%Lai%NULL%0,                      Chung-Ming%Chu%NULL%0,                      Loretta Y.C.%Yam%NULL%1,                      Andrew T.Y.%Wong%NULL%1,                      Pui Hong%Chung%NULL%1,                      Vera Sau Fong%Chan%NULL%1,                      Chen Lung Steve%Lin%NULL%1,                      Pak Chung%Sham%NULL%1,                      Gabriel M.%Leung%NULL%2,                      Joseph S.M.%Peiris%NULL%1,                      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                      Kelvin Yuen Kwong%Chan%NULL%1,                      Eric Hing Leung%Lee%NULL%1,                      Mei-Shu%Xu%NULL%0,                      Campbell Kam Po%Ting%NULL%1,                      Thomas M. K.%So%NULL%1,                      Pak C.%Sham%NULL%1,                      Gabriel M.%Leung%NULL%0,                      Joseph S. M.%Peiris%NULL%1,                      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2228,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2185,7 +2257,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2214,7 +2286,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2243,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2272,7 +2344,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2301,7 +2373,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2330,7 +2402,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2359,7 +2431,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2388,7 +2460,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2417,7 +2489,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2446,7 +2518,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2475,7 +2547,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2504,7 +2576,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2533,7 +2605,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2562,7 +2634,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2591,7 +2663,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2620,7 +2692,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2649,7 +2721,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2678,7 +2750,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2707,7 +2779,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2736,7 +2808,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2765,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2794,7 +2866,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2823,7 +2895,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="665">
   <si>
     <t>Doi</t>
   </si>
@@ -1878,6 +1878,339 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                      Kelvin Yuen Kwong%Chan%NULL%1,                      Eric Hing Leung%Lee%NULL%1,                      Mei-Shu%Xu%NULL%0,                      Campbell Kam Po%Ting%NULL%1,                      Thomas M. K.%So%NULL%1,                      Pak C.%Sham%NULL%1,                      Gabriel M.%Leung%NULL%0,                      Joseph S. M.%Peiris%NULL%1,                      Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                       Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                       Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                       Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                       Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                       Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                       Pei-Jan%Chen%g8640@ms13.hinet.net%1,                       Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                       Ken Hong%Lim%khlim@seed.net.tw%1,                       Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                       Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                       Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                       Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                       Nelson L S%Tang%NULL%1,                       David S C%Hui%NULL%1,                       Grace T Y%Chung%NULL%1,                       Stephen S C%Chim%NULL%1,                       K C Allen%Chan%NULL%1,                       Ying-man%Sung%NULL%1,                       Louis Y S%Chan%NULL%1,                       Yu-kwan%Tong%NULL%1,                       Wing-shan%Lee%NULL%1,                       Paul K S%Chan%NULL%1,                       Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                       Naoto%Keicho%NULL%3,                       Tran%Quy%NULL%4,                       Nguyen Chi%Phi%NULL%4,                       Hoang Thuy%Long%NULL%4,                       Le Dang%Ha%NULL%4,                       Vo Van%Ban%NULL%4,                       Jun%Ohashi%NULL%1,                       Minako%Hijikata%NULL%4,                       Ikumi%Matsushita%NULL%3,                       Akihiko%Kawana%NULL%1,                       Hideki%Yanai%NULL%3,                       Teruo%Kirikae%NULL%3,                       Tadatoshi%Kuratsuji%NULL%3,                       Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                       Kin-Mang%Lau%NULL%1,                       Libby%Li%NULL%1,                       Suk-Hang%Cheng%NULL%1,                       Wing Y.%Chan%NULL%1,                       Pak K.%Hui%NULL%1,                       Benny%Zee%NULL%1,                       Chi-Bon%Leung%NULL%1,                       Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                       Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                       David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                       Grace TY%Chung%gracechung@cuhk.edu.hk%1,                       Alan KL%Wu%alanklwu@yahoo.com%1,                       Stephen SC%Chim%sschim@cuhk.edu.hk%1,                       Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                       Nelson%Lee%leelsn@yahoo.com%1,                       KW%Choi%kwchoi12@netvigator.com%1,                       YM%Sung%mandysung@cuhk.edu.hk%1,                       Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                       YK%Tong%yktong@cuhk.edu.hk%1,                       ST%Lai%laist@ha.org.hk%1,                       WC%Yu%yuwc@ha.org.hk%1,                       Owen%Tsang%tyotsang@hotmail.com%1,                       YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                       Minako%Hijikata%NULL%0,                       Satoru%Itoyama%NULL%2,                       Tran%Quy%NULL%0,                       Nguyen Chi%Phi%NULL%0,                       Hoang Thuy%Long%NULL%0,                       Le Dang%Ha%NULL%0,                       Vo Van%Ban%NULL%0,                       Ikumi%Matsushita%NULL%0,                       Hideki%Yanai%NULL%0,                       Fumiko%Kirikae%NULL%2,                       Teruo%Kirikae%NULL%0,                       Tadatoshi%Kuratsuji%NULL%0,                       Takehiko%Sasazuki%NULL%0,                       Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                       Kwok Hung%Chan%NULL%1,                       Helen K. W.%Law%NULL%1,                       Gloria H. W.%Tso%NULL%1,                       Eric K. P.%Kong%NULL%1,                       Wilfred H. S.%Wong%NULL%1,                       Yuk Fai%To%NULL%1,                       Raymond W. H.%Yung%NULL%1,                       Eudora Y.%Chow%NULL%1,                       Ka Leung%Au%NULL%2,                       Eric Y. T.%Chan%NULL%2,                       Wilina%Lim%NULL%3,                       Jens C.%Jensenius%NULL%1,                       Malcolm W.%Turner%NULL%1,                       J. S. Malik%Peiris%NULL%1,                       Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                       Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                       Minako%Hijikata%NULL%0,                       Tran%Quy%NULL%0,                       Nguyen Chi%Phi%NULL%0,                       Hoang Thuy%Long%NULL%0,                       Le Dang%Ha%NULL%0,                       Vo Van%Ban%NULL%0,                       Ikumi%Matsushita%NULL%0,                       Hideki%Yanai%NULL%0,                       Fumiko%Kirikae%NULL%0,                       Teruo%Kirikae%NULL%0,                       Tadatoshi%Kuratsuji%NULL%0,                       Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                       J.%Tanner%NULL%1,                       P. K. S.%Chan%NULL%1,                       S.%Biffin%NULL%1,                       W. B.%Dyer%NULL%1,                       A. F.%Geczy%NULL%1,                       J. W.%Tang%NULL%1,                       D. S. C.%Hui%NULL%1,                       J. J. Y.%Sung%NULL%1,                       J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                       Gangqiao%Zhou%NULL%2,                       Lianteng%Zhi%NULL%1,                       Hao%Yang%NULL%1,                       Yun%Zhai%NULL%2,                       Xiaojia%Dong%NULL%1,                       Xiumei%Zhang%NULL%1,                       Xue%Gao%NULL%1,                       Yunping%Zhu%NULL%1,                       Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                       Kelvin Y K%Chan%NULL%1,                       Yongxiong%Chen%NULL%1,                       Leo L M%Poon%NULL%1,                       Annie N Y%Cheung%NULL%1,                       Bojian%Zheng%NULL%1,                       Kwok-Hung%Chan%NULL%1,                       William%Mak%NULL%1,                       Hextan Y S%Ngan%NULL%1,                       Xiaoning%Xu%NULL%1,                       Gavin%Screaton%NULL%1,                       Paul K H%Tam%NULL%1,                       Jonathan M%Austyn%NULL%1,                       Li-Chong%Chan%NULL%2,                       Shea-Ping%Yip%NULL%2,                       Malik%Peiris%NULL%2,                       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                       Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                       WK Eddie%Ip%WIP@partners.org%1,                       Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                       Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                       Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                       Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                       Raymond WH%Yung%rwhyung@ha.org.hk%2,                       Eudora Y%Chow%chowe@ha.org.hk%2,                       KL%Au%klau@ha.org.hk%1,                       Eric YT%Chan%eytchan@ha.org.hk%2,                       Wilina%Lim%wllim@pacific.net.hk%0,                       JS Malik%Peiris%malik@hkucc.hku.hk%2,                       Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                       Dan%Feng%fddd@263.net%1,                       Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                       Hongwei%Wang%whw7809@yahoo.com.cn%1,                       Arnaud%Fontanet%fontanet@pasteur.fr%1,                       Panhe%Zhang%juntianz@yahoo.com.cn%1,                       Sabine%Plancoulaine%plancoulaine@necker.fr%1,                       Fang%Tang%tf4065@sina.com%1,                       Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                       Hong%Yang%anni_yang@yahoo.com%1,                       Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                       Jan H%Richardus%j.richardus@erasmusmc.nl%1,                       J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                       Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                       Jyh-Yuan%Yang%NULL%1,                       Jih-Hui%Lin%NULL%1,                       Cathy S. J.%Fann%NULL%1,                       Valeriy%Osyetrov%NULL%1,                       Chwan-Chuen%King%NULL%1,                       Yi-Ming Arthur%Chen%NULL%1,                       Hsiao-Ling%Chang%NULL%1,                       Hung-Wei%Kuo%NULL%1,                       Fong%Liao%NULL%1,                       Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Ming Arthur%Chen%xref no email%0, Shu-Yuan%Liang%xref no email%1, Yi-Ping%Shih%xref no email%1, Chia-Yen%Chen%xref no email%1, Yuan-Ming%Lee%xref no email%1, Ling%Chang%xref no email%1, Shiao-Ying%Jung%xref no email%1, Mei-Shang%Ho%xref no email%1, Kung-Yee%Liang%xref no email%1, Hour-Young%Chen%xref no email%1, Yu-Jiun%Chan%xref no email%1, Da-Chen%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Microbiology</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                       Johannes C. Y.%Ching%NULL%1,                       M. S.%Xu%NULL%1,                       Annie N. Y.%Cheung%NULL%1,                       Shea-Ping%Yip%NULL%0,                       Loretta Y. C.%Yam%NULL%1,                       Sik-To%Lai%NULL%2,                       Chung-Ming%Chu%NULL%2,                       Andrew T. Y.%Wong%NULL%1,                       You-Qiang%Song%NULL%1,                       Fang-Ping%Huang%NULL%1,                       Wei%Liu%NULL%1,                       P. H.%Chung%NULL%1,                       G. M.%Leung%NULL%1,                       Eudora Y. D.%Chow%NULL%1,                       Eric Y. T.%Chan%NULL%0,                       Jane C. K.%Chan%NULL%1,                       Hextan%Ngan%NULL%1,                       Paul%Tam%NULL%1,                       Li-Chong%Chan%NULL%0,                       Pak%Sham%NULL%1,                       Vera S. F.%Chan%NULL%1,                       Malik%Peiris%NULL%0,                       Steve C. L.%Lin%NULL%1,                       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                       Gangqiao%Zhou%zhougq@chgb.org.cn%0,                       Wai Po%Chong%h9820905@graduate.hku.hk%1,                       Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                       Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                       Hongxing%Zhang%zhanghx08@126.com%1,                       Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                       Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                       Yun%Zhai%zhaiyun077@tom.com%0,                       Raymond WH%Yung%rwhyung@ha.org.hk%0,                       Eudora Y%Chow%chowe@ha.org.hk%0,                       Ka Leung%Au%klau@ha.org.hk%0,                       Eric YT%Chan%eytchan@ha.org.hk%0,                       Wilina%Lim%wllim@pacific.net.hk%0,                       JS Malik%Peiris%malik@hkucc.hku.hk%0,                       Fuchu%He%hefc@nic.bmi.ac.cn%0,                       Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Fang F.%Yuan%xref no email%0, Ingrid%Boehm%xref no email%1, Paul K. S.%Chan%xref no email%1, Katherine%Marks%xref no email%1, Julian W.%Tang%xref no email%1, David S. C.%Hui%xref no email%1, Joseph J. Y.%Sung%xref no email%1, Wayne B.%Dyer%xref no email%1, Andrew F.%Geczy%xref no email%1, John S.%Sullivan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[H%Li%xref no email%0, N L-S%Tang%xref no email%1, P K-S%Chan%xref no email%1, C-Y%Wang%xref no email%1, D S-C%Hui%xref no email%1, C%Luk%xref no email%1, R%Kwok%xref no email%1, W%Huang%xref no email%1, J J-Y%Sung%xref no email%1, Q-P%Kong%xref no email%1, Y-P%Zhang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: BMJ</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                       Maoti%Wei%weimaoti@yahoo.com.cn%1,                       Yi%Han%halanhan2001sh@163.com%1,                       Keju%Zhang%sinong77@sina.com%1,                       Li%He%wujinhl@163.com%1,                       Zhen%Yang%yzdtchina@yahoo.com.cn%1,                       Bing%Su%tjsubin553@sina.com%1,                       Zhilun%Zhang%zzl718@sina.com.cn%1,                       Yilan%Hu%yougu@yahoo.com.cn%1,                       Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                       Satoru%Itoyama%NULL%0,                       Koichi%Kashiwase%NULL%1,                       Nguyen Chi%Phi%NULL%0,                       Hoang Thuy%Long%NULL%0,                       Le Dang%Ha%NULL%0,                       Vo Van%Ban%NULL%0,                       Bach Khanh%Hoa%NULL%1,                       Nguyen Thi Le%Hang%NULL%1,                       Minako%Hijikata%NULL%0,                       Shinsaku%Sakurada%NULL%1,                       Masahiro%Satake%NULL%1,                       Katsushi%Tokunaga%NULL%1,                       Takehiko%Sasazuki%NULL%0,                       Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                       Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                       Yuling%Shi%sane222@163.com%1,                       Ping%Li%liping@nic.bmi.ac.cn%1,                       Chuanxuan%Liu%renew7306_cn@sina.com%1,                       Qingjun%Ma%maqingjun@sina.com%1,                       Ruifu%Yang%zhangf@big.ac.cn%1,                       Xiaoyi%Wang%happybettylx@hotmail.com%1,                       Lina%zhu%luckina@sina.com%1,                       Xiao%Yang%gaowei@sina.com%1,                       Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                       Mei-Shu%Xu%NULL%2,                       Johannes Chi Yun%Ching%NULL%1,                       Thomas Man Kit%So%NULL%1,                       Sik-To%Lai%NULL%0,                       Chung-Ming%Chu%NULL%0,                       Loretta Y.C.%Yam%NULL%1,                       Andrew T.Y.%Wong%NULL%1,                       Pui Hong%Chung%NULL%1,                       Vera Sau Fong%Chan%NULL%1,                       Chen Lung Steve%Lin%NULL%1,                       Pak Chung%Sham%NULL%1,                       Gabriel M.%Leung%NULL%2,                       Joseph S.M.%Peiris%NULL%1,                       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                       Kelvin Yuen Kwong%Chan%NULL%1,                       Eric Hing Leung%Lee%NULL%1,                       Mei-Shu%Xu%NULL%0,                       Campbell Kam Po%Ting%NULL%1,                       Thomas M. K.%So%NULL%1,                       Pak C.%Sham%NULL%1,                       Gabriel M.%Leung%NULL%0,                       Joseph S. M.%Peiris%NULL%1,                       Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                        Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                        Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                        Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                        Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                        Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                        Pei-Jan%Chen%g8640@ms13.hinet.net%1,                        Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                        Ken Hong%Lim%khlim@seed.net.tw%1,                        Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                        Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                        Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                        Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                        Nelson L S%Tang%NULL%1,                        David S C%Hui%NULL%1,                        Grace T Y%Chung%NULL%1,                        Stephen S C%Chim%NULL%1,                        K C Allen%Chan%NULL%1,                        Ying-man%Sung%NULL%1,                        Louis Y S%Chan%NULL%1,                        Yu-kwan%Tong%NULL%1,                        Wing-shan%Lee%NULL%1,                        Paul K S%Chan%NULL%1,                        Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                        Naoto%Keicho%NULL%3,                        Tran%Quy%NULL%4,                        Nguyen Chi%Phi%NULL%4,                        Hoang Thuy%Long%NULL%4,                        Le Dang%Ha%NULL%4,                        Vo Van%Ban%NULL%4,                        Jun%Ohashi%NULL%1,                        Minako%Hijikata%NULL%4,                        Ikumi%Matsushita%NULL%3,                        Akihiko%Kawana%NULL%1,                        Hideki%Yanai%NULL%3,                        Teruo%Kirikae%NULL%3,                        Tadatoshi%Kuratsuji%NULL%3,                        Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                        Kin-Mang%Lau%NULL%1,                        Libby%Li%NULL%1,                        Suk-Hang%Cheng%NULL%1,                        Wing Y.%Chan%NULL%1,                        Pak K.%Hui%NULL%1,                        Benny%Zee%NULL%1,                        Chi-Bon%Leung%NULL%1,                        Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                        Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                        David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                        Grace TY%Chung%gracechung@cuhk.edu.hk%1,                        Alan KL%Wu%alanklwu@yahoo.com%1,                        Stephen SC%Chim%sschim@cuhk.edu.hk%1,                        Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                        Nelson%Lee%leelsn@yahoo.com%1,                        KW%Choi%kwchoi12@netvigator.com%1,                        YM%Sung%mandysung@cuhk.edu.hk%1,                        Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                        YK%Tong%yktong@cuhk.edu.hk%1,                        ST%Lai%laist@ha.org.hk%1,                        WC%Yu%yuwc@ha.org.hk%1,                        Owen%Tsang%tyotsang@hotmail.com%1,                        YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                        Minako%Hijikata%NULL%0,                        Satoru%Itoyama%NULL%2,                        Tran%Quy%NULL%0,                        Nguyen Chi%Phi%NULL%0,                        Hoang Thuy%Long%NULL%0,                        Le Dang%Ha%NULL%0,                        Vo Van%Ban%NULL%0,                        Ikumi%Matsushita%NULL%0,                        Hideki%Yanai%NULL%0,                        Fumiko%Kirikae%NULL%2,                        Teruo%Kirikae%NULL%0,                        Tadatoshi%Kuratsuji%NULL%0,                        Takehiko%Sasazuki%NULL%0,                        Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                        Kwok Hung%Chan%NULL%1,                        Helen K. W.%Law%NULL%1,                        Gloria H. W.%Tso%NULL%1,                        Eric K. P.%Kong%NULL%1,                        Wilfred H. S.%Wong%NULL%1,                        Yuk Fai%To%NULL%1,                        Raymond W. H.%Yung%NULL%1,                        Eudora Y.%Chow%NULL%1,                        Ka Leung%Au%NULL%2,                        Eric Y. T.%Chan%NULL%2,                        Wilina%Lim%NULL%3,                        Jens C.%Jensenius%NULL%1,                        Malcolm W.%Turner%NULL%1,                        J. S. Malik%Peiris%NULL%1,                        Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                        Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                        Minako%Hijikata%NULL%0,                        Tran%Quy%NULL%0,                        Nguyen Chi%Phi%NULL%0,                        Hoang Thuy%Long%NULL%0,                        Le Dang%Ha%NULL%0,                        Vo Van%Ban%NULL%0,                        Ikumi%Matsushita%NULL%0,                        Hideki%Yanai%NULL%0,                        Fumiko%Kirikae%NULL%0,                        Teruo%Kirikae%NULL%0,                        Tadatoshi%Kuratsuji%NULL%0,                        Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                        J.%Tanner%NULL%1,                        P. K. S.%Chan%NULL%1,                        S.%Biffin%NULL%1,                        W. B.%Dyer%NULL%1,                        A. F.%Geczy%NULL%1,                        J. W.%Tang%NULL%1,                        D. S. C.%Hui%NULL%1,                        J. J. Y.%Sung%NULL%1,                        J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                        Gangqiao%Zhou%NULL%2,                        Lianteng%Zhi%NULL%1,                        Hao%Yang%NULL%1,                        Yun%Zhai%NULL%2,                        Xiaojia%Dong%NULL%1,                        Xiumei%Zhang%NULL%1,                        Xue%Gao%NULL%1,                        Yunping%Zhu%NULL%1,                        Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                        Kelvin Y K%Chan%NULL%1,                        Yongxiong%Chen%NULL%1,                        Leo L M%Poon%NULL%1,                        Annie N Y%Cheung%NULL%1,                        Bojian%Zheng%NULL%1,                        Kwok-Hung%Chan%NULL%1,                        William%Mak%NULL%1,                        Hextan Y S%Ngan%NULL%1,                        Xiaoning%Xu%NULL%1,                        Gavin%Screaton%NULL%1,                        Paul K H%Tam%NULL%1,                        Jonathan M%Austyn%NULL%1,                        Li-Chong%Chan%NULL%2,                        Shea-Ping%Yip%NULL%2,                        Malik%Peiris%NULL%2,                        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                        Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                        WK Eddie%Ip%WIP@partners.org%1,                        Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                        Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                        Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                        Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                        Raymond WH%Yung%rwhyung@ha.org.hk%2,                        Eudora Y%Chow%chowe@ha.org.hk%2,                        KL%Au%klau@ha.org.hk%1,                        Eric YT%Chan%eytchan@ha.org.hk%2,                        Wilina%Lim%wllim@pacific.net.hk%0,                        JS Malik%Peiris%malik@hkucc.hku.hk%2,                        Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                        Dan%Feng%fddd@263.net%1,                        Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                        Hongwei%Wang%whw7809@yahoo.com.cn%1,                        Arnaud%Fontanet%fontanet@pasteur.fr%1,                        Panhe%Zhang%juntianz@yahoo.com.cn%1,                        Sabine%Plancoulaine%plancoulaine@necker.fr%1,                        Fang%Tang%tf4065@sina.com%1,                        Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                        Hong%Yang%anni_yang@yahoo.com%1,                        Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                        Jan H%Richardus%j.richardus@erasmusmc.nl%1,                        J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                        Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                        Jyh-Yuan%Yang%NULL%1,                        Jih-Hui%Lin%NULL%1,                        Cathy S. J.%Fann%NULL%1,                        Valeriy%Osyetrov%NULL%1,                        Chwan-Chuen%King%NULL%1,                        Yi-Ming Arthur%Chen%NULL%1,                        Hsiao-Ling%Chang%NULL%1,                        Hung-Wei%Kuo%NULL%1,                        Fong%Liao%NULL%1,                        Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                        Johannes C. Y.%Ching%NULL%1,                        M. S.%Xu%NULL%1,                        Annie N. Y.%Cheung%NULL%1,                        Shea-Ping%Yip%NULL%0,                        Loretta Y. C.%Yam%NULL%1,                        Sik-To%Lai%NULL%2,                        Chung-Ming%Chu%NULL%2,                        Andrew T. Y.%Wong%NULL%1,                        You-Qiang%Song%NULL%1,                        Fang-Ping%Huang%NULL%1,                        Wei%Liu%NULL%1,                        P. H.%Chung%NULL%1,                        G. M.%Leung%NULL%1,                        Eudora Y. D.%Chow%NULL%1,                        Eric Y. T.%Chan%NULL%0,                        Jane C. K.%Chan%NULL%1,                        Hextan%Ngan%NULL%1,                        Paul%Tam%NULL%1,                        Li-Chong%Chan%NULL%0,                        Pak%Sham%NULL%1,                        Vera S. F.%Chan%NULL%1,                        Malik%Peiris%NULL%0,                        Steve C. L.%Lin%NULL%1,                        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                        Gangqiao%Zhou%zhougq@chgb.org.cn%0,                        Wai Po%Chong%h9820905@graduate.hku.hk%1,                        Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                        Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                        Hongxing%Zhang%zhanghx08@126.com%1,                        Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                        Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                        Yun%Zhai%zhaiyun077@tom.com%0,                        Raymond WH%Yung%rwhyung@ha.org.hk%0,                        Eudora Y%Chow%chowe@ha.org.hk%0,                        Ka Leung%Au%klau@ha.org.hk%0,                        Eric YT%Chan%eytchan@ha.org.hk%0,                        Wilina%Lim%wllim@pacific.net.hk%0,                        JS Malik%Peiris%malik@hkucc.hku.hk%0,                        Fuchu%He%hefc@nic.bmi.ac.cn%0,                        Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                        Maoti%Wei%weimaoti@yahoo.com.cn%1,                        Yi%Han%halanhan2001sh@163.com%1,                        Keju%Zhang%sinong77@sina.com%1,                        Li%He%wujinhl@163.com%1,                        Zhen%Yang%yzdtchina@yahoo.com.cn%1,                        Bing%Su%tjsubin553@sina.com%1,                        Zhilun%Zhang%zzl718@sina.com.cn%1,                        Yilan%Hu%yougu@yahoo.com.cn%1,                        Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                        Satoru%Itoyama%NULL%0,                        Koichi%Kashiwase%NULL%1,                        Nguyen Chi%Phi%NULL%0,                        Hoang Thuy%Long%NULL%0,                        Le Dang%Ha%NULL%0,                        Vo Van%Ban%NULL%0,                        Bach Khanh%Hoa%NULL%1,                        Nguyen Thi Le%Hang%NULL%1,                        Minako%Hijikata%NULL%0,                        Shinsaku%Sakurada%NULL%1,                        Masahiro%Satake%NULL%1,                        Katsushi%Tokunaga%NULL%1,                        Takehiko%Sasazuki%NULL%0,                        Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                        Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                        Yuling%Shi%sane222@163.com%1,                        Ping%Li%liping@nic.bmi.ac.cn%1,                        Chuanxuan%Liu%renew7306_cn@sina.com%1,                        Qingjun%Ma%maqingjun@sina.com%1,                        Ruifu%Yang%zhangf@big.ac.cn%1,                        Xiaoyi%Wang%happybettylx@hotmail.com%1,                        Lina%zhu%luckina@sina.com%1,                        Xiao%Yang%gaowei@sina.com%1,                        Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                        Mei-Shu%Xu%NULL%2,                        Johannes Chi Yun%Ching%NULL%1,                        Thomas Man Kit%So%NULL%1,                        Sik-To%Lai%NULL%0,                        Chung-Ming%Chu%NULL%0,                        Loretta Y.C.%Yam%NULL%1,                        Andrew T.Y.%Wong%NULL%1,                        Pui Hong%Chung%NULL%1,                        Vera Sau Fong%Chan%NULL%1,                        Chen Lung Steve%Lin%NULL%1,                        Pak Chung%Sham%NULL%1,                        Gabriel M.%Leung%NULL%2,                        Joseph S.M.%Peiris%NULL%1,                        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                        Kelvin Yuen Kwong%Chan%NULL%1,                        Eric Hing Leung%Lee%NULL%1,                        Mei-Shu%Xu%NULL%0,                        Campbell Kam Po%Ting%NULL%1,                        Thomas M. K.%So%NULL%1,                        Pak C.%Sham%NULL%1,                        Gabriel M.%Leung%NULL%0,                        Joseph S. M.%Peiris%NULL%1,                        Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                         Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                         Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                         Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                         Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                         Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                         Pei-Jan%Chen%g8640@ms13.hinet.net%1,                         Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                         Ken Hong%Lim%khlim@seed.net.tw%1,                         Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                         Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                         Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                         Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                         Nelson L S%Tang%NULL%1,                         David S C%Hui%NULL%1,                         Grace T Y%Chung%NULL%1,                         Stephen S C%Chim%NULL%1,                         K C Allen%Chan%NULL%1,                         Ying-man%Sung%NULL%1,                         Louis Y S%Chan%NULL%1,                         Yu-kwan%Tong%NULL%1,                         Wing-shan%Lee%NULL%1,                         Paul K S%Chan%NULL%1,                         Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                         Naoto%Keicho%NULL%3,                         Tran%Quy%NULL%4,                         Nguyen Chi%Phi%NULL%4,                         Hoang Thuy%Long%NULL%4,                         Le Dang%Ha%NULL%4,                         Vo Van%Ban%NULL%4,                         Jun%Ohashi%NULL%1,                         Minako%Hijikata%NULL%4,                         Ikumi%Matsushita%NULL%3,                         Akihiko%Kawana%NULL%1,                         Hideki%Yanai%NULL%3,                         Teruo%Kirikae%NULL%3,                         Tadatoshi%Kuratsuji%NULL%3,                         Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                         Kin-Mang%Lau%NULL%1,                         Libby%Li%NULL%1,                         Suk-Hang%Cheng%NULL%1,                         Wing Y.%Chan%NULL%1,                         Pak K.%Hui%NULL%1,                         Benny%Zee%NULL%1,                         Chi-Bon%Leung%NULL%1,                         Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                         Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                         David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                         Grace TY%Chung%gracechung@cuhk.edu.hk%1,                         Alan KL%Wu%alanklwu@yahoo.com%1,                         Stephen SC%Chim%sschim@cuhk.edu.hk%1,                         Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                         Nelson%Lee%leelsn@yahoo.com%1,                         KW%Choi%kwchoi12@netvigator.com%1,                         YM%Sung%mandysung@cuhk.edu.hk%1,                         Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                         YK%Tong%yktong@cuhk.edu.hk%1,                         ST%Lai%laist@ha.org.hk%1,                         WC%Yu%yuwc@ha.org.hk%1,                         Owen%Tsang%tyotsang@hotmail.com%1,                         YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                         Minako%Hijikata%NULL%0,                         Satoru%Itoyama%NULL%2,                         Tran%Quy%NULL%0,                         Nguyen Chi%Phi%NULL%0,                         Hoang Thuy%Long%NULL%0,                         Le Dang%Ha%NULL%0,                         Vo Van%Ban%NULL%0,                         Ikumi%Matsushita%NULL%0,                         Hideki%Yanai%NULL%0,                         Fumiko%Kirikae%NULL%2,                         Teruo%Kirikae%NULL%0,                         Tadatoshi%Kuratsuji%NULL%0,                         Takehiko%Sasazuki%NULL%0,                         Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                         Kwok Hung%Chan%NULL%1,                         Helen K. W.%Law%NULL%1,                         Gloria H. W.%Tso%NULL%1,                         Eric K. P.%Kong%NULL%1,                         Wilfred H. S.%Wong%NULL%1,                         Yuk Fai%To%NULL%1,                         Raymond W. H.%Yung%NULL%1,                         Eudora Y.%Chow%NULL%1,                         Ka Leung%Au%NULL%2,                         Eric Y. T.%Chan%NULL%2,                         Wilina%Lim%NULL%3,                         Jens C.%Jensenius%NULL%1,                         Malcolm W.%Turner%NULL%1,                         J. S. Malik%Peiris%NULL%1,                         Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                         Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                         Minako%Hijikata%NULL%0,                         Tran%Quy%NULL%0,                         Nguyen Chi%Phi%NULL%0,                         Hoang Thuy%Long%NULL%0,                         Le Dang%Ha%NULL%0,                         Vo Van%Ban%NULL%0,                         Ikumi%Matsushita%NULL%0,                         Hideki%Yanai%NULL%0,                         Fumiko%Kirikae%NULL%0,                         Teruo%Kirikae%NULL%0,                         Tadatoshi%Kuratsuji%NULL%0,                         Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                         J.%Tanner%NULL%1,                         P. K. S.%Chan%NULL%1,                         S.%Biffin%NULL%1,                         W. B.%Dyer%NULL%1,                         A. F.%Geczy%NULL%1,                         J. W.%Tang%NULL%1,                         D. S. C.%Hui%NULL%1,                         J. J. Y.%Sung%NULL%1,                         J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                         Gangqiao%Zhou%NULL%2,                         Lianteng%Zhi%NULL%1,                         Hao%Yang%NULL%1,                         Yun%Zhai%NULL%2,                         Xiaojia%Dong%NULL%1,                         Xiumei%Zhang%NULL%1,                         Xue%Gao%NULL%1,                         Yunping%Zhu%NULL%1,                         Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                         Kelvin Y K%Chan%NULL%1,                         Yongxiong%Chen%NULL%1,                         Leo L M%Poon%NULL%1,                         Annie N Y%Cheung%NULL%1,                         Bojian%Zheng%NULL%1,                         Kwok-Hung%Chan%NULL%1,                         William%Mak%NULL%1,                         Hextan Y S%Ngan%NULL%1,                         Xiaoning%Xu%NULL%1,                         Gavin%Screaton%NULL%1,                         Paul K H%Tam%NULL%1,                         Jonathan M%Austyn%NULL%1,                         Li-Chong%Chan%NULL%2,                         Shea-Ping%Yip%NULL%2,                         Malik%Peiris%NULL%2,                         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                         Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                         WK Eddie%Ip%WIP@partners.org%1,                         Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                         Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                         Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                         Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                         Raymond WH%Yung%rwhyung@ha.org.hk%2,                         Eudora Y%Chow%chowe@ha.org.hk%2,                         KL%Au%klau@ha.org.hk%1,                         Eric YT%Chan%eytchan@ha.org.hk%2,                         Wilina%Lim%wllim@pacific.net.hk%0,                         JS Malik%Peiris%malik@hkucc.hku.hk%2,                         Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                         Dan%Feng%fddd@263.net%1,                         Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                         Hongwei%Wang%whw7809@yahoo.com.cn%1,                         Arnaud%Fontanet%fontanet@pasteur.fr%1,                         Panhe%Zhang%juntianz@yahoo.com.cn%1,                         Sabine%Plancoulaine%plancoulaine@necker.fr%1,                         Fang%Tang%tf4065@sina.com%1,                         Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                         Hong%Yang%anni_yang@yahoo.com%1,                         Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                         Jan H%Richardus%j.richardus@erasmusmc.nl%1,                         J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                         Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                         Jyh-Yuan%Yang%NULL%1,                         Jih-Hui%Lin%NULL%1,                         Cathy S. J.%Fann%NULL%1,                         Valeriy%Osyetrov%NULL%1,                         Chwan-Chuen%King%NULL%1,                         Yi-Ming Arthur%Chen%NULL%1,                         Hsiao-Ling%Chang%NULL%1,                         Hung-Wei%Kuo%NULL%1,                         Fong%Liao%NULL%1,                         Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                         Johannes C. Y.%Ching%NULL%1,                         M. S.%Xu%NULL%1,                         Annie N. Y.%Cheung%NULL%1,                         Shea-Ping%Yip%NULL%0,                         Loretta Y. C.%Yam%NULL%1,                         Sik-To%Lai%NULL%2,                         Chung-Ming%Chu%NULL%2,                         Andrew T. Y.%Wong%NULL%1,                         You-Qiang%Song%NULL%1,                         Fang-Ping%Huang%NULL%1,                         Wei%Liu%NULL%1,                         P. H.%Chung%NULL%1,                         G. M.%Leung%NULL%1,                         Eudora Y. D.%Chow%NULL%1,                         Eric Y. T.%Chan%NULL%0,                         Jane C. K.%Chan%NULL%1,                         Hextan%Ngan%NULL%1,                         Paul%Tam%NULL%1,                         Li-Chong%Chan%NULL%0,                         Pak%Sham%NULL%1,                         Vera S. F.%Chan%NULL%1,                         Malik%Peiris%NULL%0,                         Steve C. L.%Lin%NULL%1,                         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                         Gangqiao%Zhou%zhougq@chgb.org.cn%0,                         Wai Po%Chong%h9820905@graduate.hku.hk%1,                         Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                         Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                         Hongxing%Zhang%zhanghx08@126.com%1,                         Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                         Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                         Yun%Zhai%zhaiyun077@tom.com%0,                         Raymond WH%Yung%rwhyung@ha.org.hk%0,                         Eudora Y%Chow%chowe@ha.org.hk%0,                         Ka Leung%Au%klau@ha.org.hk%0,                         Eric YT%Chan%eytchan@ha.org.hk%0,                         Wilina%Lim%wllim@pacific.net.hk%0,                         JS Malik%Peiris%malik@hkucc.hku.hk%0,                         Fuchu%He%hefc@nic.bmi.ac.cn%0,                         Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                         Maoti%Wei%weimaoti@yahoo.com.cn%1,                         Yi%Han%halanhan2001sh@163.com%1,                         Keju%Zhang%sinong77@sina.com%1,                         Li%He%wujinhl@163.com%1,                         Zhen%Yang%yzdtchina@yahoo.com.cn%1,                         Bing%Su%tjsubin553@sina.com%1,                         Zhilun%Zhang%zzl718@sina.com.cn%1,                         Yilan%Hu%yougu@yahoo.com.cn%1,                         Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                         Satoru%Itoyama%NULL%0,                         Koichi%Kashiwase%NULL%1,                         Nguyen Chi%Phi%NULL%0,                         Hoang Thuy%Long%NULL%0,                         Le Dang%Ha%NULL%0,                         Vo Van%Ban%NULL%0,                         Bach Khanh%Hoa%NULL%1,                         Nguyen Thi Le%Hang%NULL%1,                         Minako%Hijikata%NULL%0,                         Shinsaku%Sakurada%NULL%1,                         Masahiro%Satake%NULL%1,                         Katsushi%Tokunaga%NULL%1,                         Takehiko%Sasazuki%NULL%0,                         Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                         Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                         Yuling%Shi%sane222@163.com%1,                         Ping%Li%liping@nic.bmi.ac.cn%1,                         Chuanxuan%Liu%renew7306_cn@sina.com%1,                         Qingjun%Ma%maqingjun@sina.com%1,                         Ruifu%Yang%zhangf@big.ac.cn%1,                         Xiaoyi%Wang%happybettylx@hotmail.com%1,                         Lina%zhu%luckina@sina.com%1,                         Xiao%Yang%gaowei@sina.com%1,                         Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                         Mei-Shu%Xu%NULL%2,                         Johannes Chi Yun%Ching%NULL%1,                         Thomas Man Kit%So%NULL%1,                         Sik-To%Lai%NULL%0,                         Chung-Ming%Chu%NULL%0,                         Loretta Y.C.%Yam%NULL%1,                         Andrew T.Y.%Wong%NULL%1,                         Pui Hong%Chung%NULL%1,                         Vera Sau Fong%Chan%NULL%1,                         Chen Lung Steve%Lin%NULL%1,                         Pak Chung%Sham%NULL%1,                         Gabriel M.%Leung%NULL%2,                         Joseph S.M.%Peiris%NULL%1,                         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                         Kelvin Yuen Kwong%Chan%NULL%1,                         Eric Hing Leung%Lee%NULL%1,                         Mei-Shu%Xu%NULL%0,                         Campbell Kam Po%Ting%NULL%1,                         Thomas M. K.%So%NULL%1,                         Pak C.%Sham%NULL%1,                         Gabriel M.%Leung%NULL%0,                         Joseph S. M.%Peiris%NULL%1,                         Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                          Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                          Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                          Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                          Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                          Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                          Pei-Jan%Chen%g8640@ms13.hinet.net%1,                          Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                          Ken Hong%Lim%khlim@seed.net.tw%1,                          Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                          Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                          Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                          Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                          Nelson L S%Tang%NULL%1,                          David S C%Hui%NULL%1,                          Grace T Y%Chung%NULL%1,                          Stephen S C%Chim%NULL%1,                          K C Allen%Chan%NULL%1,                          Ying-man%Sung%NULL%1,                          Louis Y S%Chan%NULL%1,                          Yu-kwan%Tong%NULL%1,                          Wing-shan%Lee%NULL%1,                          Paul K S%Chan%NULL%1,                          Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                          Naoto%Keicho%NULL%3,                          Tran%Quy%NULL%4,                          Nguyen Chi%Phi%NULL%4,                          Hoang Thuy%Long%NULL%4,                          Le Dang%Ha%NULL%4,                          Vo Van%Ban%NULL%4,                          Jun%Ohashi%NULL%1,                          Minako%Hijikata%NULL%4,                          Ikumi%Matsushita%NULL%3,                          Akihiko%Kawana%NULL%1,                          Hideki%Yanai%NULL%3,                          Teruo%Kirikae%NULL%3,                          Tadatoshi%Kuratsuji%NULL%3,                          Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                          Kin-Mang%Lau%NULL%1,                          Libby%Li%NULL%1,                          Suk-Hang%Cheng%NULL%1,                          Wing Y.%Chan%NULL%1,                          Pak K.%Hui%NULL%1,                          Benny%Zee%NULL%1,                          Chi-Bon%Leung%NULL%1,                          Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                          Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                          David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                          Grace TY%Chung%gracechung@cuhk.edu.hk%1,                          Alan KL%Wu%alanklwu@yahoo.com%1,                          Stephen SC%Chim%sschim@cuhk.edu.hk%1,                          Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                          Nelson%Lee%leelsn@yahoo.com%1,                          KW%Choi%kwchoi12@netvigator.com%1,                          YM%Sung%mandysung@cuhk.edu.hk%1,                          Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                          YK%Tong%yktong@cuhk.edu.hk%1,                          ST%Lai%laist@ha.org.hk%1,                          WC%Yu%yuwc@ha.org.hk%1,                          Owen%Tsang%tyotsang@hotmail.com%1,                          YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                          Minako%Hijikata%NULL%0,                          Satoru%Itoyama%NULL%2,                          Tran%Quy%NULL%0,                          Nguyen Chi%Phi%NULL%0,                          Hoang Thuy%Long%NULL%0,                          Le Dang%Ha%NULL%0,                          Vo Van%Ban%NULL%0,                          Ikumi%Matsushita%NULL%0,                          Hideki%Yanai%NULL%0,                          Fumiko%Kirikae%NULL%2,                          Teruo%Kirikae%NULL%0,                          Tadatoshi%Kuratsuji%NULL%0,                          Takehiko%Sasazuki%NULL%0,                          Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                          Kwok Hung%Chan%NULL%1,                          Helen K. W.%Law%NULL%1,                          Gloria H. W.%Tso%NULL%1,                          Eric K. P.%Kong%NULL%1,                          Wilfred H. S.%Wong%NULL%1,                          Yuk Fai%To%NULL%1,                          Raymond W. H.%Yung%NULL%1,                          Eudora Y.%Chow%NULL%1,                          Ka Leung%Au%NULL%2,                          Eric Y. T.%Chan%NULL%2,                          Wilina%Lim%NULL%3,                          Jens C.%Jensenius%NULL%1,                          Malcolm W.%Turner%NULL%1,                          J. S. Malik%Peiris%NULL%1,                          Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                          Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                          Minako%Hijikata%NULL%0,                          Tran%Quy%NULL%0,                          Nguyen Chi%Phi%NULL%0,                          Hoang Thuy%Long%NULL%0,                          Le Dang%Ha%NULL%0,                          Vo Van%Ban%NULL%0,                          Ikumi%Matsushita%NULL%0,                          Hideki%Yanai%NULL%0,                          Fumiko%Kirikae%NULL%0,                          Teruo%Kirikae%NULL%0,                          Tadatoshi%Kuratsuji%NULL%0,                          Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                          J.%Tanner%NULL%1,                          P. K. S.%Chan%NULL%1,                          S.%Biffin%NULL%1,                          W. B.%Dyer%NULL%1,                          A. F.%Geczy%NULL%1,                          J. W.%Tang%NULL%1,                          D. S. C.%Hui%NULL%1,                          J. J. Y.%Sung%NULL%1,                          J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                          Gangqiao%Zhou%NULL%2,                          Lianteng%Zhi%NULL%1,                          Hao%Yang%NULL%1,                          Yun%Zhai%NULL%2,                          Xiaojia%Dong%NULL%1,                          Xiumei%Zhang%NULL%1,                          Xue%Gao%NULL%1,                          Yunping%Zhu%NULL%1,                          Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                          Kelvin Y K%Chan%NULL%1,                          Yongxiong%Chen%NULL%1,                          Leo L M%Poon%NULL%1,                          Annie N Y%Cheung%NULL%1,                          Bojian%Zheng%NULL%1,                          Kwok-Hung%Chan%NULL%1,                          William%Mak%NULL%1,                          Hextan Y S%Ngan%NULL%1,                          Xiaoning%Xu%NULL%1,                          Gavin%Screaton%NULL%1,                          Paul K H%Tam%NULL%1,                          Jonathan M%Austyn%NULL%1,                          Li-Chong%Chan%NULL%2,                          Shea-Ping%Yip%NULL%2,                          Malik%Peiris%NULL%2,                          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                          Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                          WK Eddie%Ip%WIP@partners.org%1,                          Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                          Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                          Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                          Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                          Raymond WH%Yung%rwhyung@ha.org.hk%2,                          Eudora Y%Chow%chowe@ha.org.hk%2,                          KL%Au%klau@ha.org.hk%1,                          Eric YT%Chan%eytchan@ha.org.hk%2,                          Wilina%Lim%wllim@pacific.net.hk%0,                          JS Malik%Peiris%malik@hkucc.hku.hk%2,                          Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                          Dan%Feng%fddd@263.net%1,                          Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                          Hongwei%Wang%whw7809@yahoo.com.cn%1,                          Arnaud%Fontanet%fontanet@pasteur.fr%1,                          Panhe%Zhang%juntianz@yahoo.com.cn%1,                          Sabine%Plancoulaine%plancoulaine@necker.fr%1,                          Fang%Tang%tf4065@sina.com%1,                          Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                          Hong%Yang%anni_yang@yahoo.com%1,                          Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                          Jan H%Richardus%j.richardus@erasmusmc.nl%1,                          J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                          Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                          Jyh-Yuan%Yang%NULL%1,                          Jih-Hui%Lin%NULL%1,                          Cathy S. J.%Fann%NULL%1,                          Valeriy%Osyetrov%NULL%1,                          Chwan-Chuen%King%NULL%1,                          Yi-Ming Arthur%Chen%NULL%1,                          Hsiao-Ling%Chang%NULL%1,                          Hung-Wei%Kuo%NULL%1,                          Fong%Liao%NULL%1,                          Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                          Johannes C. Y.%Ching%NULL%1,                          M. S.%Xu%NULL%1,                          Annie N. Y.%Cheung%NULL%1,                          Shea-Ping%Yip%NULL%0,                          Loretta Y. C.%Yam%NULL%1,                          Sik-To%Lai%NULL%2,                          Chung-Ming%Chu%NULL%2,                          Andrew T. Y.%Wong%NULL%1,                          You-Qiang%Song%NULL%1,                          Fang-Ping%Huang%NULL%1,                          Wei%Liu%NULL%1,                          P. H.%Chung%NULL%1,                          G. M.%Leung%NULL%1,                          Eudora Y. D.%Chow%NULL%1,                          Eric Y. T.%Chan%NULL%0,                          Jane C. K.%Chan%NULL%1,                          Hextan%Ngan%NULL%1,                          Paul%Tam%NULL%1,                          Li-Chong%Chan%NULL%0,                          Pak%Sham%NULL%1,                          Vera S. F.%Chan%NULL%1,                          Malik%Peiris%NULL%0,                          Steve C. L.%Lin%NULL%1,                          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                          Gangqiao%Zhou%zhougq@chgb.org.cn%0,                          Wai Po%Chong%h9820905@graduate.hku.hk%1,                          Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                          Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                          Hongxing%Zhang%zhanghx08@126.com%1,                          Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                          Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                          Yun%Zhai%zhaiyun077@tom.com%0,                          Raymond WH%Yung%rwhyung@ha.org.hk%0,                          Eudora Y%Chow%chowe@ha.org.hk%0,                          Ka Leung%Au%klau@ha.org.hk%0,                          Eric YT%Chan%eytchan@ha.org.hk%0,                          Wilina%Lim%wllim@pacific.net.hk%0,                          JS Malik%Peiris%malik@hkucc.hku.hk%0,                          Fuchu%He%hefc@nic.bmi.ac.cn%0,                          Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                          Maoti%Wei%weimaoti@yahoo.com.cn%1,                          Yi%Han%halanhan2001sh@163.com%1,                          Keju%Zhang%sinong77@sina.com%1,                          Li%He%wujinhl@163.com%1,                          Zhen%Yang%yzdtchina@yahoo.com.cn%1,                          Bing%Su%tjsubin553@sina.com%1,                          Zhilun%Zhang%zzl718@sina.com.cn%1,                          Yilan%Hu%yougu@yahoo.com.cn%1,                          Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                          Satoru%Itoyama%NULL%0,                          Koichi%Kashiwase%NULL%1,                          Nguyen Chi%Phi%NULL%0,                          Hoang Thuy%Long%NULL%0,                          Le Dang%Ha%NULL%0,                          Vo Van%Ban%NULL%0,                          Bach Khanh%Hoa%NULL%1,                          Nguyen Thi Le%Hang%NULL%1,                          Minako%Hijikata%NULL%0,                          Shinsaku%Sakurada%NULL%1,                          Masahiro%Satake%NULL%1,                          Katsushi%Tokunaga%NULL%1,                          Takehiko%Sasazuki%NULL%0,                          Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                          Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                          Yuling%Shi%sane222@163.com%1,                          Ping%Li%liping@nic.bmi.ac.cn%1,                          Chuanxuan%Liu%renew7306_cn@sina.com%1,                          Qingjun%Ma%maqingjun@sina.com%1,                          Ruifu%Yang%zhangf@big.ac.cn%1,                          Xiaoyi%Wang%happybettylx@hotmail.com%1,                          Lina%zhu%luckina@sina.com%1,                          Xiao%Yang%gaowei@sina.com%1,                          Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                          Mei-Shu%Xu%NULL%2,                          Johannes Chi Yun%Ching%NULL%1,                          Thomas Man Kit%So%NULL%1,                          Sik-To%Lai%NULL%0,                          Chung-Ming%Chu%NULL%0,                          Loretta Y.C.%Yam%NULL%1,                          Andrew T.Y.%Wong%NULL%1,                          Pui Hong%Chung%NULL%1,                          Vera Sau Fong%Chan%NULL%1,                          Chen Lung Steve%Lin%NULL%1,                          Pak Chung%Sham%NULL%1,                          Gabriel M.%Leung%NULL%2,                          Joseph S.M.%Peiris%NULL%1,                          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                          Kelvin Yuen Kwong%Chan%NULL%1,                          Eric Hing Leung%Lee%NULL%1,                          Mei-Shu%Xu%NULL%0,                          Campbell Kam Po%Ting%NULL%1,                          Thomas M. K.%So%NULL%1,                          Pak C.%Sham%NULL%1,                          Gabriel M.%Leung%NULL%0,                          Joseph S. M.%Peiris%NULL%1,                          Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                           Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                           Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                           Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                           Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                           Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                           Pei-Jan%Chen%g8640@ms13.hinet.net%1,                           Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                           Ken Hong%Lim%khlim@seed.net.tw%1,                           Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                           Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                           Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                           Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                           Nelson L S%Tang%NULL%1,                           David S C%Hui%NULL%1,                           Grace T Y%Chung%NULL%1,                           Stephen S C%Chim%NULL%1,                           K C Allen%Chan%NULL%1,                           Ying-man%Sung%NULL%1,                           Louis Y S%Chan%NULL%1,                           Yu-kwan%Tong%NULL%1,                           Wing-shan%Lee%NULL%1,                           Paul K S%Chan%NULL%1,                           Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                           Naoto%Keicho%NULL%3,                           Tran%Quy%NULL%4,                           Nguyen Chi%Phi%NULL%4,                           Hoang Thuy%Long%NULL%4,                           Le Dang%Ha%NULL%4,                           Vo Van%Ban%NULL%4,                           Jun%Ohashi%NULL%1,                           Minako%Hijikata%NULL%4,                           Ikumi%Matsushita%NULL%3,                           Akihiko%Kawana%NULL%1,                           Hideki%Yanai%NULL%3,                           Teruo%Kirikae%NULL%3,                           Tadatoshi%Kuratsuji%NULL%3,                           Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                           Kin-Mang%Lau%NULL%1,                           Libby%Li%NULL%1,                           Suk-Hang%Cheng%NULL%1,                           Wing Y.%Chan%NULL%1,                           Pak K.%Hui%NULL%1,                           Benny%Zee%NULL%1,                           Chi-Bon%Leung%NULL%1,                           Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                           Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                           David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                           Grace TY%Chung%gracechung@cuhk.edu.hk%1,                           Alan KL%Wu%alanklwu@yahoo.com%1,                           Stephen SC%Chim%sschim@cuhk.edu.hk%1,                           Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                           Nelson%Lee%leelsn@yahoo.com%1,                           KW%Choi%kwchoi12@netvigator.com%1,                           YM%Sung%mandysung@cuhk.edu.hk%1,                           Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                           YK%Tong%yktong@cuhk.edu.hk%1,                           ST%Lai%laist@ha.org.hk%1,                           WC%Yu%yuwc@ha.org.hk%1,                           Owen%Tsang%tyotsang@hotmail.com%1,                           YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                           Minako%Hijikata%NULL%0,                           Satoru%Itoyama%NULL%2,                           Tran%Quy%NULL%0,                           Nguyen Chi%Phi%NULL%0,                           Hoang Thuy%Long%NULL%0,                           Le Dang%Ha%NULL%0,                           Vo Van%Ban%NULL%0,                           Ikumi%Matsushita%NULL%0,                           Hideki%Yanai%NULL%0,                           Fumiko%Kirikae%NULL%2,                           Teruo%Kirikae%NULL%0,                           Tadatoshi%Kuratsuji%NULL%0,                           Takehiko%Sasazuki%NULL%0,                           Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                           Kwok Hung%Chan%NULL%1,                           Helen K. W.%Law%NULL%1,                           Gloria H. W.%Tso%NULL%1,                           Eric K. P.%Kong%NULL%1,                           Wilfred H. S.%Wong%NULL%1,                           Yuk Fai%To%NULL%1,                           Raymond W. H.%Yung%NULL%1,                           Eudora Y.%Chow%NULL%1,                           Ka Leung%Au%NULL%2,                           Eric Y. T.%Chan%NULL%2,                           Wilina%Lim%NULL%3,                           Jens C.%Jensenius%NULL%1,                           Malcolm W.%Turner%NULL%1,                           J. S. Malik%Peiris%NULL%1,                           Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                           Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                           Minako%Hijikata%NULL%0,                           Tran%Quy%NULL%0,                           Nguyen Chi%Phi%NULL%0,                           Hoang Thuy%Long%NULL%0,                           Le Dang%Ha%NULL%0,                           Vo Van%Ban%NULL%0,                           Ikumi%Matsushita%NULL%0,                           Hideki%Yanai%NULL%0,                           Fumiko%Kirikae%NULL%0,                           Teruo%Kirikae%NULL%0,                           Tadatoshi%Kuratsuji%NULL%0,                           Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                           J.%Tanner%NULL%1,                           P. K. S.%Chan%NULL%1,                           S.%Biffin%NULL%1,                           W. B.%Dyer%NULL%1,                           A. F.%Geczy%NULL%1,                           J. W.%Tang%NULL%1,                           D. S. C.%Hui%NULL%1,                           J. J. Y.%Sung%NULL%1,                           J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                           Gangqiao%Zhou%NULL%2,                           Lianteng%Zhi%NULL%1,                           Hao%Yang%NULL%1,                           Yun%Zhai%NULL%2,                           Xiaojia%Dong%NULL%1,                           Xiumei%Zhang%NULL%1,                           Xue%Gao%NULL%1,                           Yunping%Zhu%NULL%1,                           Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                           Kelvin Y K%Chan%NULL%1,                           Yongxiong%Chen%NULL%1,                           Leo L M%Poon%NULL%1,                           Annie N Y%Cheung%NULL%1,                           Bojian%Zheng%NULL%1,                           Kwok-Hung%Chan%NULL%1,                           William%Mak%NULL%1,                           Hextan Y S%Ngan%NULL%1,                           Xiaoning%Xu%NULL%1,                           Gavin%Screaton%NULL%1,                           Paul K H%Tam%NULL%1,                           Jonathan M%Austyn%NULL%1,                           Li-Chong%Chan%NULL%2,                           Shea-Ping%Yip%NULL%2,                           Malik%Peiris%NULL%2,                           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                           Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                           WK Eddie%Ip%WIP@partners.org%1,                           Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                           Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                           Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                           Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                           Raymond WH%Yung%rwhyung@ha.org.hk%2,                           Eudora Y%Chow%chowe@ha.org.hk%2,                           KL%Au%klau@ha.org.hk%1,                           Eric YT%Chan%eytchan@ha.org.hk%2,                           Wilina%Lim%wllim@pacific.net.hk%0,                           JS Malik%Peiris%malik@hkucc.hku.hk%2,                           Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                           Dan%Feng%fddd@263.net%1,                           Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                           Hongwei%Wang%whw7809@yahoo.com.cn%1,                           Arnaud%Fontanet%fontanet@pasteur.fr%1,                           Panhe%Zhang%juntianz@yahoo.com.cn%1,                           Sabine%Plancoulaine%plancoulaine@necker.fr%1,                           Fang%Tang%tf4065@sina.com%1,                           Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                           Hong%Yang%anni_yang@yahoo.com%1,                           Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                           Jan H%Richardus%j.richardus@erasmusmc.nl%1,                           J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                           Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                           Jyh-Yuan%Yang%NULL%1,                           Jih-Hui%Lin%NULL%1,                           Cathy S. J.%Fann%NULL%1,                           Valeriy%Osyetrov%NULL%1,                           Chwan-Chuen%King%NULL%1,                           Yi-Ming Arthur%Chen%NULL%1,                           Hsiao-Ling%Chang%NULL%1,                           Hung-Wei%Kuo%NULL%1,                           Fong%Liao%NULL%1,                           Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                           Johannes C. Y.%Ching%NULL%1,                           M. S.%Xu%NULL%1,                           Annie N. Y.%Cheung%NULL%1,                           Shea-Ping%Yip%NULL%0,                           Loretta Y. C.%Yam%NULL%1,                           Sik-To%Lai%NULL%2,                           Chung-Ming%Chu%NULL%2,                           Andrew T. Y.%Wong%NULL%1,                           You-Qiang%Song%NULL%1,                           Fang-Ping%Huang%NULL%1,                           Wei%Liu%NULL%1,                           P. H.%Chung%NULL%1,                           G. M.%Leung%NULL%1,                           Eudora Y. D.%Chow%NULL%1,                           Eric Y. T.%Chan%NULL%0,                           Jane C. K.%Chan%NULL%1,                           Hextan%Ngan%NULL%1,                           Paul%Tam%NULL%1,                           Li-Chong%Chan%NULL%0,                           Pak%Sham%NULL%1,                           Vera S. F.%Chan%NULL%1,                           Malik%Peiris%NULL%0,                           Steve C. L.%Lin%NULL%1,                           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                           Gangqiao%Zhou%zhougq@chgb.org.cn%0,                           Wai Po%Chong%h9820905@graduate.hku.hk%1,                           Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                           Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                           Hongxing%Zhang%zhanghx08@126.com%1,                           Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                           Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                           Yun%Zhai%zhaiyun077@tom.com%0,                           Raymond WH%Yung%rwhyung@ha.org.hk%0,                           Eudora Y%Chow%chowe@ha.org.hk%0,                           Ka Leung%Au%klau@ha.org.hk%0,                           Eric YT%Chan%eytchan@ha.org.hk%0,                           Wilina%Lim%wllim@pacific.net.hk%0,                           JS Malik%Peiris%malik@hkucc.hku.hk%0,                           Fuchu%He%hefc@nic.bmi.ac.cn%0,                           Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                           Maoti%Wei%weimaoti@yahoo.com.cn%1,                           Yi%Han%halanhan2001sh@163.com%1,                           Keju%Zhang%sinong77@sina.com%1,                           Li%He%wujinhl@163.com%1,                           Zhen%Yang%yzdtchina@yahoo.com.cn%1,                           Bing%Su%tjsubin553@sina.com%1,                           Zhilun%Zhang%zzl718@sina.com.cn%1,                           Yilan%Hu%yougu@yahoo.com.cn%1,                           Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                           Satoru%Itoyama%NULL%0,                           Koichi%Kashiwase%NULL%1,                           Nguyen Chi%Phi%NULL%0,                           Hoang Thuy%Long%NULL%0,                           Le Dang%Ha%NULL%0,                           Vo Van%Ban%NULL%0,                           Bach Khanh%Hoa%NULL%1,                           Nguyen Thi Le%Hang%NULL%1,                           Minako%Hijikata%NULL%0,                           Shinsaku%Sakurada%NULL%1,                           Masahiro%Satake%NULL%1,                           Katsushi%Tokunaga%NULL%1,                           Takehiko%Sasazuki%NULL%0,                           Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                           Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                           Yuling%Shi%sane222@163.com%1,                           Ping%Li%liping@nic.bmi.ac.cn%1,                           Chuanxuan%Liu%renew7306_cn@sina.com%1,                           Qingjun%Ma%maqingjun@sina.com%1,                           Ruifu%Yang%zhangf@big.ac.cn%1,                           Xiaoyi%Wang%happybettylx@hotmail.com%1,                           Lina%zhu%luckina@sina.com%1,                           Xiao%Yang%gaowei@sina.com%1,                           Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                           Mei-Shu%Xu%NULL%2,                           Johannes Chi Yun%Ching%NULL%1,                           Thomas Man Kit%So%NULL%1,                           Sik-To%Lai%NULL%0,                           Chung-Ming%Chu%NULL%0,                           Loretta Y.C.%Yam%NULL%1,                           Andrew T.Y.%Wong%NULL%1,                           Pui Hong%Chung%NULL%1,                           Vera Sau Fong%Chan%NULL%1,                           Chen Lung Steve%Lin%NULL%1,                           Pak Chung%Sham%NULL%1,                           Gabriel M.%Leung%NULL%2,                           Joseph S.M.%Peiris%NULL%1,                           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                           Kelvin Yuen Kwong%Chan%NULL%1,                           Eric Hing Leung%Lee%NULL%1,                           Mei-Shu%Xu%NULL%0,                           Campbell Kam Po%Ting%NULL%1,                           Thomas M. K.%So%NULL%1,                           Pak C.%Sham%NULL%1,                           Gabriel M.%Leung%NULL%0,                           Joseph S. M.%Peiris%NULL%1,                           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -2213,6 +2546,9 @@
       <c r="I1" t="s">
         <v>120</v>
       </c>
+      <c r="J1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2228,7 +2564,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2241,6 +2577,9 @@
       </c>
       <c r="I2" t="s">
         <v>503</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2257,7 +2596,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>531</v>
+        <v>645</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2270,6 +2609,9 @@
       </c>
       <c r="I3" t="s">
         <v>505</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2286,7 +2628,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>532</v>
+        <v>646</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2299,6 +2641,9 @@
       </c>
       <c r="I4" t="s">
         <v>507</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2315,7 +2660,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2328,6 +2673,9 @@
       </c>
       <c r="I5" t="s">
         <v>505</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2344,7 +2692,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2357,6 +2705,9 @@
       </c>
       <c r="I6" t="s">
         <v>503</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2373,7 +2724,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2386,6 +2737,9 @@
       </c>
       <c r="I7" t="s">
         <v>507</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2402,7 +2756,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2415,6 +2769,9 @@
       </c>
       <c r="I8" t="s">
         <v>505</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2431,7 +2788,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2444,6 +2801,9 @@
       </c>
       <c r="I9" t="s">
         <v>505</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2460,7 +2820,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2473,6 +2833,9 @@
       </c>
       <c r="I10" t="s">
         <v>505</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,7 +2852,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2502,6 +2865,9 @@
       </c>
       <c r="I11" t="s">
         <v>505</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2518,7 +2884,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>540</v>
+        <v>654</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2531,6 +2897,9 @@
       </c>
       <c r="I12" t="s">
         <v>503</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2547,7 +2916,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>541</v>
+        <v>655</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2560,6 +2929,9 @@
       </c>
       <c r="I13" t="s">
         <v>503</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2576,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2589,6 +2961,9 @@
       </c>
       <c r="I14" t="s">
         <v>503</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2605,7 +2980,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>543</v>
+        <v>657</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2618,6 +2993,9 @@
       </c>
       <c r="I15" t="s">
         <v>505</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2634,7 +3012,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>544</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2646,7 +3024,10 @@
         <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>520</v>
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2663,7 +3044,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>545</v>
+        <v>658</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -2676,6 +3057,9 @@
       </c>
       <c r="I17" t="s">
         <v>505</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2692,7 +3076,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>546</v>
+        <v>659</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -2705,6 +3089,9 @@
       </c>
       <c r="I18" t="s">
         <v>503</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2721,7 +3108,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>547</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -2733,7 +3120,10 @@
         <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>520</v>
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2750,7 +3140,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2762,7 +3152,10 @@
         <v>256</v>
       </c>
       <c r="I20" t="s">
-        <v>520</v>
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2779,7 +3172,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -2792,6 +3185,9 @@
       </c>
       <c r="I21" t="s">
         <v>503</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2808,7 +3204,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>550</v>
+        <v>661</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -2821,6 +3217,9 @@
       </c>
       <c r="I22" t="s">
         <v>507</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2837,7 +3236,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>551</v>
+        <v>662</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -2850,6 +3249,9 @@
       </c>
       <c r="I23" t="s">
         <v>503</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2866,7 +3268,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>663</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -2879,6 +3281,9 @@
       </c>
       <c r="I24" t="s">
         <v>507</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2895,7 +3300,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>553</v>
+        <v>664</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>
@@ -2908,6 +3313,9 @@
       </c>
       <c r="I25" t="s">
         <v>505</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/49.xlsx
+++ b/Covid_19_Dataset_and_References/References/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="707">
   <si>
     <t>Doi</t>
   </si>
@@ -2211,6 +2211,132 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                           Kelvin Yuen Kwong%Chan%NULL%1,                           Eric Hing Leung%Lee%NULL%1,                           Mei-Shu%Xu%NULL%0,                           Campbell Kam Po%Ting%NULL%1,                           Thomas M. K.%So%NULL%1,                           Pak C.%Sham%NULL%1,                           Gabriel M.%Leung%NULL%0,                           Joseph S. M.%Peiris%NULL%1,                           Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                            Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                            Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                            Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                            Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                            Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                            Pei-Jan%Chen%g8640@ms13.hinet.net%1,                            Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                            Ken Hong%Lim%khlim@seed.net.tw%1,                            Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                            Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                            Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                            Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                            Nelson L S%Tang%NULL%1,                            David S C%Hui%NULL%1,                            Grace T Y%Chung%NULL%1,                            Stephen S C%Chim%NULL%1,                            K C Allen%Chan%NULL%1,                            Ying-man%Sung%NULL%1,                            Louis Y S%Chan%NULL%1,                            Yu-kwan%Tong%NULL%1,                            Wing-shan%Lee%NULL%1,                            Paul K S%Chan%NULL%1,                            Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                            Naoto%Keicho%NULL%3,                            Tran%Quy%NULL%4,                            Nguyen Chi%Phi%NULL%4,                            Hoang Thuy%Long%NULL%4,                            Le Dang%Ha%NULL%4,                            Vo Van%Ban%NULL%4,                            Jun%Ohashi%NULL%1,                            Minako%Hijikata%NULL%4,                            Ikumi%Matsushita%NULL%3,                            Akihiko%Kawana%NULL%1,                            Hideki%Yanai%NULL%3,                            Teruo%Kirikae%NULL%3,                            Tadatoshi%Kuratsuji%NULL%3,                            Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                            Kin-Mang%Lau%NULL%1,                            Libby%Li%NULL%1,                            Suk-Hang%Cheng%NULL%1,                            Wing Y.%Chan%NULL%1,                            Pak K.%Hui%NULL%1,                            Benny%Zee%NULL%1,                            Chi-Bon%Leung%NULL%1,                            Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                            Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                            David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                            Grace TY%Chung%gracechung@cuhk.edu.hk%1,                            Alan KL%Wu%alanklwu@yahoo.com%1,                            Stephen SC%Chim%sschim@cuhk.edu.hk%1,                            Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                            Nelson%Lee%leelsn@yahoo.com%1,                            KW%Choi%kwchoi12@netvigator.com%1,                            YM%Sung%mandysung@cuhk.edu.hk%1,                            Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                            YK%Tong%yktong@cuhk.edu.hk%1,                            ST%Lai%laist@ha.org.hk%1,                            WC%Yu%yuwc@ha.org.hk%1,                            Owen%Tsang%tyotsang@hotmail.com%1,                            YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                            Minako%Hijikata%NULL%0,                            Satoru%Itoyama%NULL%2,                            Tran%Quy%NULL%0,                            Nguyen Chi%Phi%NULL%0,                            Hoang Thuy%Long%NULL%0,                            Le Dang%Ha%NULL%0,                            Vo Van%Ban%NULL%0,                            Ikumi%Matsushita%NULL%0,                            Hideki%Yanai%NULL%0,                            Fumiko%Kirikae%NULL%2,                            Teruo%Kirikae%NULL%0,                            Tadatoshi%Kuratsuji%NULL%0,                            Takehiko%Sasazuki%NULL%0,                            Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                            Kwok Hung%Chan%NULL%1,                            Helen K. W.%Law%NULL%1,                            Gloria H. W.%Tso%NULL%1,                            Eric K. P.%Kong%NULL%1,                            Wilfred H. S.%Wong%NULL%1,                            Yuk Fai%To%NULL%1,                            Raymond W. H.%Yung%NULL%1,                            Eudora Y.%Chow%NULL%1,                            Ka Leung%Au%NULL%2,                            Eric Y. T.%Chan%NULL%2,                            Wilina%Lim%NULL%3,                            Jens C.%Jensenius%NULL%1,                            Malcolm W.%Turner%NULL%1,                            J. S. Malik%Peiris%NULL%1,                            Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                            Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                            Minako%Hijikata%NULL%0,                            Tran%Quy%NULL%0,                            Nguyen Chi%Phi%NULL%0,                            Hoang Thuy%Long%NULL%0,                            Le Dang%Ha%NULL%0,                            Vo Van%Ban%NULL%0,                            Ikumi%Matsushita%NULL%0,                            Hideki%Yanai%NULL%0,                            Fumiko%Kirikae%NULL%0,                            Teruo%Kirikae%NULL%0,                            Tadatoshi%Kuratsuji%NULL%0,                            Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                            J.%Tanner%NULL%1,                            P. K. S.%Chan%NULL%1,                            S.%Biffin%NULL%1,                            W. B.%Dyer%NULL%1,                            A. F.%Geczy%NULL%1,                            J. W.%Tang%NULL%1,                            D. S. C.%Hui%NULL%1,                            J. J. Y.%Sung%NULL%1,                            J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                            Gangqiao%Zhou%NULL%2,                            Lianteng%Zhi%NULL%1,                            Hao%Yang%NULL%1,                            Yun%Zhai%NULL%2,                            Xiaojia%Dong%NULL%1,                            Xiumei%Zhang%NULL%1,                            Xue%Gao%NULL%1,                            Yunping%Zhu%NULL%1,                            Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                            Kelvin Y K%Chan%NULL%1,                            Yongxiong%Chen%NULL%1,                            Leo L M%Poon%NULL%1,                            Annie N Y%Cheung%NULL%1,                            Bojian%Zheng%NULL%1,                            Kwok-Hung%Chan%NULL%1,                            William%Mak%NULL%1,                            Hextan Y S%Ngan%NULL%1,                            Xiaoning%Xu%NULL%1,                            Gavin%Screaton%NULL%1,                            Paul K H%Tam%NULL%1,                            Jonathan M%Austyn%NULL%1,                            Li-Chong%Chan%NULL%2,                            Shea-Ping%Yip%NULL%2,                            Malik%Peiris%NULL%2,                            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                            Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                            WK Eddie%Ip%WIP@partners.org%1,                            Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                            Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                            Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                            Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                            Raymond WH%Yung%rwhyung@ha.org.hk%2,                            Eudora Y%Chow%chowe@ha.org.hk%2,                            KL%Au%klau@ha.org.hk%1,                            Eric YT%Chan%eytchan@ha.org.hk%2,                            Wilina%Lim%wllim@pacific.net.hk%0,                            JS Malik%Peiris%malik@hkucc.hku.hk%2,                            Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                            Dan%Feng%fddd@263.net%1,                            Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                            Hongwei%Wang%whw7809@yahoo.com.cn%1,                            Arnaud%Fontanet%fontanet@pasteur.fr%1,                            Panhe%Zhang%juntianz@yahoo.com.cn%1,                            Sabine%Plancoulaine%plancoulaine@necker.fr%1,                            Fang%Tang%tf4065@sina.com%1,                            Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                            Hong%Yang%anni_yang@yahoo.com%1,                            Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                            Jan H%Richardus%j.richardus@erasmusmc.nl%1,                            J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                            Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                            Jyh-Yuan%Yang%NULL%1,                            Jih-Hui%Lin%NULL%1,                            Cathy S. J.%Fann%NULL%1,                            Valeriy%Osyetrov%NULL%1,                            Chwan-Chuen%King%NULL%1,                            Yi-Ming Arthur%Chen%NULL%1,                            Hsiao-Ling%Chang%NULL%1,                            Hung-Wei%Kuo%NULL%1,                            Fong%Liao%NULL%1,                            Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                            Johannes C. Y.%Ching%NULL%1,                            M. S.%Xu%NULL%1,                            Annie N. Y.%Cheung%NULL%1,                            Shea-Ping%Yip%NULL%0,                            Loretta Y. C.%Yam%NULL%1,                            Sik-To%Lai%NULL%2,                            Chung-Ming%Chu%NULL%2,                            Andrew T. Y.%Wong%NULL%1,                            You-Qiang%Song%NULL%1,                            Fang-Ping%Huang%NULL%1,                            Wei%Liu%NULL%1,                            P. H.%Chung%NULL%1,                            G. M.%Leung%NULL%1,                            Eudora Y. D.%Chow%NULL%1,                            Eric Y. T.%Chan%NULL%0,                            Jane C. K.%Chan%NULL%1,                            Hextan%Ngan%NULL%1,                            Paul%Tam%NULL%1,                            Li-Chong%Chan%NULL%0,                            Pak%Sham%NULL%1,                            Vera S. F.%Chan%NULL%1,                            Malik%Peiris%NULL%0,                            Steve C. L.%Lin%NULL%1,                            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                            Gangqiao%Zhou%zhougq@chgb.org.cn%0,                            Wai Po%Chong%h9820905@graduate.hku.hk%1,                            Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                            Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                            Hongxing%Zhang%zhanghx08@126.com%1,                            Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                            Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                            Yun%Zhai%zhaiyun077@tom.com%0,                            Raymond WH%Yung%rwhyung@ha.org.hk%0,                            Eudora Y%Chow%chowe@ha.org.hk%0,                            Ka Leung%Au%klau@ha.org.hk%0,                            Eric YT%Chan%eytchan@ha.org.hk%0,                            Wilina%Lim%wllim@pacific.net.hk%0,                            JS Malik%Peiris%malik@hkucc.hku.hk%0,                            Fuchu%He%hefc@nic.bmi.ac.cn%0,                            Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                            Maoti%Wei%weimaoti@yahoo.com.cn%1,                            Yi%Han%halanhan2001sh@163.com%1,                            Keju%Zhang%sinong77@sina.com%1,                            Li%He%wujinhl@163.com%1,                            Zhen%Yang%yzdtchina@yahoo.com.cn%1,                            Bing%Su%tjsubin553@sina.com%1,                            Zhilun%Zhang%zzl718@sina.com.cn%1,                            Yilan%Hu%yougu@yahoo.com.cn%1,                            Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                            Satoru%Itoyama%NULL%0,                            Koichi%Kashiwase%NULL%1,                            Nguyen Chi%Phi%NULL%0,                            Hoang Thuy%Long%NULL%0,                            Le Dang%Ha%NULL%0,                            Vo Van%Ban%NULL%0,                            Bach Khanh%Hoa%NULL%1,                            Nguyen Thi Le%Hang%NULL%1,                            Minako%Hijikata%NULL%0,                            Shinsaku%Sakurada%NULL%1,                            Masahiro%Satake%NULL%1,                            Katsushi%Tokunaga%NULL%1,                            Takehiko%Sasazuki%NULL%0,                            Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                            Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                            Yuling%Shi%sane222@163.com%1,                            Ping%Li%liping@nic.bmi.ac.cn%1,                            Chuanxuan%Liu%renew7306_cn@sina.com%1,                            Qingjun%Ma%maqingjun@sina.com%1,                            Ruifu%Yang%zhangf@big.ac.cn%1,                            Xiaoyi%Wang%happybettylx@hotmail.com%1,                            Lina%zhu%luckina@sina.com%1,                            Xiao%Yang%gaowei@sina.com%1,                            Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                            Mei-Shu%Xu%NULL%2,                            Johannes Chi Yun%Ching%NULL%1,                            Thomas Man Kit%So%NULL%1,                            Sik-To%Lai%NULL%0,                            Chung-Ming%Chu%NULL%0,                            Loretta Y.C.%Yam%NULL%1,                            Andrew T.Y.%Wong%NULL%1,                            Pui Hong%Chung%NULL%1,                            Vera Sau Fong%Chan%NULL%1,                            Chen Lung Steve%Lin%NULL%1,                            Pak Chung%Sham%NULL%1,                            Gabriel M.%Leung%NULL%2,                            Joseph S.M.%Peiris%NULL%1,                            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                            Kelvin Yuen Kwong%Chan%NULL%1,                            Eric Hing Leung%Lee%NULL%1,                            Mei-Shu%Xu%NULL%0,                            Campbell Kam Po%Ting%NULL%1,                            Thomas M. K.%So%NULL%1,                            Pak C.%Sham%NULL%1,                            Gabriel M.%Leung%NULL%0,                            Joseph S. M.%Peiris%NULL%1,                            Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                             Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                             Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                             Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                             Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                             Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                             Pei-Jan%Chen%g8640@ms13.hinet.net%1,                             Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                             Ken Hong%Lim%khlim@seed.net.tw%1,                             Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                             Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                             Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                             Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                             Nelson L S%Tang%NULL%1,                             David S C%Hui%NULL%1,                             Grace T Y%Chung%NULL%1,                             Stephen S C%Chim%NULL%1,                             K C Allen%Chan%NULL%1,                             Ying-man%Sung%NULL%1,                             Louis Y S%Chan%NULL%1,                             Yu-kwan%Tong%NULL%1,                             Wing-shan%Lee%NULL%1,                             Paul K S%Chan%NULL%1,                             Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                             Naoto%Keicho%NULL%3,                             Tran%Quy%NULL%4,                             Nguyen Chi%Phi%NULL%4,                             Hoang Thuy%Long%NULL%4,                             Le Dang%Ha%NULL%4,                             Vo Van%Ban%NULL%4,                             Jun%Ohashi%NULL%1,                             Minako%Hijikata%NULL%4,                             Ikumi%Matsushita%NULL%3,                             Akihiko%Kawana%NULL%1,                             Hideki%Yanai%NULL%3,                             Teruo%Kirikae%NULL%3,                             Tadatoshi%Kuratsuji%NULL%3,                             Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                             Kin-Mang%Lau%NULL%1,                             Libby%Li%NULL%1,                             Suk-Hang%Cheng%NULL%1,                             Wing Y.%Chan%NULL%1,                             Pak K.%Hui%NULL%1,                             Benny%Zee%NULL%1,                             Chi-Bon%Leung%NULL%1,                             Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                             Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                             David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                             Grace TY%Chung%gracechung@cuhk.edu.hk%1,                             Alan KL%Wu%alanklwu@yahoo.com%1,                             Stephen SC%Chim%sschim@cuhk.edu.hk%1,                             Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                             Nelson%Lee%leelsn@yahoo.com%1,                             KW%Choi%kwchoi12@netvigator.com%1,                             YM%Sung%mandysung@cuhk.edu.hk%1,                             Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                             YK%Tong%yktong@cuhk.edu.hk%1,                             ST%Lai%laist@ha.org.hk%1,                             WC%Yu%yuwc@ha.org.hk%1,                             Owen%Tsang%tyotsang@hotmail.com%1,                             YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                             Minako%Hijikata%NULL%0,                             Satoru%Itoyama%NULL%2,                             Tran%Quy%NULL%0,                             Nguyen Chi%Phi%NULL%0,                             Hoang Thuy%Long%NULL%0,                             Le Dang%Ha%NULL%0,                             Vo Van%Ban%NULL%0,                             Ikumi%Matsushita%NULL%0,                             Hideki%Yanai%NULL%0,                             Fumiko%Kirikae%NULL%2,                             Teruo%Kirikae%NULL%0,                             Tadatoshi%Kuratsuji%NULL%0,                             Takehiko%Sasazuki%NULL%0,                             Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                             Kwok Hung%Chan%NULL%1,                             Helen K. W.%Law%NULL%1,                             Gloria H. W.%Tso%NULL%1,                             Eric K. P.%Kong%NULL%1,                             Wilfred H. S.%Wong%NULL%1,                             Yuk Fai%To%NULL%1,                             Raymond W. H.%Yung%NULL%1,                             Eudora Y.%Chow%NULL%1,                             Ka Leung%Au%NULL%2,                             Eric Y. T.%Chan%NULL%2,                             Wilina%Lim%NULL%3,                             Jens C.%Jensenius%NULL%1,                             Malcolm W.%Turner%NULL%1,                             J. S. Malik%Peiris%NULL%1,                             Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                             Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                             Minako%Hijikata%NULL%0,                             Tran%Quy%NULL%0,                             Nguyen Chi%Phi%NULL%0,                             Hoang Thuy%Long%NULL%0,                             Le Dang%Ha%NULL%0,                             Vo Van%Ban%NULL%0,                             Ikumi%Matsushita%NULL%0,                             Hideki%Yanai%NULL%0,                             Fumiko%Kirikae%NULL%0,                             Teruo%Kirikae%NULL%0,                             Tadatoshi%Kuratsuji%NULL%0,                             Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                             J.%Tanner%NULL%1,                             P. K. S.%Chan%NULL%1,                             S.%Biffin%NULL%1,                             W. B.%Dyer%NULL%1,                             A. F.%Geczy%NULL%1,                             J. W.%Tang%NULL%1,                             D. S. C.%Hui%NULL%1,                             J. J. Y.%Sung%NULL%1,                             J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                             Gangqiao%Zhou%NULL%2,                             Lianteng%Zhi%NULL%1,                             Hao%Yang%NULL%1,                             Yun%Zhai%NULL%2,                             Xiaojia%Dong%NULL%1,                             Xiumei%Zhang%NULL%1,                             Xue%Gao%NULL%1,                             Yunping%Zhu%NULL%1,                             Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                             Kelvin Y K%Chan%NULL%1,                             Yongxiong%Chen%NULL%1,                             Leo L M%Poon%NULL%1,                             Annie N Y%Cheung%NULL%1,                             Bojian%Zheng%NULL%1,                             Kwok-Hung%Chan%NULL%1,                             William%Mak%NULL%1,                             Hextan Y S%Ngan%NULL%1,                             Xiaoning%Xu%NULL%1,                             Gavin%Screaton%NULL%1,                             Paul K H%Tam%NULL%1,                             Jonathan M%Austyn%NULL%1,                             Li-Chong%Chan%NULL%2,                             Shea-Ping%Yip%NULL%2,                             Malik%Peiris%NULL%2,                             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                             Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                             WK Eddie%Ip%WIP@partners.org%1,                             Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                             Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                             Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                             Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                             Raymond WH%Yung%rwhyung@ha.org.hk%2,                             Eudora Y%Chow%chowe@ha.org.hk%2,                             KL%Au%klau@ha.org.hk%1,                             Eric YT%Chan%eytchan@ha.org.hk%2,                             Wilina%Lim%wllim@pacific.net.hk%0,                             JS Malik%Peiris%malik@hkucc.hku.hk%2,                             Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                             Dan%Feng%fddd@263.net%1,                             Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                             Hongwei%Wang%whw7809@yahoo.com.cn%1,                             Arnaud%Fontanet%fontanet@pasteur.fr%1,                             Panhe%Zhang%juntianz@yahoo.com.cn%1,                             Sabine%Plancoulaine%plancoulaine@necker.fr%1,                             Fang%Tang%tf4065@sina.com%1,                             Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                             Hong%Yang%anni_yang@yahoo.com%1,                             Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                             Jan H%Richardus%j.richardus@erasmusmc.nl%1,                             J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                             Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                             Jyh-Yuan%Yang%NULL%1,                             Jih-Hui%Lin%NULL%1,                             Cathy S. J.%Fann%NULL%1,                             Valeriy%Osyetrov%NULL%1,                             Chwan-Chuen%King%NULL%1,                             Yi-Ming Arthur%Chen%NULL%1,                             Hsiao-Ling%Chang%NULL%1,                             Hung-Wei%Kuo%NULL%1,                             Fong%Liao%NULL%1,                             Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                             Johannes C. Y.%Ching%NULL%1,                             M. S.%Xu%NULL%1,                             Annie N. Y.%Cheung%NULL%1,                             Shea-Ping%Yip%NULL%0,                             Loretta Y. C.%Yam%NULL%1,                             Sik-To%Lai%NULL%2,                             Chung-Ming%Chu%NULL%2,                             Andrew T. Y.%Wong%NULL%1,                             You-Qiang%Song%NULL%1,                             Fang-Ping%Huang%NULL%1,                             Wei%Liu%NULL%1,                             P. H.%Chung%NULL%1,                             G. M.%Leung%NULL%1,                             Eudora Y. D.%Chow%NULL%1,                             Eric Y. T.%Chan%NULL%0,                             Jane C. K.%Chan%NULL%1,                             Hextan%Ngan%NULL%1,                             Paul%Tam%NULL%1,                             Li-Chong%Chan%NULL%0,                             Pak%Sham%NULL%1,                             Vera S. F.%Chan%NULL%1,                             Malik%Peiris%NULL%0,                             Steve C. L.%Lin%NULL%1,                             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                             Gangqiao%Zhou%zhougq@chgb.org.cn%0,                             Wai Po%Chong%h9820905@graduate.hku.hk%1,                             Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                             Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                             Hongxing%Zhang%zhanghx08@126.com%1,                             Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                             Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                             Yun%Zhai%zhaiyun077@tom.com%0,                             Raymond WH%Yung%rwhyung@ha.org.hk%0,                             Eudora Y%Chow%chowe@ha.org.hk%0,                             Ka Leung%Au%klau@ha.org.hk%0,                             Eric YT%Chan%eytchan@ha.org.hk%0,                             Wilina%Lim%wllim@pacific.net.hk%0,                             JS Malik%Peiris%malik@hkucc.hku.hk%0,                             Fuchu%He%hefc@nic.bmi.ac.cn%0,                             Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                             Maoti%Wei%weimaoti@yahoo.com.cn%1,                             Yi%Han%halanhan2001sh@163.com%1,                             Keju%Zhang%sinong77@sina.com%1,                             Li%He%wujinhl@163.com%1,                             Zhen%Yang%yzdtchina@yahoo.com.cn%1,                             Bing%Su%tjsubin553@sina.com%1,                             Zhilun%Zhang%zzl718@sina.com.cn%1,                             Yilan%Hu%yougu@yahoo.com.cn%1,                             Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                             Satoru%Itoyama%NULL%0,                             Koichi%Kashiwase%NULL%1,                             Nguyen Chi%Phi%NULL%0,                             Hoang Thuy%Long%NULL%0,                             Le Dang%Ha%NULL%0,                             Vo Van%Ban%NULL%0,                             Bach Khanh%Hoa%NULL%1,                             Nguyen Thi Le%Hang%NULL%1,                             Minako%Hijikata%NULL%0,                             Shinsaku%Sakurada%NULL%1,                             Masahiro%Satake%NULL%1,                             Katsushi%Tokunaga%NULL%1,                             Takehiko%Sasazuki%NULL%0,                             Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                             Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                             Yuling%Shi%sane222@163.com%1,                             Ping%Li%liping@nic.bmi.ac.cn%1,                             Chuanxuan%Liu%renew7306_cn@sina.com%1,                             Qingjun%Ma%maqingjun@sina.com%1,                             Ruifu%Yang%zhangf@big.ac.cn%1,                             Xiaoyi%Wang%happybettylx@hotmail.com%1,                             Lina%zhu%luckina@sina.com%1,                             Xiao%Yang%gaowei@sina.com%1,                             Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                             Mei-Shu%Xu%NULL%2,                             Johannes Chi Yun%Ching%NULL%1,                             Thomas Man Kit%So%NULL%1,                             Sik-To%Lai%NULL%0,                             Chung-Ming%Chu%NULL%0,                             Loretta Y.C.%Yam%NULL%1,                             Andrew T.Y.%Wong%NULL%1,                             Pui Hong%Chung%NULL%1,                             Vera Sau Fong%Chan%NULL%1,                             Chen Lung Steve%Lin%NULL%1,                             Pak Chung%Sham%NULL%1,                             Gabriel M.%Leung%NULL%2,                             Joseph S.M.%Peiris%NULL%1,                             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                             Kelvin Yuen Kwong%Chan%NULL%1,                             Eric Hing Leung%Lee%NULL%1,                             Mei-Shu%Xu%NULL%0,                             Campbell Kam Po%Ting%NULL%1,                             Thomas M. K.%So%NULL%1,                             Pak C.%Sham%NULL%1,                             Gabriel M.%Leung%NULL%0,                             Joseph S. M.%Peiris%NULL%1,                             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2690,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2596,7 +2722,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2628,7 +2754,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2660,7 +2786,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2692,7 +2818,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2724,7 +2850,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>649</v>
+        <v>691</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2756,7 +2882,7 @@
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2788,7 +2914,7 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2820,7 +2946,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2852,7 +2978,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2884,7 +3010,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -2916,7 +3042,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2948,7 +3074,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2980,7 +3106,7 @@
         <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3012,7 +3138,7 @@
         <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -3044,7 +3170,7 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -3076,7 +3202,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -3108,7 +3234,7 @@
         <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -3140,7 +3266,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3172,7 +3298,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -3204,7 +3330,7 @@
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -3236,7 +3362,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -3268,7 +3394,7 @@
         <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -3300,7 +3426,7 @@
         <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>
